--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId3"/>
     <sheet name="Solvents_ions_only" sheetId="4" r:id="rId4"/>
     <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13186" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13218" uniqueCount="615">
   <si>
     <t>Compound</t>
   </si>
@@ -1781,12 +1782,108 @@
   <si>
     <t>count</t>
   </si>
+  <si>
+    <t>Nonpolar</t>
+  </si>
+  <si>
+    <t>Polar</t>
+  </si>
+  <si>
+    <t>Ions</t>
+  </si>
+  <si>
+    <t>Neutral species</t>
+  </si>
+  <si>
+    <t>Solvent</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>Dipole moment</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>'Water'</t>
+  </si>
+  <si>
+    <t>Hydrogen bond?</t>
+  </si>
+  <si>
+    <t>'Octanol'</t>
+  </si>
+  <si>
+    <t>~=2 surface area offset</t>
+  </si>
+  <si>
+    <t>'Dichloroethane'</t>
+  </si>
+  <si>
+    <t>High RMS for NP solvent</t>
+  </si>
+  <si>
+    <t>'Propanone'</t>
+  </si>
+  <si>
+    <t>small mu</t>
+  </si>
+  <si>
+    <t>'Dimethylsulfoxide'</t>
+  </si>
+  <si>
+    <t>Polar solvents</t>
+  </si>
+  <si>
+    <t>'Propanol'</t>
+  </si>
+  <si>
+    <t>Nonpolar solvents</t>
+  </si>
+  <si>
+    <t>'Dimethylformamide'</t>
+  </si>
+  <si>
+    <t>'Ethanol'</t>
+  </si>
+  <si>
+    <t>'Methanol'</t>
+  </si>
+  <si>
+    <t>'Acetonitrile'</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1817,8 +1914,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,13 +1941,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1985,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1871,8 +1997,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1888,22 +2018,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1914,6 +2066,451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1099457</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299700" y="482600"/>
+          <a:ext cx="807357" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>752143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10375900" y="2857500"/>
+          <a:ext cx="635000" cy="701343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>55154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>993775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>698500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10375900" y="2112554"/>
+          <a:ext cx="625475" cy="643346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1056975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>774700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="4368800"/>
+          <a:ext cx="777575" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>488898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071100" y="6591300"/>
+          <a:ext cx="1244600" cy="323798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1274646</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="5918200"/>
+          <a:ext cx="1185746" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>495299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10033000" y="5290050"/>
+          <a:ext cx="1308100" cy="361449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>495299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="3897488"/>
+          <a:ext cx="1333500" cy="331611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>39851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>711200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10223500" y="1513051"/>
+          <a:ext cx="927100" cy="671349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1287616</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10045700" y="1003300"/>
+          <a:ext cx="1249516" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV514"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="CL1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
     </sheetView>
   </sheetViews>
@@ -2569,11 +3166,11 @@
         <v>1</v>
       </c>
       <c r="CU2" t="str">
-        <f>IF(ISNUMBER(CK2),A2,"")</f>
+        <f>IF(ISNUMBER(CD2),A2,"")</f>
         <v/>
       </c>
       <c r="CV2" t="str">
-        <f>IF(ISNUMBER(CK2),CK2,"")</f>
+        <f>IF(ISNUMBER(CD2),CD2,"")</f>
         <v/>
       </c>
     </row>
@@ -2658,11 +3255,11 @@
         <v>1</v>
       </c>
       <c r="CU3" t="str">
-        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CK3),A3,"")</f>
+        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CD3),A3,"")</f>
         <v/>
       </c>
       <c r="CV3" t="str">
-        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CK3),CK3,"")</f>
+        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CD3),CD3,"")</f>
         <v/>
       </c>
     </row>
@@ -2754,11 +3351,11 @@
       </c>
       <c r="CU4" t="str">
         <f t="shared" si="0"/>
-        <v>1_bromobutane</v>
-      </c>
-      <c r="CV4">
+        <v/>
+      </c>
+      <c r="CV4" t="str">
         <f t="shared" si="1"/>
-        <v>-4.16</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.2">
@@ -3116,11 +3713,11 @@
       </c>
       <c r="CU8" t="str">
         <f t="shared" si="0"/>
-        <v>1_bromopentane</v>
-      </c>
-      <c r="CV8">
+        <v/>
+      </c>
+      <c r="CV8" t="str">
         <f t="shared" si="1"/>
-        <v>-4.68</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.2">
@@ -3211,11 +3808,11 @@
       </c>
       <c r="CU9" t="str">
         <f t="shared" si="0"/>
-        <v>1_bromopropane</v>
-      </c>
-      <c r="CV9">
+        <v/>
+      </c>
+      <c r="CV9" t="str">
         <f t="shared" si="1"/>
-        <v>-3.42</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.2">
@@ -3757,11 +4354,11 @@
       </c>
       <c r="CU15" t="str">
         <f t="shared" si="0"/>
-        <v>1_chloropropane</v>
-      </c>
-      <c r="CV15">
+        <v/>
+      </c>
+      <c r="CV15" t="str">
         <f t="shared" si="1"/>
-        <v>-3.06</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.2">
@@ -3941,11 +4538,11 @@
       </c>
       <c r="CU17" t="str">
         <f t="shared" si="0"/>
-        <v>1_iodobutane</v>
-      </c>
-      <c r="CV17">
+        <v/>
+      </c>
+      <c r="CV17" t="str">
         <f t="shared" si="1"/>
-        <v>-4.4400000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:100" x14ac:dyDescent="0.2">
@@ -4306,11 +4903,11 @@
       </c>
       <c r="CU21" t="str">
         <f t="shared" si="0"/>
-        <v>1_iodopropane</v>
-      </c>
-      <c r="CV21">
+        <v/>
+      </c>
+      <c r="CV21" t="str">
         <f t="shared" si="1"/>
-        <v>-3.99</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:100" x14ac:dyDescent="0.2">
@@ -4858,11 +5455,11 @@
       </c>
       <c r="CU27" t="str">
         <f t="shared" si="0"/>
-        <v>1_naphthylamine</v>
-      </c>
-      <c r="CV27">
+        <v/>
+      </c>
+      <c r="CV27" t="str">
         <f t="shared" si="1"/>
-        <v>-10.34</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:100" x14ac:dyDescent="0.2">
@@ -4956,11 +5553,11 @@
       </c>
       <c r="CU28" t="str">
         <f t="shared" si="0"/>
-        <v>1_nitrobutane</v>
-      </c>
-      <c r="CV28">
+        <v/>
+      </c>
+      <c r="CV28" t="str">
         <f t="shared" si="1"/>
-        <v>-5.1100000000000003</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:100" x14ac:dyDescent="0.2">
@@ -5152,11 +5749,11 @@
       </c>
       <c r="CU30" t="str">
         <f t="shared" si="0"/>
-        <v>1_nitropropane</v>
-      </c>
-      <c r="CV30">
+        <v/>
+      </c>
+      <c r="CV30" t="str">
         <f t="shared" si="1"/>
-        <v>-4.4400000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:100" x14ac:dyDescent="0.2">
@@ -5603,11 +6200,11 @@
       </c>
       <c r="CU35" t="str">
         <f t="shared" si="0"/>
-        <v>11_difluoroethane</v>
-      </c>
-      <c r="CV35">
+        <v/>
+      </c>
+      <c r="CV35" t="str">
         <f t="shared" si="1"/>
-        <v>-1.1299999999999999</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:100" x14ac:dyDescent="0.2">
@@ -5701,11 +6298,11 @@
       </c>
       <c r="CU36" t="str">
         <f t="shared" si="0"/>
-        <v>111_trichloroethane</v>
-      </c>
-      <c r="CV36">
+        <v/>
+      </c>
+      <c r="CV36" t="str">
         <f t="shared" si="1"/>
-        <v>-3.69</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:100" x14ac:dyDescent="0.2">
@@ -5882,11 +6479,11 @@
       </c>
       <c r="CU38" t="str">
         <f t="shared" si="0"/>
-        <v>111_trifluoropropan_2_ol</v>
-      </c>
-      <c r="CV38">
+        <v/>
+      </c>
+      <c r="CV38" t="str">
         <f t="shared" si="1"/>
-        <v>-5.12</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:100" x14ac:dyDescent="0.2">
@@ -6155,11 +6752,11 @@
       </c>
       <c r="CU41" t="str">
         <f t="shared" si="0"/>
-        <v>112_trichloro_122_trifluoroethane</v>
-      </c>
-      <c r="CV41">
+        <v/>
+      </c>
+      <c r="CV41" t="str">
         <f t="shared" si="1"/>
-        <v>-2.54</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:100" x14ac:dyDescent="0.2">
@@ -6250,11 +6847,11 @@
       </c>
       <c r="CU42" t="str">
         <f t="shared" si="0"/>
-        <v>112_trichloroethane</v>
-      </c>
-      <c r="CV42">
+        <v/>
+      </c>
+      <c r="CV42" t="str">
         <f t="shared" si="1"/>
-        <v>-4.53</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:100" x14ac:dyDescent="0.2">
@@ -6615,11 +7212,11 @@
       </c>
       <c r="CU46" t="str">
         <f t="shared" si="0"/>
-        <v>12_dichlorobenzene</v>
-      </c>
-      <c r="CV46">
+        <v/>
+      </c>
+      <c r="CV46" t="str">
         <f t="shared" si="1"/>
-        <v>-6.01</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:100" x14ac:dyDescent="0.2">
@@ -6719,11 +7316,11 @@
       </c>
       <c r="CU47" t="str">
         <f t="shared" si="0"/>
-        <v>12_dichloroethane</v>
-      </c>
-      <c r="CV47">
+        <v/>
+      </c>
+      <c r="CV47" t="str">
         <f t="shared" si="1"/>
-        <v>-3.81</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:100" x14ac:dyDescent="0.2">
@@ -6992,11 +7589,11 @@
       </c>
       <c r="CU50" t="str">
         <f t="shared" si="0"/>
-        <v>12_dimethoxyethane</v>
-      </c>
-      <c r="CV50">
+        <v/>
+      </c>
+      <c r="CV50" t="str">
         <f t="shared" si="1"/>
-        <v>-4.55</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:100" x14ac:dyDescent="0.2">
@@ -7102,11 +7699,11 @@
       </c>
       <c r="CU51" t="str">
         <f t="shared" si="0"/>
-        <v>12_ethanediol</v>
-      </c>
-      <c r="CV51">
+        <v/>
+      </c>
+      <c r="CV51" t="str">
         <f t="shared" si="1"/>
-        <v>-7.44</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:100" x14ac:dyDescent="0.2">
@@ -7728,11 +8325,11 @@
       </c>
       <c r="CU58" t="str">
         <f t="shared" si="0"/>
-        <v>1245_tetrachlorobenzene</v>
-      </c>
-      <c r="CV58">
+        <v/>
+      </c>
+      <c r="CV58" t="str">
         <f t="shared" si="1"/>
-        <v>-7.61</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:100" x14ac:dyDescent="0.2">
@@ -8296,7 +8893,7 @@
       </c>
       <c r="CV64">
         <f t="shared" si="1"/>
-        <v>-5.67</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="65" spans="1:100" x14ac:dyDescent="0.2">
@@ -8558,11 +9155,11 @@
         <v>1</v>
       </c>
       <c r="CU67" t="str">
-        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CK67),A67,"")</f>
+        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CD67),A67,"")</f>
         <v/>
       </c>
       <c r="CV67" t="str">
-        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CK67),CK67,"")</f>
+        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CD67),CD67,"")</f>
         <v/>
       </c>
     </row>
@@ -8775,7 +9372,7 @@
       </c>
       <c r="CV68">
         <f t="shared" si="5"/>
-        <v>-4.8899999999999997</v>
+        <v>-5.03</v>
       </c>
     </row>
     <row r="69" spans="1:100" x14ac:dyDescent="0.2">
@@ -8955,11 +9552,11 @@
       </c>
       <c r="CU70" t="str">
         <f t="shared" si="4"/>
-        <v>2_bromopropane</v>
-      </c>
-      <c r="CV70">
+        <v/>
+      </c>
+      <c r="CV70" t="str">
         <f t="shared" si="5"/>
-        <v>-3.4</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:100" x14ac:dyDescent="0.2">
@@ -9516,11 +10113,11 @@
       </c>
       <c r="CU76" t="str">
         <f t="shared" si="4"/>
-        <v>2_chlorophenol</v>
-      </c>
-      <c r="CV76">
+        <v/>
+      </c>
+      <c r="CV76" t="str">
         <f t="shared" si="5"/>
-        <v>-7.48</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:100" x14ac:dyDescent="0.2">
@@ -9611,11 +10208,11 @@
       </c>
       <c r="CU77" t="str">
         <f t="shared" si="4"/>
-        <v>2_chloropropane</v>
-      </c>
-      <c r="CV77">
+        <v/>
+      </c>
+      <c r="CV77" t="str">
         <f t="shared" si="5"/>
-        <v>-2.84</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:100" x14ac:dyDescent="0.2">
@@ -9792,11 +10389,11 @@
       </c>
       <c r="CU79" t="str">
         <f t="shared" si="4"/>
-        <v>2_chlorotoluene</v>
-      </c>
-      <c r="CV79">
+        <v/>
+      </c>
+      <c r="CV79" t="str">
         <f t="shared" si="5"/>
-        <v>-5.8</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:100" x14ac:dyDescent="0.2">
@@ -9976,11 +10573,11 @@
       </c>
       <c r="CU81" t="str">
         <f t="shared" si="4"/>
-        <v>2_ethylpyrazine</v>
-      </c>
-      <c r="CV81">
+        <v/>
+      </c>
+      <c r="CV81" t="str">
         <f t="shared" si="5"/>
-        <v>-6.4</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:100" x14ac:dyDescent="0.2">
@@ -10249,11 +10846,11 @@
       </c>
       <c r="CU84" t="str">
         <f t="shared" si="4"/>
-        <v>2_fluorophenol</v>
-      </c>
-      <c r="CV84">
+        <v/>
+      </c>
+      <c r="CV84" t="str">
         <f t="shared" si="5"/>
-        <v>-7.62</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:100" x14ac:dyDescent="0.2">
@@ -10350,11 +10947,11 @@
       </c>
       <c r="CU85" t="str">
         <f t="shared" si="4"/>
-        <v>2_iodophenol</v>
-      </c>
-      <c r="CV85">
+        <v/>
+      </c>
+      <c r="CV85" t="str">
         <f t="shared" si="5"/>
-        <v>-9.81</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:100" x14ac:dyDescent="0.2">
@@ -10442,11 +11039,11 @@
       </c>
       <c r="CU86" t="str">
         <f t="shared" si="4"/>
-        <v>2_iodopropane</v>
-      </c>
-      <c r="CV86">
+        <v/>
+      </c>
+      <c r="CV86" t="str">
         <f t="shared" si="5"/>
-        <v>-4.4000000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:100" x14ac:dyDescent="0.2">
@@ -10896,11 +11493,11 @@
       </c>
       <c r="CU91" t="str">
         <f t="shared" si="4"/>
-        <v>2_methoxyethanol</v>
-      </c>
-      <c r="CV91">
+        <v/>
+      </c>
+      <c r="CV91" t="str">
         <f t="shared" si="5"/>
-        <v>-5.83</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:100" x14ac:dyDescent="0.2">
@@ -12160,11 +12757,11 @@
       </c>
       <c r="CU105" t="str">
         <f t="shared" si="4"/>
-        <v>2_methylpropan_2_ol</v>
-      </c>
-      <c r="CV105">
+        <v/>
+      </c>
+      <c r="CV105" t="str">
         <f t="shared" si="5"/>
-        <v>-4.78</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:100" x14ac:dyDescent="0.2">
@@ -12255,11 +12852,11 @@
       </c>
       <c r="CU106" t="str">
         <f t="shared" si="4"/>
-        <v>2_methylpropane</v>
-      </c>
-      <c r="CV106">
+        <v/>
+      </c>
+      <c r="CV106" t="str">
         <f t="shared" si="5"/>
-        <v>-1.45</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:100" x14ac:dyDescent="0.2">
@@ -12350,11 +12947,11 @@
       </c>
       <c r="CU107" t="str">
         <f t="shared" si="4"/>
-        <v>2_methylpropene</v>
-      </c>
-      <c r="CV107">
+        <v/>
+      </c>
+      <c r="CV107" t="str">
         <f t="shared" si="5"/>
-        <v>-2.0299999999999998</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:100" x14ac:dyDescent="0.2">
@@ -12445,11 +13042,11 @@
       </c>
       <c r="CU108" t="str">
         <f t="shared" si="4"/>
-        <v>2_methylpyrazine</v>
-      </c>
-      <c r="CV108">
+        <v/>
+      </c>
+      <c r="CV108" t="str">
         <f t="shared" si="5"/>
-        <v>-5.87</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:100" x14ac:dyDescent="0.2">
@@ -12552,11 +13149,11 @@
       </c>
       <c r="CU109" t="str">
         <f t="shared" si="4"/>
-        <v>2_methylpyridine</v>
-      </c>
-      <c r="CV109">
+        <v/>
+      </c>
+      <c r="CV109" t="str">
         <f t="shared" si="5"/>
-        <v>-6.14</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:100" x14ac:dyDescent="0.2">
@@ -12852,11 +13449,11 @@
       </c>
       <c r="CU112" t="str">
         <f t="shared" si="4"/>
-        <v>2_naphthol</v>
-      </c>
-      <c r="CV112">
+        <v/>
+      </c>
+      <c r="CV112" t="str">
         <f t="shared" si="5"/>
-        <v>-11.78</v>
+        <v/>
       </c>
     </row>
     <row r="113" spans="1:100" x14ac:dyDescent="0.2">
@@ -12962,11 +13559,11 @@
       </c>
       <c r="CU113" t="str">
         <f t="shared" si="4"/>
-        <v>2_naphthylamine</v>
-      </c>
-      <c r="CV113">
+        <v/>
+      </c>
+      <c r="CV113" t="str">
         <f t="shared" si="5"/>
-        <v>-10.57</v>
+        <v/>
       </c>
     </row>
     <row r="114" spans="1:100" x14ac:dyDescent="0.2">
@@ -13235,11 +13832,11 @@
       </c>
       <c r="CU116" t="str">
         <f t="shared" si="4"/>
-        <v>2_nitropropane</v>
-      </c>
-      <c r="CV116">
+        <v/>
+      </c>
+      <c r="CV116" t="str">
         <f t="shared" si="5"/>
-        <v>-4.2300000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:100" x14ac:dyDescent="0.2">
@@ -13775,11 +14372,11 @@
       </c>
       <c r="CU122" t="str">
         <f t="shared" si="4"/>
-        <v>22_dimethylpropane</v>
-      </c>
-      <c r="CV122">
+        <v/>
+      </c>
+      <c r="CV122" t="str">
         <f t="shared" si="5"/>
-        <v>-1.74</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:100" x14ac:dyDescent="0.2">
@@ -13883,7 +14480,7 @@
       </c>
       <c r="CV123">
         <f t="shared" si="5"/>
-        <v>-4.8099999999999996</v>
+        <v>-6.93</v>
       </c>
     </row>
     <row r="124" spans="1:100" x14ac:dyDescent="0.2">
@@ -14590,11 +15187,11 @@
         <v>1</v>
       </c>
       <c r="CU131" t="str">
-        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CK131),A131,"")</f>
+        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CD131),A131,"")</f>
         <v/>
       </c>
       <c r="CV131" t="str">
-        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CK131),CK131,"")</f>
+        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CD131),CD131,"")</f>
         <v/>
       </c>
     </row>
@@ -15968,11 +16565,11 @@
       </c>
       <c r="CU146" t="str">
         <f t="shared" si="7"/>
-        <v>3_chlorophenol</v>
-      </c>
-      <c r="CV146">
+        <v/>
+      </c>
+      <c r="CV146" t="str">
         <f t="shared" si="8"/>
-        <v>-10.02</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:100" x14ac:dyDescent="0.2">
@@ -16149,11 +16746,11 @@
       </c>
       <c r="CU148" t="str">
         <f t="shared" si="7"/>
-        <v>3_chloropyridine</v>
-      </c>
-      <c r="CV148">
+        <v/>
+      </c>
+      <c r="CV148" t="str">
         <f t="shared" si="8"/>
-        <v>-5.82</v>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:100" x14ac:dyDescent="0.2">
@@ -17769,11 +18366,11 @@
       </c>
       <c r="CU166" t="str">
         <f t="shared" si="7"/>
-        <v>3_methylpyridine</v>
-      </c>
-      <c r="CV166">
+        <v/>
+      </c>
+      <c r="CV166" t="str">
         <f t="shared" si="8"/>
-        <v>-6.4</v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:100" x14ac:dyDescent="0.2">
@@ -17870,11 +18467,11 @@
       </c>
       <c r="CU167" t="str">
         <f t="shared" si="7"/>
-        <v>3_nitroaniline</v>
-      </c>
-      <c r="CV167">
+        <v/>
+      </c>
+      <c r="CV167" t="str">
         <f t="shared" si="8"/>
-        <v>-10.71</v>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:100" x14ac:dyDescent="0.2">
@@ -17983,11 +18580,11 @@
       </c>
       <c r="CU168" t="str">
         <f t="shared" si="7"/>
-        <v>3_nitrophenol</v>
-      </c>
-      <c r="CV168">
+        <v/>
+      </c>
+      <c r="CV168" t="str">
         <f t="shared" si="8"/>
-        <v>-12.34</v>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:100" x14ac:dyDescent="0.2">
@@ -18295,11 +18892,11 @@
       </c>
       <c r="CU171" t="str">
         <f t="shared" si="7"/>
-        <v>33_dimethylbutan_2_one</v>
-      </c>
-      <c r="CV171">
+        <v/>
+      </c>
+      <c r="CV171" t="str">
         <f t="shared" si="8"/>
-        <v>-4.53</v>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:100" x14ac:dyDescent="0.2">
@@ -19079,11 +19676,11 @@
       </c>
       <c r="CU179" t="str">
         <f t="shared" si="7"/>
-        <v>4_bromophenol</v>
-      </c>
-      <c r="CV179">
+        <v/>
+      </c>
+      <c r="CV179" t="str">
         <f t="shared" si="8"/>
-        <v>-10.59</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:100" x14ac:dyDescent="0.2">
@@ -19174,11 +19771,11 @@
       </c>
       <c r="CU180" t="str">
         <f t="shared" si="7"/>
-        <v>4_bromotoluene</v>
-      </c>
-      <c r="CV180">
+        <v/>
+      </c>
+      <c r="CV180" t="str">
         <f t="shared" si="8"/>
-        <v>-6.16</v>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:100" x14ac:dyDescent="0.2">
@@ -19471,11 +20068,11 @@
       </c>
       <c r="CU183" t="str">
         <f t="shared" si="7"/>
-        <v>4_chlorophenol</v>
-      </c>
-      <c r="CV183">
+        <v/>
+      </c>
+      <c r="CV183" t="str">
         <f t="shared" si="8"/>
-        <v>-10.3</v>
+        <v/>
       </c>
     </row>
     <row r="184" spans="1:100" x14ac:dyDescent="0.2">
@@ -19833,11 +20430,11 @@
       </c>
       <c r="CU187" t="str">
         <f t="shared" si="7"/>
-        <v>4_ethylpyridine</v>
-      </c>
-      <c r="CV187">
+        <v/>
+      </c>
+      <c r="CV187" t="str">
         <f t="shared" si="8"/>
-        <v>-7.8</v>
+        <v/>
       </c>
     </row>
     <row r="188" spans="1:100" x14ac:dyDescent="0.2">
@@ -20023,11 +20620,11 @@
       </c>
       <c r="CU189" t="str">
         <f t="shared" si="7"/>
-        <v>4_fluorophenol</v>
-      </c>
-      <c r="CV189">
+        <v/>
+      </c>
+      <c r="CV189" t="str">
         <f t="shared" si="8"/>
-        <v>-8.6</v>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:100" x14ac:dyDescent="0.2">
@@ -20225,11 +20822,11 @@
       </c>
       <c r="CU191" t="str">
         <f t="shared" si="7"/>
-        <v>4_hydroxybenzaldehyde</v>
-      </c>
-      <c r="CV191">
+        <v/>
+      </c>
+      <c r="CV191" t="str">
         <f t="shared" si="8"/>
-        <v>-12.36</v>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:100" x14ac:dyDescent="0.2">
@@ -20580,11 +21177,11 @@
         <v>1</v>
       </c>
       <c r="CU195" t="str">
-        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CK195),A195,"")</f>
+        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CD195),A195,"")</f>
         <v/>
       </c>
       <c r="CV195" t="str">
-        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CK195),CK195,"")</f>
+        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CD195),CD195,"")</f>
         <v/>
       </c>
     </row>
@@ -21047,11 +21644,11 @@
       </c>
       <c r="CU200" t="str">
         <f t="shared" si="10"/>
-        <v>4_methylpyridine</v>
-      </c>
-      <c r="CV200">
+        <v/>
+      </c>
+      <c r="CV200" t="str">
         <f t="shared" si="11"/>
-        <v>-6.6</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:100" x14ac:dyDescent="0.2">
@@ -21270,11 +21867,11 @@
       </c>
       <c r="CU202" t="str">
         <f t="shared" si="10"/>
-        <v>4_nitroaniline</v>
-      </c>
-      <c r="CV202">
+        <v/>
+      </c>
+      <c r="CV202" t="str">
         <f t="shared" si="11"/>
-        <v>-11.35</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:100" x14ac:dyDescent="0.2">
@@ -21814,11 +22411,11 @@
       </c>
       <c r="CU207" t="str">
         <f t="shared" si="10"/>
-        <v>acetic_acid</v>
-      </c>
-      <c r="CV207">
+        <v/>
+      </c>
+      <c r="CV207" t="str">
         <f t="shared" si="11"/>
-        <v>-6.35</v>
+        <v/>
       </c>
     </row>
     <row r="208" spans="1:100" x14ac:dyDescent="0.2">
@@ -21946,7 +22543,7 @@
       </c>
       <c r="CV208">
         <f t="shared" si="11"/>
-        <v>-3.15</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="209" spans="1:100" x14ac:dyDescent="0.2">
@@ -22083,7 +22680,7 @@
       </c>
       <c r="CV209">
         <f t="shared" si="11"/>
-        <v>-6.74</v>
+        <v>-7.63</v>
       </c>
     </row>
     <row r="210" spans="1:100" x14ac:dyDescent="0.2">
@@ -22335,11 +22932,11 @@
       </c>
       <c r="CU211" t="str">
         <f t="shared" si="10"/>
-        <v>aniline</v>
-      </c>
-      <c r="CV211">
+        <v/>
+      </c>
+      <c r="CV211" t="str">
         <f t="shared" si="11"/>
-        <v>-6.71</v>
+        <v/>
       </c>
     </row>
     <row r="212" spans="1:100" x14ac:dyDescent="0.2">
@@ -22461,7 +23058,7 @@
       </c>
       <c r="CV212">
         <f t="shared" si="11"/>
-        <v>-5.47</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="213" spans="1:100" x14ac:dyDescent="0.2">
@@ -22604,7 +23201,7 @@
       </c>
       <c r="CV213">
         <f t="shared" si="11"/>
-        <v>-10.47</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="214" spans="1:100" x14ac:dyDescent="0.2">
@@ -22821,7 +23418,7 @@
       </c>
       <c r="CV215">
         <f t="shared" si="11"/>
-        <v>-6.13</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="216" spans="1:100" x14ac:dyDescent="0.2">
@@ -22939,11 +23536,11 @@
       </c>
       <c r="CU216" t="str">
         <f t="shared" si="10"/>
-        <v>benzamide</v>
-      </c>
-      <c r="CV216">
+        <v/>
+      </c>
+      <c r="CV216" t="str">
         <f t="shared" si="11"/>
-        <v>-11.77</v>
+        <v/>
       </c>
     </row>
     <row r="217" spans="1:100" x14ac:dyDescent="0.2">
@@ -23110,7 +23707,7 @@
       </c>
       <c r="CV217">
         <f t="shared" si="11"/>
-        <v>-3.72</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="218" spans="1:100" x14ac:dyDescent="0.2">
@@ -23216,11 +23813,11 @@
       </c>
       <c r="CU218" t="str">
         <f t="shared" si="10"/>
-        <v>benzonitrile</v>
-      </c>
-      <c r="CV218">
+        <v/>
+      </c>
+      <c r="CV218" t="str">
         <f t="shared" si="11"/>
-        <v>-6.09</v>
+        <v/>
       </c>
     </row>
     <row r="219" spans="1:100" x14ac:dyDescent="0.2">
@@ -23428,7 +24025,7 @@
       </c>
       <c r="CV220">
         <f t="shared" si="11"/>
-        <v>-8.1199999999999992</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="221" spans="1:100" x14ac:dyDescent="0.2">
@@ -23725,7 +24322,7 @@
       </c>
       <c r="CV223">
         <f t="shared" si="11"/>
-        <v>-8.18</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="224" spans="1:100" x14ac:dyDescent="0.2">
@@ -23948,7 +24545,7 @@
       </c>
       <c r="CV225">
         <f t="shared" si="11"/>
-        <v>-62.61</v>
+        <v>-57.838999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.2">
@@ -24069,11 +24666,11 @@
       </c>
       <c r="CU226" t="str">
         <f t="shared" si="10"/>
-        <v>bromobenzene</v>
-      </c>
-      <c r="CV226">
+        <v/>
+      </c>
+      <c r="CV226" t="str">
         <f t="shared" si="11"/>
-        <v>-5.46</v>
+        <v/>
       </c>
     </row>
     <row r="227" spans="1:100" x14ac:dyDescent="0.2">
@@ -24177,7 +24774,7 @@
       </c>
       <c r="CV227">
         <f t="shared" si="11"/>
-        <v>-2.9</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="228" spans="1:100" x14ac:dyDescent="0.2">
@@ -24277,11 +24874,11 @@
       </c>
       <c r="CU228" t="str">
         <f t="shared" si="10"/>
-        <v>bromoethane</v>
-      </c>
-      <c r="CV228">
+        <v/>
+      </c>
+      <c r="CV228" t="str">
         <f t="shared" si="11"/>
-        <v>-2.9</v>
+        <v/>
       </c>
     </row>
     <row r="229" spans="1:100" x14ac:dyDescent="0.2">
@@ -24369,11 +24966,11 @@
       </c>
       <c r="CU229" t="str">
         <f t="shared" si="10"/>
-        <v>bromomethane</v>
-      </c>
-      <c r="CV229">
+        <v/>
+      </c>
+      <c r="CV229" t="str">
         <f t="shared" si="11"/>
-        <v>-2.4300000000000002</v>
+        <v/>
       </c>
     </row>
     <row r="230" spans="1:100" x14ac:dyDescent="0.2">
@@ -24461,11 +25058,11 @@
       </c>
       <c r="CU230" t="str">
         <f t="shared" si="10"/>
-        <v>bromotrifluoromethane</v>
-      </c>
-      <c r="CV230">
+        <v/>
+      </c>
+      <c r="CV230" t="str">
         <f t="shared" si="11"/>
-        <v>-0.75</v>
+        <v/>
       </c>
     </row>
     <row r="231" spans="1:100" x14ac:dyDescent="0.2">
@@ -24562,11 +25159,11 @@
       </c>
       <c r="CU231" t="str">
         <f t="shared" si="10"/>
-        <v>but_1_ene</v>
-      </c>
-      <c r="CV231">
+        <v/>
+      </c>
+      <c r="CV231" t="str">
         <f t="shared" si="11"/>
-        <v>-1.89</v>
+        <v/>
       </c>
     </row>
     <row r="232" spans="1:100" x14ac:dyDescent="0.2">
@@ -24654,11 +25251,11 @@
       </c>
       <c r="CU232" t="str">
         <f t="shared" si="10"/>
-        <v>but_1_yne</v>
-      </c>
-      <c r="CV232">
+        <v/>
+      </c>
+      <c r="CV232" t="str">
         <f t="shared" si="11"/>
-        <v>-2.15</v>
+        <v/>
       </c>
     </row>
     <row r="233" spans="1:100" x14ac:dyDescent="0.2">
@@ -24922,11 +25519,11 @@
       </c>
       <c r="CU234" t="str">
         <f t="shared" si="10"/>
-        <v>butan_1_ol</v>
-      </c>
-      <c r="CV234">
+        <v/>
+      </c>
+      <c r="CV234" t="str">
         <f t="shared" si="11"/>
-        <v>-5.71</v>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:100" x14ac:dyDescent="0.2">
@@ -25106,11 +25703,11 @@
       </c>
       <c r="CU236" t="str">
         <f t="shared" si="10"/>
-        <v>butanenitrile</v>
-      </c>
-      <c r="CV236">
+        <v/>
+      </c>
+      <c r="CV236" t="str">
         <f t="shared" si="11"/>
-        <v>-4.25</v>
+        <v/>
       </c>
     </row>
     <row r="237" spans="1:100" x14ac:dyDescent="0.2">
@@ -25261,11 +25858,11 @@
       </c>
       <c r="CU237" t="str">
         <f t="shared" si="10"/>
-        <v>butanoic_acid</v>
-      </c>
-      <c r="CV237">
+        <v/>
+      </c>
+      <c r="CV237" t="str">
         <f t="shared" si="11"/>
-        <v>-7.58</v>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.2">
@@ -25507,7 +26104,7 @@
       </c>
       <c r="CV238">
         <f t="shared" si="11"/>
-        <v>-3.78</v>
+        <v>-4.5599999999999996</v>
       </c>
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.2">
@@ -25595,11 +26192,11 @@
       </c>
       <c r="CU239" t="str">
         <f t="shared" si="10"/>
-        <v>butyraldehyde</v>
-      </c>
-      <c r="CV239">
+        <v/>
+      </c>
+      <c r="CV239" t="str">
         <f t="shared" si="11"/>
-        <v>-4.62</v>
+        <v/>
       </c>
     </row>
     <row r="240" spans="1:100" x14ac:dyDescent="0.2">
@@ -25739,7 +26336,7 @@
       </c>
       <c r="CV240">
         <f t="shared" si="11"/>
-        <v>-5</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="241" spans="1:100" x14ac:dyDescent="0.2">
@@ -25926,7 +26523,7 @@
       </c>
       <c r="CV242">
         <f t="shared" si="11"/>
-        <v>-2.58</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="243" spans="1:100" x14ac:dyDescent="0.2">
@@ -26014,11 +26611,11 @@
       </c>
       <c r="CU243" t="str">
         <f t="shared" si="10"/>
-        <v>chloroethylene</v>
-      </c>
-      <c r="CV243">
+        <v/>
+      </c>
+      <c r="CV243" t="str">
         <f t="shared" si="11"/>
-        <v>-2.66</v>
+        <v/>
       </c>
     </row>
     <row r="244" spans="1:100" x14ac:dyDescent="0.2">
@@ -26205,7 +26802,7 @@
       </c>
       <c r="CV245">
         <f t="shared" si="11"/>
-        <v>-1.79</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="246" spans="1:100" x14ac:dyDescent="0.2">
@@ -26428,7 +27025,7 @@
       </c>
       <c r="CV247">
         <f t="shared" si="11"/>
-        <v>-68.19</v>
+        <v>-61.185000000000002</v>
       </c>
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.2">
@@ -26555,11 +27152,11 @@
       </c>
       <c r="CU248" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV248" t="str">
+        <v>Cs</v>
+      </c>
+      <c r="CV248">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-75.765000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.2">
@@ -26972,7 +27569,7 @@
       </c>
       <c r="CV252">
         <f t="shared" si="11"/>
-        <v>-3.46</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="253" spans="1:100" x14ac:dyDescent="0.2">
@@ -27419,11 +28016,11 @@
       </c>
       <c r="CU257" t="str">
         <f t="shared" si="10"/>
-        <v>cyclopentane</v>
-      </c>
-      <c r="CV257">
+        <v/>
+      </c>
+      <c r="CV257" t="str">
         <f t="shared" si="11"/>
-        <v>-2.65</v>
+        <v/>
       </c>
     </row>
     <row r="258" spans="1:100" x14ac:dyDescent="0.2">
@@ -27611,12 +28208,12 @@
         <v>4</v>
       </c>
       <c r="CU259" t="str">
-        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CK259),A259,"")</f>
-        <v>cyclopentanone</v>
-      </c>
-      <c r="CV259">
-        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CK259),CK259,"")</f>
-        <v>-5.01</v>
+        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CD259),A259,"")</f>
+        <v/>
+      </c>
+      <c r="CV259" t="str">
+        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CD259),CD259,"")</f>
+        <v/>
       </c>
     </row>
     <row r="260" spans="1:100" x14ac:dyDescent="0.2">
@@ -27796,11 +28393,11 @@
       </c>
       <c r="CU261" t="str">
         <f t="shared" si="13"/>
-        <v>cyclopropane</v>
-      </c>
-      <c r="CV261">
+        <v/>
+      </c>
+      <c r="CV261" t="str">
         <f t="shared" si="14"/>
-        <v>-1.6</v>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:100" x14ac:dyDescent="0.2">
@@ -27894,11 +28491,11 @@
       </c>
       <c r="CU262" t="str">
         <f t="shared" si="13"/>
-        <v>decan_1_ol</v>
-      </c>
-      <c r="CV262">
+        <v/>
+      </c>
+      <c r="CV262" t="str">
         <f t="shared" si="14"/>
-        <v>-9.8800000000000008</v>
+        <v/>
       </c>
     </row>
     <row r="263" spans="1:100" x14ac:dyDescent="0.2">
@@ -28612,11 +29209,11 @@
       </c>
       <c r="CU270" t="str">
         <f t="shared" si="13"/>
-        <v>dibromomethane</v>
-      </c>
-      <c r="CV270">
+        <v/>
+      </c>
+      <c r="CV270" t="str">
         <f t="shared" si="14"/>
-        <v>-4.18</v>
+        <v/>
       </c>
     </row>
     <row r="271" spans="1:100" x14ac:dyDescent="0.2">
@@ -28740,11 +29337,11 @@
       </c>
       <c r="CU271" t="str">
         <f t="shared" si="13"/>
-        <v>dichloromethane</v>
-      </c>
-      <c r="CV271">
+        <v/>
+      </c>
+      <c r="CV271" t="str">
         <f t="shared" si="14"/>
-        <v>-3.07</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:100" x14ac:dyDescent="0.2">
@@ -28927,11 +29524,11 @@
       </c>
       <c r="CU273" t="str">
         <f t="shared" si="13"/>
-        <v>diethyl_disulfide</v>
-      </c>
-      <c r="CV273">
+        <v/>
+      </c>
+      <c r="CV273" t="str">
         <f t="shared" si="14"/>
-        <v>-5.45</v>
+        <v/>
       </c>
     </row>
     <row r="274" spans="1:100" x14ac:dyDescent="0.2">
@@ -29043,11 +29640,11 @@
       </c>
       <c r="CU274" t="str">
         <f t="shared" si="13"/>
-        <v>diethyl_ether</v>
-      </c>
-      <c r="CV274">
+        <v/>
+      </c>
+      <c r="CV274" t="str">
         <f t="shared" si="14"/>
-        <v>-2.89</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:100" x14ac:dyDescent="0.2">
@@ -29319,11 +29916,11 @@
       </c>
       <c r="CU277" t="str">
         <f t="shared" si="13"/>
-        <v>diethyl_sulfide</v>
-      </c>
-      <c r="CV277">
+        <v/>
+      </c>
+      <c r="CV277" t="str">
         <f t="shared" si="14"/>
-        <v>-4.09</v>
+        <v/>
       </c>
     </row>
     <row r="278" spans="1:100" x14ac:dyDescent="0.2">
@@ -29453,11 +30050,11 @@
       </c>
       <c r="CU278" t="str">
         <f t="shared" si="13"/>
-        <v>diethylamine</v>
-      </c>
-      <c r="CV278">
+        <v/>
+      </c>
+      <c r="CV278" t="str">
         <f t="shared" si="14"/>
-        <v>-4.75</v>
+        <v/>
       </c>
     </row>
     <row r="279" spans="1:100" x14ac:dyDescent="0.2">
@@ -29548,11 +30145,11 @@
       </c>
       <c r="CU279" t="str">
         <f t="shared" si="13"/>
-        <v>diiodomethane</v>
-      </c>
-      <c r="CV279">
+        <v/>
+      </c>
+      <c r="CV279" t="str">
         <f t="shared" si="14"/>
-        <v>-5.63</v>
+        <v/>
       </c>
     </row>
     <row r="280" spans="1:100" x14ac:dyDescent="0.2">
@@ -29910,11 +30507,11 @@
       </c>
       <c r="CU283" t="str">
         <f t="shared" si="13"/>
-        <v>dimethyl_disulfide</v>
-      </c>
-      <c r="CV283">
+        <v/>
+      </c>
+      <c r="CV283" t="str">
         <f t="shared" si="14"/>
-        <v>-4.24</v>
+        <v/>
       </c>
     </row>
     <row r="284" spans="1:100" x14ac:dyDescent="0.2">
@@ -30005,11 +30602,11 @@
       </c>
       <c r="CU284" t="str">
         <f t="shared" si="13"/>
-        <v>dimethyl_ether</v>
-      </c>
-      <c r="CV284">
+        <v/>
+      </c>
+      <c r="CV284" t="str">
         <f t="shared" si="14"/>
-        <v>-2.06</v>
+        <v/>
       </c>
     </row>
     <row r="285" spans="1:100" x14ac:dyDescent="0.2">
@@ -30499,7 +31096,7 @@
       </c>
       <c r="CV289">
         <f t="shared" si="14"/>
-        <v>-2.72</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="290" spans="1:100" x14ac:dyDescent="0.2">
@@ -31158,7 +31755,7 @@
       </c>
       <c r="CV296">
         <f t="shared" si="14"/>
-        <v>-0.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="297" spans="1:100" x14ac:dyDescent="0.2">
@@ -31501,7 +32098,7 @@
       </c>
       <c r="CV298">
         <f t="shared" si="14"/>
-        <v>-4.3600000000000003</v>
+        <v>-5.23</v>
       </c>
     </row>
     <row r="299" spans="1:100" x14ac:dyDescent="0.2">
@@ -31592,11 +32189,11 @@
       </c>
       <c r="CU299" t="str">
         <f t="shared" si="13"/>
-        <v>ethene</v>
-      </c>
-      <c r="CV299">
+        <v/>
+      </c>
+      <c r="CV299" t="str">
         <f t="shared" si="14"/>
-        <v>-0.27</v>
+        <v/>
       </c>
     </row>
     <row r="300" spans="1:100" x14ac:dyDescent="0.2">
@@ -31769,7 +32366,7 @@
       </c>
       <c r="CV300">
         <f t="shared" si="14"/>
-        <v>-4.0599999999999996</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="301" spans="1:100" x14ac:dyDescent="0.2">
@@ -31863,11 +32460,11 @@
       </c>
       <c r="CU301" t="str">
         <f t="shared" si="13"/>
-        <v>ethyl_benzoate</v>
-      </c>
-      <c r="CV301">
+        <v/>
+      </c>
+      <c r="CV301" t="str">
         <f t="shared" si="14"/>
-        <v>-7.24</v>
+        <v/>
       </c>
     </row>
     <row r="302" spans="1:100" x14ac:dyDescent="0.2">
@@ -32323,11 +32920,11 @@
       </c>
       <c r="CU306" t="str">
         <f t="shared" si="13"/>
-        <v>ethyl_phenyl_ether</v>
-      </c>
-      <c r="CV306">
+        <v/>
+      </c>
+      <c r="CV306" t="str">
         <f t="shared" si="14"/>
-        <v>-5.65</v>
+        <v/>
       </c>
     </row>
     <row r="307" spans="1:100" x14ac:dyDescent="0.2">
@@ -32564,11 +33161,11 @@
       </c>
       <c r="CU308" t="str">
         <f t="shared" si="13"/>
-        <v>ethylamine</v>
-      </c>
-      <c r="CV308">
+        <v/>
+      </c>
+      <c r="CV308" t="str">
         <f t="shared" si="14"/>
-        <v>-4.09</v>
+        <v/>
       </c>
     </row>
     <row r="309" spans="1:100" x14ac:dyDescent="0.2">
@@ -32683,11 +33280,11 @@
       </c>
       <c r="CU309" t="str">
         <f t="shared" si="13"/>
-        <v>ethylbenzene</v>
-      </c>
-      <c r="CV309">
+        <v/>
+      </c>
+      <c r="CV309" t="str">
         <f t="shared" si="14"/>
-        <v>-5.08</v>
+        <v/>
       </c>
     </row>
     <row r="310" spans="1:100" x14ac:dyDescent="0.2">
@@ -32894,11 +33491,11 @@
       </c>
       <c r="CU311" t="str">
         <f t="shared" si="13"/>
-        <v>fluorobenzene</v>
-      </c>
-      <c r="CV311">
+        <v/>
+      </c>
+      <c r="CV311" t="str">
         <f t="shared" si="14"/>
-        <v>-3.87</v>
+        <v/>
       </c>
     </row>
     <row r="312" spans="1:100" x14ac:dyDescent="0.2">
@@ -33093,11 +33690,11 @@
       </c>
       <c r="CU313" t="str">
         <f t="shared" si="13"/>
-        <v>formaldehyde</v>
-      </c>
-      <c r="CV313">
+        <v/>
+      </c>
+      <c r="CV313" t="str">
         <f t="shared" si="14"/>
-        <v>-3.23</v>
+        <v/>
       </c>
     </row>
     <row r="314" spans="1:100" x14ac:dyDescent="0.2">
@@ -33512,11 +34109,11 @@
       </c>
       <c r="CU317" t="str">
         <f t="shared" si="13"/>
-        <v>heptan_1_ol</v>
-      </c>
-      <c r="CV317">
+        <v/>
+      </c>
+      <c r="CV317" t="str">
         <f t="shared" si="14"/>
-        <v>-7.75</v>
+        <v/>
       </c>
     </row>
     <row r="318" spans="1:100" x14ac:dyDescent="0.2">
@@ -33649,11 +34246,11 @@
       </c>
       <c r="CU318" t="str">
         <f t="shared" si="13"/>
-        <v>heptan_2_one</v>
-      </c>
-      <c r="CV318">
+        <v/>
+      </c>
+      <c r="CV318" t="str">
         <f t="shared" si="14"/>
-        <v>-5.65</v>
+        <v/>
       </c>
     </row>
     <row r="319" spans="1:100" x14ac:dyDescent="0.2">
@@ -33925,11 +34522,11 @@
       </c>
       <c r="CU321" t="str">
         <f t="shared" si="13"/>
-        <v>hex_1_ene</v>
-      </c>
-      <c r="CV321">
+        <v/>
+      </c>
+      <c r="CV321" t="str">
         <f t="shared" si="14"/>
-        <v>-2.94</v>
+        <v/>
       </c>
     </row>
     <row r="322" spans="1:100" x14ac:dyDescent="0.2">
@@ -34020,11 +34617,11 @@
       </c>
       <c r="CU322" t="str">
         <f t="shared" si="13"/>
-        <v>hex_1_yne</v>
-      </c>
-      <c r="CV322">
+        <v/>
+      </c>
+      <c r="CV322" t="str">
         <f t="shared" si="14"/>
-        <v>-3.43</v>
+        <v/>
       </c>
     </row>
     <row r="323" spans="1:100" x14ac:dyDescent="0.2">
@@ -34108,11 +34705,11 @@
         <v>1</v>
       </c>
       <c r="CU323" t="str">
-        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CK323),A323,"")</f>
+        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CD323),A323,"")</f>
         <v/>
       </c>
       <c r="CV323" t="str">
-        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CK323),CK323,"")</f>
+        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CD323),CD323,"")</f>
         <v/>
       </c>
     </row>
@@ -34359,11 +34956,11 @@
       </c>
       <c r="CU325" t="str">
         <f t="shared" si="16"/>
-        <v>hexan_1_ol</v>
-      </c>
-      <c r="CV325">
+        <v/>
+      </c>
+      <c r="CV325" t="str">
         <f t="shared" si="17"/>
-        <v>-7.06</v>
+        <v/>
       </c>
     </row>
     <row r="326" spans="1:100" x14ac:dyDescent="0.2">
@@ -34502,11 +35099,11 @@
       </c>
       <c r="CU326" t="str">
         <f t="shared" si="16"/>
-        <v>hexan_2_one</v>
-      </c>
-      <c r="CV326">
+        <v/>
+      </c>
+      <c r="CV326" t="str">
         <f t="shared" si="17"/>
-        <v>-5.0199999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="1:100" x14ac:dyDescent="0.2">
@@ -34808,11 +35405,11 @@
       </c>
       <c r="CU329" t="str">
         <f t="shared" si="16"/>
-        <v>hexanoic_acid</v>
-      </c>
-      <c r="CV329">
+        <v/>
+      </c>
+      <c r="CV329" t="str">
         <f t="shared" si="17"/>
-        <v>-8.82</v>
+        <v/>
       </c>
     </row>
     <row r="330" spans="1:100" x14ac:dyDescent="0.2">
@@ -34906,11 +35503,11 @@
       </c>
       <c r="CU330" t="str">
         <f t="shared" si="16"/>
-        <v>hydrazine</v>
-      </c>
-      <c r="CV330">
+        <v/>
+      </c>
+      <c r="CV330" t="str">
         <f t="shared" si="17"/>
-        <v>-3.44</v>
+        <v/>
       </c>
     </row>
     <row r="331" spans="1:100" x14ac:dyDescent="0.2">
@@ -35142,7 +35739,7 @@
       </c>
       <c r="CV332">
         <f t="shared" si="17"/>
-        <v>-54.77</v>
+        <v>-53.298000000000002</v>
       </c>
     </row>
     <row r="333" spans="1:100" x14ac:dyDescent="0.2">
@@ -35445,7 +36042,7 @@
       </c>
       <c r="CV335">
         <f t="shared" si="17"/>
-        <v>-6.18</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="336" spans="1:100" x14ac:dyDescent="0.2">
@@ -35552,7 +36149,7 @@
       </c>
       <c r="CV336">
         <f t="shared" si="17"/>
-        <v>-3.45</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="337" spans="1:100" x14ac:dyDescent="0.2">
@@ -35649,11 +36246,11 @@
       </c>
       <c r="CU337" t="str">
         <f t="shared" si="16"/>
-        <v>iodoethane</v>
-      </c>
-      <c r="CV337">
+        <v/>
+      </c>
+      <c r="CV337" t="str">
         <f t="shared" si="17"/>
-        <v>-3.45</v>
+        <v/>
       </c>
     </row>
     <row r="338" spans="1:100" x14ac:dyDescent="0.2">
@@ -35766,7 +36363,7 @@
       </c>
       <c r="CV338">
         <f t="shared" si="17"/>
-        <v>-3.07</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="339" spans="1:100" x14ac:dyDescent="0.2">
@@ -36879,7 +37476,7 @@
       </c>
       <c r="CV350">
         <f t="shared" si="17"/>
-        <v>-80.930000000000007</v>
+        <v>-86.52</v>
       </c>
     </row>
     <row r="351" spans="1:100" x14ac:dyDescent="0.2">
@@ -37007,7 +37604,7 @@
       </c>
       <c r="CV351">
         <f t="shared" si="17"/>
-        <v>-123.89</v>
+        <v>-128.82400000000001</v>
       </c>
     </row>
     <row r="352" spans="1:100" x14ac:dyDescent="0.2">
@@ -37235,11 +37832,11 @@
       </c>
       <c r="CU353" t="str">
         <f t="shared" si="16"/>
-        <v>m_cresol</v>
-      </c>
-      <c r="CV353">
+        <v/>
+      </c>
+      <c r="CV353" t="str">
         <f t="shared" si="17"/>
-        <v>-8.1999999999999993</v>
+        <v/>
       </c>
     </row>
     <row r="354" spans="1:100" x14ac:dyDescent="0.2">
@@ -37370,7 +37967,7 @@
       </c>
       <c r="CV354">
         <f t="shared" si="17"/>
-        <v>-5.25</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="355" spans="1:100" x14ac:dyDescent="0.2">
@@ -37461,11 +38058,11 @@
       </c>
       <c r="CU355" t="str">
         <f t="shared" si="16"/>
-        <v>methane</v>
-      </c>
-      <c r="CV355">
+        <v/>
+      </c>
+      <c r="CV355" t="str">
         <f t="shared" si="17"/>
-        <v>0.51</v>
+        <v/>
       </c>
     </row>
     <row r="356" spans="1:100" x14ac:dyDescent="0.2">
@@ -37825,7 +38422,7 @@
       </c>
       <c r="CV358">
         <f t="shared" si="17"/>
-        <v>-3.87</v>
+        <v>-4.6500000000000004</v>
       </c>
     </row>
     <row r="359" spans="1:100" x14ac:dyDescent="0.2">
@@ -38071,11 +38668,11 @@
       </c>
       <c r="CU360" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_acetate</v>
-      </c>
-      <c r="CV360">
+        <v/>
+      </c>
+      <c r="CV360" t="str">
         <f t="shared" si="17"/>
-        <v>-3.54</v>
+        <v/>
       </c>
     </row>
     <row r="361" spans="1:100" x14ac:dyDescent="0.2">
@@ -38190,11 +38787,11 @@
       </c>
       <c r="CU361" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_benzoate</v>
-      </c>
-      <c r="CV361">
+        <v/>
+      </c>
+      <c r="CV361" t="str">
         <f t="shared" si="17"/>
-        <v>-7.26</v>
+        <v/>
       </c>
     </row>
     <row r="362" spans="1:100" x14ac:dyDescent="0.2">
@@ -38285,11 +38882,11 @@
       </c>
       <c r="CU362" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_butanoate</v>
-      </c>
-      <c r="CV362">
+        <v/>
+      </c>
+      <c r="CV362" t="str">
         <f t="shared" si="17"/>
-        <v>-4.59</v>
+        <v/>
       </c>
     </row>
     <row r="363" spans="1:100" x14ac:dyDescent="0.2">
@@ -39092,11 +39689,11 @@
       </c>
       <c r="CU371" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_formate</v>
-      </c>
-      <c r="CV371">
+        <v/>
+      </c>
+      <c r="CV371" t="str">
         <f t="shared" si="17"/>
-        <v>-2.82</v>
+        <v/>
       </c>
     </row>
     <row r="372" spans="1:100" x14ac:dyDescent="0.2">
@@ -39312,11 +39909,11 @@
       </c>
       <c r="CU373" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_isopropyl_ether</v>
-      </c>
-      <c r="CV373">
+        <v/>
+      </c>
+      <c r="CV373" t="str">
         <f t="shared" si="17"/>
-        <v>-4.6399999999999997</v>
+        <v/>
       </c>
     </row>
     <row r="374" spans="1:100" x14ac:dyDescent="0.2">
@@ -39811,11 +40408,11 @@
       </c>
       <c r="CU378" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_pentanoate</v>
-      </c>
-      <c r="CV378">
+        <v/>
+      </c>
+      <c r="CV378" t="str">
         <f t="shared" si="17"/>
-        <v>-5.13</v>
+        <v/>
       </c>
     </row>
     <row r="379" spans="1:100" x14ac:dyDescent="0.2">
@@ -39954,11 +40551,11 @@
       </c>
       <c r="CU379" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_propanoate</v>
-      </c>
-      <c r="CV379">
+        <v/>
+      </c>
+      <c r="CV379" t="str">
         <f t="shared" si="17"/>
-        <v>-4.0599999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="380" spans="1:100" x14ac:dyDescent="0.2">
@@ -40046,11 +40643,11 @@
       </c>
       <c r="CU380" t="str">
         <f t="shared" si="16"/>
-        <v>methyl_propyl_ether</v>
-      </c>
-      <c r="CV380">
+        <v/>
+      </c>
+      <c r="CV380" t="str">
         <f t="shared" si="17"/>
-        <v>-3.63</v>
+        <v/>
       </c>
     </row>
     <row r="381" spans="1:100" x14ac:dyDescent="0.2">
@@ -40525,7 +41122,7 @@
       </c>
       <c r="CV385">
         <f t="shared" si="17"/>
-        <v>-3.78</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="386" spans="1:100" x14ac:dyDescent="0.2">
@@ -40698,11 +41295,11 @@
         <v>1</v>
       </c>
       <c r="CU387" t="str">
-        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CK387),A387,"")</f>
+        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CD387),A387,"")</f>
         <v/>
       </c>
       <c r="CV387" t="str">
-        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CK387),CK387,"")</f>
+        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CD387),CD387,"")</f>
         <v/>
       </c>
     </row>
@@ -40791,11 +41388,11 @@
       </c>
       <c r="CU388" t="str">
         <f t="shared" si="19"/>
-        <v>morpholine</v>
-      </c>
-      <c r="CV388">
+        <v/>
+      </c>
+      <c r="CV388" t="str">
         <f t="shared" si="20"/>
-        <v>-5.99</v>
+        <v/>
       </c>
     </row>
     <row r="389" spans="1:100" x14ac:dyDescent="0.2">
@@ -41003,7 +41600,7 @@
       </c>
       <c r="CV390">
         <f t="shared" si="20"/>
-        <v>-1.86</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="391" spans="1:100" x14ac:dyDescent="0.2">
@@ -41252,11 +41849,11 @@
       </c>
       <c r="CU392" t="str">
         <f t="shared" si="19"/>
-        <v>n_butyl_acetate</v>
-      </c>
-      <c r="CV392">
+        <v/>
+      </c>
+      <c r="CV392" t="str">
         <f t="shared" si="20"/>
-        <v>-4.96</v>
+        <v/>
       </c>
     </row>
     <row r="393" spans="1:100" x14ac:dyDescent="0.2">
@@ -41490,11 +42087,11 @@
       </c>
       <c r="CU394" t="str">
         <f t="shared" si="19"/>
-        <v>n_butylamine</v>
-      </c>
-      <c r="CV394">
+        <v/>
+      </c>
+      <c r="CV394" t="str">
         <f t="shared" si="20"/>
-        <v>-5.33</v>
+        <v/>
       </c>
     </row>
     <row r="395" spans="1:100" x14ac:dyDescent="0.2">
@@ -41821,7 +42418,7 @@
       </c>
       <c r="CV397">
         <f t="shared" si="20"/>
-        <v>-3.74</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="398" spans="1:100" x14ac:dyDescent="0.2">
@@ -42059,7 +42656,7 @@
       </c>
       <c r="CV399">
         <f t="shared" si="20"/>
-        <v>-3.01</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="400" spans="1:100" x14ac:dyDescent="0.2">
@@ -42503,11 +43100,11 @@
       </c>
       <c r="CU404" t="str">
         <f t="shared" si="19"/>
-        <v>N_methylacetamide</v>
-      </c>
-      <c r="CV404">
+        <v/>
+      </c>
+      <c r="CV404" t="str">
         <f t="shared" si="20"/>
-        <v>-8.57</v>
+        <v/>
       </c>
     </row>
     <row r="405" spans="1:100" x14ac:dyDescent="0.2">
@@ -42610,11 +43207,11 @@
       </c>
       <c r="CU405" t="str">
         <f t="shared" si="19"/>
-        <v>N_methylaniline</v>
-      </c>
-      <c r="CV405">
+        <v/>
+      </c>
+      <c r="CV405" t="str">
         <f t="shared" si="20"/>
-        <v>-6.94</v>
+        <v/>
       </c>
     </row>
     <row r="406" spans="1:100" x14ac:dyDescent="0.2">
@@ -42969,11 +43566,11 @@
       </c>
       <c r="CU409" t="str">
         <f t="shared" si="19"/>
-        <v>n_nonane</v>
-      </c>
-      <c r="CV409">
+        <v/>
+      </c>
+      <c r="CV409" t="str">
         <f t="shared" si="20"/>
-        <v>-4.55</v>
+        <v/>
       </c>
     </row>
     <row r="410" spans="1:100" x14ac:dyDescent="0.2">
@@ -43206,7 +43803,7 @@
       </c>
       <c r="CV410">
         <f t="shared" si="20"/>
-        <v>-4.18</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="411" spans="1:100" x14ac:dyDescent="0.2">
@@ -43441,7 +44038,7 @@
       </c>
       <c r="CV412">
         <f t="shared" si="20"/>
-        <v>-2.4500000000000002</v>
+        <v>-2.0699999999999998</v>
       </c>
     </row>
     <row r="413" spans="1:100" x14ac:dyDescent="0.2">
@@ -43983,11 +44580,11 @@
       </c>
       <c r="CU418" t="str">
         <f t="shared" si="19"/>
-        <v>n_propanethiol</v>
-      </c>
-      <c r="CV418">
+        <v/>
+      </c>
+      <c r="CV418" t="str">
         <f t="shared" si="20"/>
-        <v>-3.52</v>
+        <v/>
       </c>
     </row>
     <row r="419" spans="1:100" x14ac:dyDescent="0.2">
@@ -44132,11 +44729,11 @@
       </c>
       <c r="CU419" t="str">
         <f t="shared" si="19"/>
-        <v>n_propyl_acetate</v>
-      </c>
-      <c r="CV419">
+        <v/>
+      </c>
+      <c r="CV419" t="str">
         <f t="shared" si="20"/>
-        <v>-4.55</v>
+        <v/>
       </c>
     </row>
     <row r="420" spans="1:100" x14ac:dyDescent="0.2">
@@ -44545,11 +45142,11 @@
       </c>
       <c r="CU423" t="str">
         <f t="shared" si="19"/>
-        <v>n_propylamine</v>
-      </c>
-      <c r="CV423">
+        <v/>
+      </c>
+      <c r="CV423" t="str">
         <f t="shared" si="20"/>
-        <v>-4.7699999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="424" spans="1:100" x14ac:dyDescent="0.2">
@@ -44861,7 +45458,7 @@
       </c>
       <c r="CV426">
         <f t="shared" si="20"/>
-        <v>-98.26</v>
+        <v>-103.72799999999999</v>
       </c>
     </row>
     <row r="427" spans="1:100" x14ac:dyDescent="0.2">
@@ -45007,7 +45604,7 @@
       </c>
       <c r="CV427">
         <f t="shared" si="20"/>
-        <v>-6.97</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="428" spans="1:100" x14ac:dyDescent="0.2">
@@ -45134,11 +45731,11 @@
       </c>
       <c r="CU428" t="str">
         <f t="shared" si="19"/>
-        <v>nitrobenzene</v>
-      </c>
-      <c r="CV428">
+        <v/>
+      </c>
+      <c r="CV428" t="str">
         <f t="shared" si="20"/>
-        <v>-6.63</v>
+        <v/>
       </c>
     </row>
     <row r="429" spans="1:100" x14ac:dyDescent="0.2">
@@ -45235,11 +45832,11 @@
       </c>
       <c r="CU429" t="str">
         <f t="shared" si="19"/>
-        <v>nitroethane</v>
-      </c>
-      <c r="CV429">
+        <v/>
+      </c>
+      <c r="CV429" t="str">
         <f t="shared" si="20"/>
-        <v>-3.93</v>
+        <v/>
       </c>
     </row>
     <row r="430" spans="1:100" x14ac:dyDescent="0.2">
@@ -45460,7 +46057,7 @@
       </c>
       <c r="CV430">
         <f t="shared" si="20"/>
-        <v>-3.51</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="431" spans="1:100" x14ac:dyDescent="0.2">
@@ -45910,11 +46507,11 @@
       </c>
       <c r="CU435" t="str">
         <f t="shared" si="19"/>
-        <v>NN_dimethylformamide</v>
-      </c>
-      <c r="CV435">
+        <v/>
+      </c>
+      <c r="CV435" t="str">
         <f t="shared" si="20"/>
-        <v>-6.14</v>
+        <v/>
       </c>
     </row>
     <row r="436" spans="1:100" x14ac:dyDescent="0.2">
@@ -46513,11 +47110,11 @@
       </c>
       <c r="CU441" t="str">
         <f t="shared" si="19"/>
-        <v>o_cresol</v>
-      </c>
-      <c r="CV441">
+        <v/>
+      </c>
+      <c r="CV441" t="str">
         <f t="shared" si="20"/>
-        <v>-8.49</v>
+        <v/>
       </c>
     </row>
     <row r="442" spans="1:100" x14ac:dyDescent="0.2">
@@ -46712,11 +47309,11 @@
       </c>
       <c r="CU443" t="str">
         <f t="shared" si="19"/>
-        <v>o_xylene</v>
-      </c>
-      <c r="CV443">
+        <v/>
+      </c>
+      <c r="CV443" t="str">
         <f t="shared" si="20"/>
-        <v>-5.07</v>
+        <v/>
       </c>
     </row>
     <row r="444" spans="1:100" x14ac:dyDescent="0.2">
@@ -47000,11 +47597,11 @@
       </c>
       <c r="CU446" t="str">
         <f t="shared" si="19"/>
-        <v>octan_1_ol</v>
-      </c>
-      <c r="CV446">
+        <v/>
+      </c>
+      <c r="CV446" t="str">
         <f t="shared" si="20"/>
-        <v>-8.1300000000000008</v>
+        <v/>
       </c>
     </row>
     <row r="447" spans="1:100" x14ac:dyDescent="0.2">
@@ -47098,11 +47695,11 @@
       </c>
       <c r="CU447" t="str">
         <f t="shared" si="19"/>
-        <v>octan_2_one</v>
-      </c>
-      <c r="CV447">
+        <v/>
+      </c>
+      <c r="CV447" t="str">
         <f t="shared" si="20"/>
-        <v>-6.38</v>
+        <v/>
       </c>
     </row>
     <row r="448" spans="1:100" x14ac:dyDescent="0.2">
@@ -47361,7 +47958,7 @@
       </c>
       <c r="CV449">
         <f t="shared" si="20"/>
-        <v>-8.84</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="450" spans="1:100" x14ac:dyDescent="0.2">
@@ -47543,12 +48140,12 @@
         <v>4</v>
       </c>
       <c r="CU451" t="str">
-        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CK451),A451,"")</f>
-        <v>p_toluidine</v>
-      </c>
-      <c r="CV451">
-        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CK451),CK451,"")</f>
-        <v>-7.46</v>
+        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CD451),A451,"")</f>
+        <v/>
+      </c>
+      <c r="CV451" t="str">
+        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CD451),CD451,"")</f>
+        <v/>
       </c>
     </row>
     <row r="452" spans="1:100" x14ac:dyDescent="0.2">
@@ -47670,7 +48267,7 @@
       </c>
       <c r="CV452">
         <f t="shared" si="23"/>
-        <v>-5.19</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="453" spans="1:100" x14ac:dyDescent="0.2">
@@ -47856,11 +48453,11 @@
       </c>
       <c r="CU454" t="str">
         <f t="shared" si="22"/>
-        <v>pent_1_yne</v>
-      </c>
-      <c r="CV454">
+        <v/>
+      </c>
+      <c r="CV454" t="str">
         <f t="shared" si="23"/>
-        <v>-2.79</v>
+        <v/>
       </c>
     </row>
     <row r="455" spans="1:100" x14ac:dyDescent="0.2">
@@ -48037,11 +48634,11 @@
       </c>
       <c r="CU456" t="str">
         <f t="shared" si="22"/>
-        <v>pentachloroethane</v>
-      </c>
-      <c r="CV456">
+        <v/>
+      </c>
+      <c r="CV456" t="str">
         <f t="shared" si="23"/>
-        <v>-5.78</v>
+        <v/>
       </c>
     </row>
     <row r="457" spans="1:100" x14ac:dyDescent="0.2">
@@ -48198,11 +48795,11 @@
       </c>
       <c r="CU457" t="str">
         <f t="shared" si="22"/>
-        <v>pentan_1_ol</v>
-      </c>
-      <c r="CV457">
+        <v/>
+      </c>
+      <c r="CV457" t="str">
         <f t="shared" si="23"/>
-        <v>-6.4</v>
+        <v/>
       </c>
     </row>
     <row r="458" spans="1:100" x14ac:dyDescent="0.2">
@@ -48427,11 +49024,11 @@
       </c>
       <c r="CU459" t="str">
         <f t="shared" si="22"/>
-        <v>pentan_2_one</v>
-      </c>
-      <c r="CV459">
+        <v/>
+      </c>
+      <c r="CV459" t="str">
         <f t="shared" si="23"/>
-        <v>-4.3499999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="460" spans="1:100" x14ac:dyDescent="0.2">
@@ -48614,11 +49211,11 @@
       </c>
       <c r="CU461" t="str">
         <f t="shared" si="22"/>
-        <v>pentan_3_one</v>
-      </c>
-      <c r="CV461">
+        <v/>
+      </c>
+      <c r="CV461" t="str">
         <f t="shared" si="23"/>
-        <v>-4.3600000000000003</v>
+        <v/>
       </c>
     </row>
     <row r="462" spans="1:100" x14ac:dyDescent="0.2">
@@ -48932,11 +49529,11 @@
       </c>
       <c r="CU464" t="str">
         <f t="shared" si="22"/>
-        <v>pentanoic_acid</v>
-      </c>
-      <c r="CV464">
+        <v/>
+      </c>
+      <c r="CV464" t="str">
         <f t="shared" si="23"/>
-        <v>-8.2200000000000006</v>
+        <v/>
       </c>
     </row>
     <row r="465" spans="1:100" x14ac:dyDescent="0.2">
@@ -49070,7 +49667,7 @@
       </c>
       <c r="CV465">
         <f t="shared" si="23"/>
-        <v>-10.039999999999999</v>
+        <v>-11.52</v>
       </c>
     </row>
     <row r="466" spans="1:100" x14ac:dyDescent="0.2">
@@ -49269,11 +49866,11 @@
       </c>
       <c r="CU466" t="str">
         <f t="shared" si="22"/>
-        <v>phenol</v>
-      </c>
-      <c r="CV466">
+        <v/>
+      </c>
+      <c r="CV466" t="str">
         <f t="shared" si="23"/>
-        <v>-8.69</v>
+        <v/>
       </c>
     </row>
     <row r="467" spans="1:100" x14ac:dyDescent="0.2">
@@ -49631,11 +50228,11 @@
       </c>
       <c r="CU470" t="str">
         <f t="shared" si="22"/>
-        <v>piperazine</v>
-      </c>
-      <c r="CV470">
+        <v/>
+      </c>
+      <c r="CV470" t="str">
         <f t="shared" si="23"/>
-        <v>-5.8</v>
+        <v/>
       </c>
     </row>
     <row r="471" spans="1:100" x14ac:dyDescent="0.2">
@@ -49735,11 +50332,11 @@
       </c>
       <c r="CU471" t="str">
         <f t="shared" si="22"/>
-        <v>piperidine</v>
-      </c>
-      <c r="CV471">
+        <v/>
+      </c>
+      <c r="CV471" t="str">
         <f t="shared" si="23"/>
-        <v>-6.27</v>
+        <v/>
       </c>
     </row>
     <row r="472" spans="1:100" x14ac:dyDescent="0.2">
@@ -50013,7 +50610,7 @@
       </c>
       <c r="CV473">
         <f t="shared" si="23"/>
-        <v>-5.0199999999999996</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="474" spans="1:100" x14ac:dyDescent="0.2">
@@ -50212,7 +50809,7 @@
       </c>
       <c r="CV475">
         <f t="shared" si="23"/>
-        <v>-1.26</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="476" spans="1:100" x14ac:dyDescent="0.2">
@@ -50628,11 +51225,11 @@
       </c>
       <c r="CU478" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV478" t="str">
+        <v>propanone</v>
+      </c>
+      <c r="CV478">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-4.0199999999999996</v>
       </c>
     </row>
     <row r="479" spans="1:100" x14ac:dyDescent="0.2">
@@ -51051,7 +51648,7 @@
       </c>
       <c r="CV482">
         <f t="shared" si="23"/>
-        <v>-11.16</v>
+        <v>-13.17</v>
       </c>
     </row>
     <row r="483" spans="1:100" x14ac:dyDescent="0.2">
@@ -51199,11 +51796,11 @@
       </c>
       <c r="CU483" t="str">
         <f t="shared" si="22"/>
-        <v>pyridine</v>
-      </c>
-      <c r="CV483">
+        <v/>
+      </c>
+      <c r="CV483" t="str">
         <f t="shared" si="23"/>
-        <v>-5.34</v>
+        <v/>
       </c>
     </row>
     <row r="484" spans="1:100" x14ac:dyDescent="0.2">
@@ -51294,11 +51891,11 @@
       </c>
       <c r="CU484" t="str">
         <f t="shared" si="22"/>
-        <v>pyrrole</v>
-      </c>
-      <c r="CV484">
+        <v/>
+      </c>
+      <c r="CV484" t="str">
         <f t="shared" si="23"/>
-        <v>-5.28</v>
+        <v/>
       </c>
     </row>
     <row r="485" spans="1:100" x14ac:dyDescent="0.2">
@@ -51478,11 +52075,11 @@
       </c>
       <c r="CU486" t="str">
         <f t="shared" si="22"/>
-        <v>quinoline</v>
-      </c>
-      <c r="CV486">
+        <v/>
+      </c>
+      <c r="CV486" t="str">
         <f t="shared" si="23"/>
-        <v>-8.43</v>
+        <v/>
       </c>
     </row>
     <row r="487" spans="1:100" x14ac:dyDescent="0.2">
@@ -51609,11 +52206,11 @@
       </c>
       <c r="CU487" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV487" t="str">
+        <v>Rb</v>
+      </c>
+      <c r="CV487">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-81.022999999999996</v>
       </c>
     </row>
     <row r="488" spans="1:100" x14ac:dyDescent="0.2">
@@ -52060,11 +52657,11 @@
       </c>
       <c r="CU492" t="str">
         <f t="shared" si="22"/>
-        <v>tetrachloroethene</v>
-      </c>
-      <c r="CV492">
+        <v/>
+      </c>
+      <c r="CV492" t="str">
         <f t="shared" si="23"/>
-        <v>-4.24</v>
+        <v/>
       </c>
     </row>
     <row r="493" spans="1:100" x14ac:dyDescent="0.2">
@@ -52170,11 +52767,11 @@
       </c>
       <c r="CU493" t="str">
         <f t="shared" si="22"/>
-        <v>tetrachloromethane</v>
-      </c>
-      <c r="CV493">
+        <v/>
+      </c>
+      <c r="CV493" t="str">
         <f t="shared" si="23"/>
-        <v>-3.77</v>
+        <v/>
       </c>
     </row>
     <row r="494" spans="1:100" x14ac:dyDescent="0.2">
@@ -52268,11 +52865,11 @@
       </c>
       <c r="CU494" t="str">
         <f t="shared" si="22"/>
-        <v>tetrafluoromethane</v>
-      </c>
-      <c r="CV494">
+        <v/>
+      </c>
+      <c r="CV494" t="str">
         <f t="shared" si="23"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="495" spans="1:100" x14ac:dyDescent="0.2">
@@ -52363,11 +52960,11 @@
       </c>
       <c r="CU495" t="str">
         <f t="shared" si="22"/>
-        <v>tetrahydrofuran</v>
-      </c>
-      <c r="CV495">
+        <v/>
+      </c>
+      <c r="CV495" t="str">
         <f t="shared" si="23"/>
-        <v>-3.93</v>
+        <v/>
       </c>
     </row>
     <row r="496" spans="1:100" x14ac:dyDescent="0.2">
@@ -52461,11 +53058,11 @@
       </c>
       <c r="CU496" t="str">
         <f t="shared" si="22"/>
-        <v>tetrahydropyran</v>
-      </c>
-      <c r="CV496">
+        <v/>
+      </c>
+      <c r="CV496" t="str">
         <f t="shared" si="23"/>
-        <v>-4.21</v>
+        <v/>
       </c>
     </row>
     <row r="497" spans="1:100" x14ac:dyDescent="0.2">
@@ -52559,11 +53156,11 @@
       </c>
       <c r="CU497" t="str">
         <f t="shared" si="22"/>
-        <v>thiophene</v>
-      </c>
-      <c r="CV497">
+        <v/>
+      </c>
+      <c r="CV497" t="str">
         <f t="shared" si="23"/>
-        <v>-3.89</v>
+        <v/>
       </c>
     </row>
     <row r="498" spans="1:100" x14ac:dyDescent="0.2">
@@ -52663,11 +53260,11 @@
       </c>
       <c r="CU498" t="str">
         <f t="shared" si="22"/>
-        <v>thiophenol</v>
-      </c>
-      <c r="CV498">
+        <v/>
+      </c>
+      <c r="CV498" t="str">
         <f t="shared" si="23"/>
-        <v>-5.99</v>
+        <v/>
       </c>
     </row>
     <row r="499" spans="1:100" x14ac:dyDescent="0.2">
@@ -52912,7 +53509,7 @@
       </c>
       <c r="CV499">
         <f t="shared" si="23"/>
-        <v>-4.55</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="500" spans="1:100" x14ac:dyDescent="0.2">
@@ -53187,11 +53784,11 @@
       </c>
       <c r="CU502" t="str">
         <f t="shared" si="22"/>
-        <v>tribromomethane</v>
-      </c>
-      <c r="CV502">
+        <v/>
+      </c>
+      <c r="CV502" t="str">
         <f t="shared" si="23"/>
-        <v>-5.62</v>
+        <v/>
       </c>
     </row>
     <row r="503" spans="1:100" x14ac:dyDescent="0.2">
@@ -53288,11 +53885,11 @@
       </c>
       <c r="CU503" t="str">
         <f t="shared" si="22"/>
-        <v>trichloroethene</v>
-      </c>
-      <c r="CV503">
+        <v/>
+      </c>
+      <c r="CV503" t="str">
         <f t="shared" si="23"/>
-        <v>-3.75</v>
+        <v/>
       </c>
     </row>
     <row r="504" spans="1:100" x14ac:dyDescent="0.2">
@@ -53404,11 +54001,11 @@
       </c>
       <c r="CU504" t="str">
         <f t="shared" si="22"/>
-        <v>trichloromethane</v>
-      </c>
-      <c r="CV504">
+        <v/>
+      </c>
+      <c r="CV504" t="str">
         <f t="shared" si="23"/>
-        <v>-3.81</v>
+        <v/>
       </c>
     </row>
     <row r="505" spans="1:100" x14ac:dyDescent="0.2">
@@ -53514,11 +54111,11 @@
       </c>
       <c r="CU505" t="str">
         <f t="shared" si="22"/>
-        <v>triethyl_phosphate</v>
-      </c>
-      <c r="CV505">
+        <v/>
+      </c>
+      <c r="CV505" t="str">
         <f t="shared" si="23"/>
-        <v>-8.8800000000000008</v>
+        <v/>
       </c>
     </row>
     <row r="506" spans="1:100" x14ac:dyDescent="0.2">
@@ -53631,7 +54228,7 @@
       </c>
       <c r="CV506">
         <f t="shared" si="23"/>
-        <v>-5.19</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="507" spans="1:100" x14ac:dyDescent="0.2">
@@ -53906,11 +54503,11 @@
       </c>
       <c r="CU509" t="str">
         <f t="shared" si="22"/>
-        <v>trimethyl_phosphate</v>
-      </c>
-      <c r="CV509">
+        <v/>
+      </c>
+      <c r="CV509" t="str">
         <f t="shared" si="23"/>
-        <v>-7.81</v>
+        <v/>
       </c>
     </row>
     <row r="510" spans="1:100" x14ac:dyDescent="0.2">
@@ -54047,7 +54644,7 @@
       </c>
       <c r="CV510">
         <f t="shared" si="23"/>
-        <v>-3.6</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="511" spans="1:100" x14ac:dyDescent="0.2">
@@ -67735,10 +68332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P432"/>
+  <dimension ref="A1:Q432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67748,46 +68345,48 @@
     <col min="8" max="11" width="11.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="3" customWidth="1"/>
     <col min="13" max="15" width="11.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -67797,7 +68396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>346</v>
       </c>
@@ -67846,8 +68445,11 @@
       <c r="P2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>361</v>
       </c>
@@ -67896,8 +68498,11 @@
       <c r="P3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>431</v>
       </c>
@@ -67946,8 +68551,11 @@
       <c r="P4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>446</v>
       </c>
@@ -67996,8 +68604,11 @@
       <c r="P5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>511</v>
       </c>
@@ -68047,8 +68658,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="3">
@@ -68094,7 +68705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -68141,8 +68752,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="3">
@@ -68188,7 +68799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>447</v>
       </c>
@@ -68236,8 +68847,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="3">
@@ -68283,7 +68894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -68330,7 +68941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>558</v>
       </c>
@@ -68377,7 +68988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -68424,8 +69035,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="4">
@@ -68465,8 +69076,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="4">
@@ -68671,7 +69282,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>554</v>
       </c>
       <c r="C21" s="4">
@@ -68727,7 +69338,7 @@
       <c r="F22" s="3">
         <v>-12.44</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>-13.67</v>
       </c>
       <c r="I22" s="3">
@@ -76310,4 +76921,438 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.69493611320516002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-31.998626554886101</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.12931089321622699</v>
+      </c>
+      <c r="E2" s="14">
+        <v>-5.1892651089931602E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-0.73390624614810296</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.1237887733444299E-3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.7175808308453699</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.71221199290794</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="K2" s="15">
+        <v>78.36</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.366741566047593</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-41.197012551517702</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.33339445977471799</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.181399364335325</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-0.40294760446393202</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-1.2027233581941601E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.9852665825817399</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2.4952665428151199</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="K3" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.27649257911035102</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-16.480792820799401</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.26410276929384402</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-0.41646025236137002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.33714285112926</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-1.6822129154929699E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.99944992936959</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2.4650759773079498</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10.125</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.16725590663298201</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-39.116868176150597</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1.1142592618937099</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-0.52638423147157898</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.753770345323726</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.6777502413380802E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.99987047558589</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.29174768093409</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="K5" s="15">
+        <v>20.83</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.232812336577575</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-25.9097224181759</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.85275581805063105</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.45486269863883999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.13142848883410799</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.3933904999053601E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.99999999962084</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.4599557779296699</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="K6" s="15">
+        <v>48.826000000000001</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.64866218444365498</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-35.756640112848899</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.40063170947712101</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-4.7448123028945299E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.64303038515179101</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.4145557451559401E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.99995610433869</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.81153319130216</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="K7" s="15">
+        <v>20.523</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.31691789413965799</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-16.162387081048202</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.711376366811028</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.54296277539714899</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1.1233937241997001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1.6199855506631299E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.99527737981794</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.6660055607158599</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="K8" s="15">
+        <v>37.219000000000001</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.74628172065768705</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-20.336132102590899</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.49957647915710701</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4.4366222911706103E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.45554911286639</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.4115052596990099E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.99954721620319</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.58795750691306</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="K9" s="15">
+        <v>24.852</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.76114121818119895</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-26.555254833616299</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.42907824856632398</v>
+      </c>
+      <c r="E10" s="14">
+        <v>7.0352514043804396E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.49880092355129502</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.32024315865355E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.9996405233610099</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.9424901312837</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K10" s="15">
+        <v>32.613</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.41806895920632098</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-15.863552178071499</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-8.7002006227355502E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.47867980967046297</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.870424223088891</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.47284826286306E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.7770335089211799</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.3075475819267</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="K11" s="15">
+        <v>35.688000000000002</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1985,8 +1985,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2041,7 +2043,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2049,6 +2051,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2056,6 +2059,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2778,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV514"/>
   <sheetViews>
-    <sheetView topLeftCell="CL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
     </sheetView>
   </sheetViews>
@@ -3166,11 +3170,11 @@
         <v>1</v>
       </c>
       <c r="CU2" t="str">
-        <f>IF(ISNUMBER(CD2),A2,"")</f>
+        <f>IF(ISNUMBER(CC2),A2,"")</f>
         <v/>
       </c>
       <c r="CV2" t="str">
-        <f>IF(ISNUMBER(CD2),CD2,"")</f>
+        <f>IF(ISNUMBER(CC2),CC2,"")</f>
         <v/>
       </c>
     </row>
@@ -3255,11 +3259,11 @@
         <v>1</v>
       </c>
       <c r="CU3" t="str">
-        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CD3),A3,"")</f>
+        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CC3),A3,"")</f>
         <v/>
       </c>
       <c r="CV3" t="str">
-        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CD3),CD3,"")</f>
+        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CC3),CC3,"")</f>
         <v/>
       </c>
     </row>
@@ -7699,11 +7703,11 @@
       </c>
       <c r="CU51" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="CV51" t="str">
+        <v>12_ethanediol</v>
+      </c>
+      <c r="CV51">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="52" spans="1:100" x14ac:dyDescent="0.2">
@@ -8889,11 +8893,11 @@
       </c>
       <c r="CU64" t="str">
         <f t="shared" si="0"/>
-        <v>14_dichlorobenzene</v>
-      </c>
-      <c r="CV64">
+        <v/>
+      </c>
+      <c r="CV64" t="str">
         <f t="shared" si="1"/>
-        <v>-7.75</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:100" x14ac:dyDescent="0.2">
@@ -9155,11 +9159,11 @@
         <v>1</v>
       </c>
       <c r="CU67" t="str">
-        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CD67),A67,"")</f>
+        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CC67),A67,"")</f>
         <v/>
       </c>
       <c r="CV67" t="str">
-        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CD67),CD67,"")</f>
+        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CC67),CC67,"")</f>
         <v/>
       </c>
     </row>
@@ -9368,11 +9372,11 @@
       </c>
       <c r="CU68" t="str">
         <f t="shared" si="4"/>
-        <v>14_dioxane</v>
-      </c>
-      <c r="CV68">
+        <v/>
+      </c>
+      <c r="CV68" t="str">
         <f t="shared" si="5"/>
-        <v>-5.03</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:100" x14ac:dyDescent="0.2">
@@ -14476,11 +14480,11 @@
       </c>
       <c r="CU123" t="str">
         <f t="shared" si="4"/>
-        <v>222_trifluoroethanol</v>
-      </c>
-      <c r="CV123">
+        <v/>
+      </c>
+      <c r="CV123" t="str">
         <f t="shared" si="5"/>
-        <v>-6.93</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:100" x14ac:dyDescent="0.2">
@@ -15187,11 +15191,11 @@
         <v>1</v>
       </c>
       <c r="CU131" t="str">
-        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CD131),A131,"")</f>
+        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CC131),A131,"")</f>
         <v/>
       </c>
       <c r="CV131" t="str">
-        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CD131),CD131,"")</f>
+        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CC131),CC131,"")</f>
         <v/>
       </c>
     </row>
@@ -21177,11 +21181,11 @@
         <v>1</v>
       </c>
       <c r="CU195" t="str">
-        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CD195),A195,"")</f>
+        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CC195),A195,"")</f>
         <v/>
       </c>
       <c r="CV195" t="str">
-        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CD195),CD195,"")</f>
+        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CC195),CC195,"")</f>
         <v/>
       </c>
     </row>
@@ -21867,11 +21871,11 @@
       </c>
       <c r="CU202" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV202" t="str">
+        <v>4_nitroaniline</v>
+      </c>
+      <c r="CV202">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-12.44</v>
       </c>
     </row>
     <row r="203" spans="1:100" x14ac:dyDescent="0.2">
@@ -22411,11 +22415,11 @@
       </c>
       <c r="CU207" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV207" t="str">
+        <v>acetic_acid</v>
+      </c>
+      <c r="CV207">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="208" spans="1:100" x14ac:dyDescent="0.2">
@@ -22543,7 +22547,7 @@
       </c>
       <c r="CV208">
         <f t="shared" si="11"/>
-        <v>-4.63</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="209" spans="1:100" x14ac:dyDescent="0.2">
@@ -22676,11 +22680,11 @@
       </c>
       <c r="CU209" t="str">
         <f t="shared" si="10"/>
-        <v>acetophenone</v>
-      </c>
-      <c r="CV209">
+        <v/>
+      </c>
+      <c r="CV209" t="str">
         <f t="shared" si="11"/>
-        <v>-7.63</v>
+        <v/>
       </c>
     </row>
     <row r="210" spans="1:100" x14ac:dyDescent="0.2">
@@ -23054,11 +23058,11 @@
       </c>
       <c r="CU212" t="str">
         <f t="shared" si="10"/>
-        <v>anisole</v>
-      </c>
-      <c r="CV212">
+        <v/>
+      </c>
+      <c r="CV212" t="str">
         <f t="shared" si="11"/>
-        <v>-6.18</v>
+        <v/>
       </c>
     </row>
     <row r="213" spans="1:100" x14ac:dyDescent="0.2">
@@ -23201,7 +23205,7 @@
       </c>
       <c r="CV213">
         <f t="shared" si="11"/>
-        <v>-11.24</v>
+        <v>-9.7899999999999991</v>
       </c>
     </row>
     <row r="214" spans="1:100" x14ac:dyDescent="0.2">
@@ -23414,11 +23418,11 @@
       </c>
       <c r="CU215" t="str">
         <f t="shared" si="10"/>
-        <v>benzaldehyde</v>
-      </c>
-      <c r="CV215">
+        <v/>
+      </c>
+      <c r="CV215" t="str">
         <f t="shared" si="11"/>
-        <v>-7.13</v>
+        <v/>
       </c>
     </row>
     <row r="216" spans="1:100" x14ac:dyDescent="0.2">
@@ -23707,7 +23711,7 @@
       </c>
       <c r="CV217">
         <f t="shared" si="11"/>
-        <v>-4.43</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="218" spans="1:100" x14ac:dyDescent="0.2">
@@ -24021,11 +24025,11 @@
       </c>
       <c r="CU220" t="str">
         <f t="shared" si="10"/>
-        <v>benzyl_alcohol</v>
-      </c>
-      <c r="CV220">
+        <v/>
+      </c>
+      <c r="CV220" t="str">
         <f t="shared" si="11"/>
-        <v>-8.51</v>
+        <v/>
       </c>
     </row>
     <row r="221" spans="1:100" x14ac:dyDescent="0.2">
@@ -24318,11 +24322,11 @@
       </c>
       <c r="CU223" t="str">
         <f t="shared" si="10"/>
-        <v>biphenyl</v>
-      </c>
-      <c r="CV223">
+        <v/>
+      </c>
+      <c r="CV223" t="str">
         <f t="shared" si="11"/>
-        <v>-8.93</v>
+        <v/>
       </c>
     </row>
     <row r="224" spans="1:100" x14ac:dyDescent="0.2">
@@ -24545,7 +24549,7 @@
       </c>
       <c r="CV225">
         <f t="shared" si="11"/>
-        <v>-57.838999999999999</v>
+        <v>-60.75</v>
       </c>
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.2">
@@ -24770,11 +24774,11 @@
       </c>
       <c r="CU227" t="str">
         <f t="shared" si="10"/>
-        <v>bromoethane</v>
-      </c>
-      <c r="CV227">
+        <v/>
+      </c>
+      <c r="CV227" t="str">
         <f t="shared" si="11"/>
-        <v>-3.38</v>
+        <v/>
       </c>
     </row>
     <row r="228" spans="1:100" x14ac:dyDescent="0.2">
@@ -25519,11 +25523,11 @@
       </c>
       <c r="CU234" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV234" t="str">
+        <v>butan_1_ol</v>
+      </c>
+      <c r="CV234">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="235" spans="1:100" x14ac:dyDescent="0.2">
@@ -25858,11 +25862,11 @@
       </c>
       <c r="CU237" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV237" t="str">
+        <v>butanoic_acid</v>
+      </c>
+      <c r="CV237">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.2">
@@ -26104,7 +26108,7 @@
       </c>
       <c r="CV238">
         <f t="shared" si="11"/>
-        <v>-4.5599999999999996</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.2">
@@ -26332,11 +26336,11 @@
       </c>
       <c r="CU240" t="str">
         <f t="shared" si="10"/>
-        <v>chlorobenzene</v>
-      </c>
-      <c r="CV240">
+        <v/>
+      </c>
+      <c r="CV240" t="str">
         <f t="shared" si="11"/>
-        <v>-5.54</v>
+        <v/>
       </c>
     </row>
     <row r="241" spans="1:100" x14ac:dyDescent="0.2">
@@ -26519,11 +26523,11 @@
       </c>
       <c r="CU242" t="str">
         <f t="shared" si="10"/>
-        <v>chloroethane</v>
-      </c>
-      <c r="CV242">
+        <v/>
+      </c>
+      <c r="CV242" t="str">
         <f t="shared" si="11"/>
-        <v>-2.74</v>
+        <v/>
       </c>
     </row>
     <row r="243" spans="1:100" x14ac:dyDescent="0.2">
@@ -26798,11 +26802,11 @@
       </c>
       <c r="CU245" t="str">
         <f t="shared" si="10"/>
-        <v>chloromethane</v>
-      </c>
-      <c r="CV245">
+        <v/>
+      </c>
+      <c r="CV245" t="str">
         <f t="shared" si="11"/>
-        <v>-2.36</v>
+        <v/>
       </c>
     </row>
     <row r="246" spans="1:100" x14ac:dyDescent="0.2">
@@ -27025,7 +27029,7 @@
       </c>
       <c r="CV247">
         <f t="shared" si="11"/>
-        <v>-61.185000000000002</v>
+        <v>-65.73</v>
       </c>
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.2">
@@ -27156,7 +27160,7 @@
       </c>
       <c r="CV248">
         <f t="shared" si="11"/>
-        <v>-75.765000000000001</v>
+        <v>-68.67</v>
       </c>
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.2">
@@ -27569,7 +27573,7 @@
       </c>
       <c r="CV252">
         <f t="shared" si="11"/>
-        <v>-3.15</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="253" spans="1:100" x14ac:dyDescent="0.2">
@@ -28208,11 +28212,11 @@
         <v>4</v>
       </c>
       <c r="CU259" t="str">
-        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CD259),A259,"")</f>
+        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CC259),A259,"")</f>
         <v/>
       </c>
       <c r="CV259" t="str">
-        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CD259),CD259,"")</f>
+        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CC259),CC259,"")</f>
         <v/>
       </c>
     </row>
@@ -29337,11 +29341,11 @@
       </c>
       <c r="CU271" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV271" t="str">
+        <v>dichloromethane</v>
+      </c>
+      <c r="CV271">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="272" spans="1:100" x14ac:dyDescent="0.2">
@@ -29640,11 +29644,11 @@
       </c>
       <c r="CU274" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV274" t="str">
+        <v>diethyl_ether</v>
+      </c>
+      <c r="CV274">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="275" spans="1:100" x14ac:dyDescent="0.2">
@@ -30050,11 +30054,11 @@
       </c>
       <c r="CU278" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV278" t="str">
+        <v>diethylamine</v>
+      </c>
+      <c r="CV278">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="279" spans="1:100" x14ac:dyDescent="0.2">
@@ -31092,11 +31096,11 @@
       </c>
       <c r="CU289" t="str">
         <f t="shared" si="13"/>
-        <v>dimethylamine</v>
-      </c>
-      <c r="CV289">
+        <v/>
+      </c>
+      <c r="CV289" t="str">
         <f t="shared" si="14"/>
-        <v>-2.87</v>
+        <v/>
       </c>
     </row>
     <row r="290" spans="1:100" x14ac:dyDescent="0.2">
@@ -31755,7 +31759,7 @@
       </c>
       <c r="CV296">
         <f t="shared" si="14"/>
-        <v>-0.3</v>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="297" spans="1:100" x14ac:dyDescent="0.2">
@@ -32098,7 +32102,7 @@
       </c>
       <c r="CV298">
         <f t="shared" si="14"/>
-        <v>-5.23</v>
+        <v>-5.0199999999999996</v>
       </c>
     </row>
     <row r="299" spans="1:100" x14ac:dyDescent="0.2">
@@ -32366,7 +32370,7 @@
       </c>
       <c r="CV300">
         <f t="shared" si="14"/>
-        <v>-4.26</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="301" spans="1:100" x14ac:dyDescent="0.2">
@@ -33161,11 +33165,11 @@
       </c>
       <c r="CU308" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV308" t="str">
+        <v>ethylamine</v>
+      </c>
+      <c r="CV308">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="309" spans="1:100" x14ac:dyDescent="0.2">
@@ -33690,11 +33694,11 @@
       </c>
       <c r="CU313" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV313" t="str">
+        <v>formaldehyde</v>
+      </c>
+      <c r="CV313">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="314" spans="1:100" x14ac:dyDescent="0.2">
@@ -34705,11 +34709,11 @@
         <v>1</v>
       </c>
       <c r="CU323" t="str">
-        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CD323),A323,"")</f>
+        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CC323),A323,"")</f>
         <v/>
       </c>
       <c r="CV323" t="str">
-        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CD323),CD323,"")</f>
+        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CC323),CC323,"")</f>
         <v/>
       </c>
     </row>
@@ -35405,11 +35409,11 @@
       </c>
       <c r="CU329" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="CV329" t="str">
+        <v>hexanoic_acid</v>
+      </c>
+      <c r="CV329">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="330" spans="1:100" x14ac:dyDescent="0.2">
@@ -35739,7 +35743,7 @@
       </c>
       <c r="CV332">
         <f t="shared" si="17"/>
-        <v>-53.298000000000002</v>
+        <v>-52.83</v>
       </c>
     </row>
     <row r="333" spans="1:100" x14ac:dyDescent="0.2">
@@ -36038,11 +36042,11 @@
       </c>
       <c r="CU335" t="str">
         <f t="shared" si="16"/>
-        <v>iodobenzene</v>
-      </c>
-      <c r="CV335">
+        <v/>
+      </c>
+      <c r="CV335" t="str">
         <f t="shared" si="17"/>
-        <v>-6.76</v>
+        <v/>
       </c>
     </row>
     <row r="336" spans="1:100" x14ac:dyDescent="0.2">
@@ -36145,11 +36149,11 @@
       </c>
       <c r="CU336" t="str">
         <f t="shared" si="16"/>
-        <v>iodoethane</v>
-      </c>
-      <c r="CV336">
+        <v/>
+      </c>
+      <c r="CV336" t="str">
         <f t="shared" si="17"/>
-        <v>-3.92</v>
+        <v/>
       </c>
     </row>
     <row r="337" spans="1:100" x14ac:dyDescent="0.2">
@@ -36359,11 +36363,11 @@
       </c>
       <c r="CU338" t="str">
         <f t="shared" si="16"/>
-        <v>iodomethane</v>
-      </c>
-      <c r="CV338">
+        <v/>
+      </c>
+      <c r="CV338" t="str">
         <f t="shared" si="17"/>
-        <v>-3.49</v>
+        <v/>
       </c>
     </row>
     <row r="339" spans="1:100" x14ac:dyDescent="0.2">
@@ -37476,7 +37480,7 @@
       </c>
       <c r="CV350">
         <f t="shared" si="17"/>
-        <v>-86.52</v>
+        <v>-79.37</v>
       </c>
     </row>
     <row r="351" spans="1:100" x14ac:dyDescent="0.2">
@@ -37600,11 +37604,11 @@
       </c>
       <c r="CU351" t="str">
         <f t="shared" si="16"/>
-        <v>Li</v>
-      </c>
-      <c r="CV351">
+        <v/>
+      </c>
+      <c r="CV351" t="str">
         <f t="shared" si="17"/>
-        <v>-128.82400000000001</v>
+        <v/>
       </c>
     </row>
     <row r="352" spans="1:100" x14ac:dyDescent="0.2">
@@ -37963,11 +37967,11 @@
       </c>
       <c r="CU354" t="str">
         <f t="shared" si="16"/>
-        <v>m_xylene</v>
-      </c>
-      <c r="CV354">
+        <v/>
+      </c>
+      <c r="CV354" t="str">
         <f t="shared" si="17"/>
-        <v>-5.17</v>
+        <v/>
       </c>
     </row>
     <row r="355" spans="1:100" x14ac:dyDescent="0.2">
@@ -38422,7 +38426,7 @@
       </c>
       <c r="CV358">
         <f t="shared" si="17"/>
-        <v>-4.6500000000000004</v>
+        <v>-4.7300000000000004</v>
       </c>
     </row>
     <row r="359" spans="1:100" x14ac:dyDescent="0.2">
@@ -41122,7 +41126,7 @@
       </c>
       <c r="CV385">
         <f t="shared" si="17"/>
-        <v>-2.66</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="386" spans="1:100" x14ac:dyDescent="0.2">
@@ -41295,11 +41299,11 @@
         <v>1</v>
       </c>
       <c r="CU387" t="str">
-        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CD387),A387,"")</f>
+        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CC387),A387,"")</f>
         <v/>
       </c>
       <c r="CV387" t="str">
-        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CD387),CD387,"")</f>
+        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CC387),CC387,"")</f>
         <v/>
       </c>
     </row>
@@ -41600,7 +41604,7 @@
       </c>
       <c r="CV390">
         <f t="shared" si="20"/>
-        <v>-1.48</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="391" spans="1:100" x14ac:dyDescent="0.2">
@@ -42418,7 +42422,7 @@
       </c>
       <c r="CV397">
         <f t="shared" si="20"/>
-        <v>-3.16</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="398" spans="1:100" x14ac:dyDescent="0.2">
@@ -42656,7 +42660,7 @@
       </c>
       <c r="CV399">
         <f t="shared" si="20"/>
-        <v>-2.72</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="400" spans="1:100" x14ac:dyDescent="0.2">
@@ -43803,7 +43807,7 @@
       </c>
       <c r="CV410">
         <f t="shared" si="20"/>
-        <v>-3.77</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="411" spans="1:100" x14ac:dyDescent="0.2">
@@ -44038,7 +44042,7 @@
       </c>
       <c r="CV412">
         <f t="shared" si="20"/>
-        <v>-2.0699999999999998</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="413" spans="1:100" x14ac:dyDescent="0.2">
@@ -45142,11 +45146,11 @@
       </c>
       <c r="CU423" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV423" t="str">
+        <v>n_propylamine</v>
+      </c>
+      <c r="CV423">
         <f t="shared" si="20"/>
-        <v/>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="424" spans="1:100" x14ac:dyDescent="0.2">
@@ -45458,7 +45462,7 @@
       </c>
       <c r="CV426">
         <f t="shared" si="20"/>
-        <v>-103.72799999999999</v>
+        <v>-96.57</v>
       </c>
     </row>
     <row r="427" spans="1:100" x14ac:dyDescent="0.2">
@@ -45600,11 +45604,11 @@
       </c>
       <c r="CU427" t="str">
         <f t="shared" si="19"/>
-        <v>naphthalene</v>
-      </c>
-      <c r="CV427">
+        <v/>
+      </c>
+      <c r="CV427" t="str">
         <f t="shared" si="20"/>
-        <v>-7.78</v>
+        <v/>
       </c>
     </row>
     <row r="428" spans="1:100" x14ac:dyDescent="0.2">
@@ -46057,7 +46061,7 @@
       </c>
       <c r="CV430">
         <f t="shared" si="20"/>
-        <v>-5.66</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="431" spans="1:100" x14ac:dyDescent="0.2">
@@ -47954,11 +47958,11 @@
       </c>
       <c r="CU449" t="str">
         <f t="shared" si="19"/>
-        <v>p_cresol</v>
-      </c>
-      <c r="CV449">
+        <v/>
+      </c>
+      <c r="CV449" t="str">
         <f t="shared" si="20"/>
-        <v>-8.35</v>
+        <v/>
       </c>
     </row>
     <row r="450" spans="1:100" x14ac:dyDescent="0.2">
@@ -48140,11 +48144,11 @@
         <v>4</v>
       </c>
       <c r="CU451" t="str">
-        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CD451),A451,"")</f>
+        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CC451),A451,"")</f>
         <v/>
       </c>
       <c r="CV451" t="str">
-        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CD451),CD451,"")</f>
+        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CC451),CC451,"")</f>
         <v/>
       </c>
     </row>
@@ -48263,11 +48267,11 @@
       </c>
       <c r="CU452" t="str">
         <f t="shared" si="22"/>
-        <v>p_xylene</v>
-      </c>
-      <c r="CV452">
+        <v/>
+      </c>
+      <c r="CV452" t="str">
         <f t="shared" si="23"/>
-        <v>-5.5</v>
+        <v/>
       </c>
     </row>
     <row r="453" spans="1:100" x14ac:dyDescent="0.2">
@@ -49529,11 +49533,11 @@
       </c>
       <c r="CU464" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV464" t="str">
+        <v>pentanoic_acid</v>
+      </c>
+      <c r="CV464">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="465" spans="1:100" x14ac:dyDescent="0.2">
@@ -49667,7 +49671,7 @@
       </c>
       <c r="CV465">
         <f t="shared" si="23"/>
-        <v>-11.52</v>
+        <v>-9.6999999999999993</v>
       </c>
     </row>
     <row r="466" spans="1:100" x14ac:dyDescent="0.2">
@@ -49866,11 +49870,11 @@
       </c>
       <c r="CU466" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV466" t="str">
+        <v>phenol</v>
+      </c>
+      <c r="CV466">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="467" spans="1:100" x14ac:dyDescent="0.2">
@@ -50610,7 +50614,7 @@
       </c>
       <c r="CV473">
         <f t="shared" si="23"/>
-        <v>-5.56</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="474" spans="1:100" x14ac:dyDescent="0.2">
@@ -50809,7 +50813,7 @@
       </c>
       <c r="CV475">
         <f t="shared" si="23"/>
-        <v>-0.87</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="476" spans="1:100" x14ac:dyDescent="0.2">
@@ -51061,11 +51065,11 @@
       </c>
       <c r="CU477" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV477" t="str">
+        <v>propanoic_acid</v>
+      </c>
+      <c r="CV477">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="478" spans="1:100" x14ac:dyDescent="0.2">
@@ -51229,7 +51233,7 @@
       </c>
       <c r="CV478">
         <f t="shared" si="23"/>
-        <v>-4.0199999999999996</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="479" spans="1:100" x14ac:dyDescent="0.2">
@@ -51648,7 +51652,7 @@
       </c>
       <c r="CV482">
         <f t="shared" si="23"/>
-        <v>-13.17</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="483" spans="1:100" x14ac:dyDescent="0.2">
@@ -51796,11 +51800,11 @@
       </c>
       <c r="CU483" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV483" t="str">
+        <v>pyridine</v>
+      </c>
+      <c r="CV483">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="484" spans="1:100" x14ac:dyDescent="0.2">
@@ -52210,7 +52214,7 @@
       </c>
       <c r="CV487">
         <f t="shared" si="23"/>
-        <v>-81.022999999999996</v>
+        <v>-73.19</v>
       </c>
     </row>
     <row r="488" spans="1:100" x14ac:dyDescent="0.2">
@@ -53509,7 +53513,7 @@
       </c>
       <c r="CV499">
         <f t="shared" si="23"/>
-        <v>-4.88</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="500" spans="1:100" x14ac:dyDescent="0.2">
@@ -54228,7 +54232,7 @@
       </c>
       <c r="CV506">
         <f t="shared" si="23"/>
-        <v>-3.76</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="507" spans="1:100" x14ac:dyDescent="0.2">
@@ -54644,7 +54648,7 @@
       </c>
       <c r="CV510">
         <f t="shared" si="23"/>
-        <v>-0.82</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="511" spans="1:100" x14ac:dyDescent="0.2">
@@ -55322,7 +55326,7 @@
   <dimension ref="A1:P514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -76927,7 +76931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13218" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13220" uniqueCount="617">
   <si>
     <t>Compound</t>
   </si>
@@ -1878,6 +1878,12 @@
   <si>
     <t>geometry</t>
   </si>
+  <si>
+    <t>Butanol</t>
+  </si>
+  <si>
+    <t>Butanol shows the same trend as other alkanols for alpha (alpha decreases as MM of alkanol increases)</t>
+  </si>
 </sst>
 </file>
 
@@ -2004,7 +2010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2041,6 +2047,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2514,6 +2526,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1329764</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>423543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10040470" y="7156824"/>
+          <a:ext cx="1284941" cy="378719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2782,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+    <sheetView topLeftCell="CP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
     </sheetView>
@@ -55326,7 +55382,7 @@
   <dimension ref="A1:P514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -76929,10 +76985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76941,7 +76997,8 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="13" max="13" width="52.33203125" customWidth="1"/>
+    <col min="14" max="14" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -77245,7 +77302,9 @@
       <c r="K8" s="15">
         <v>37.219000000000001</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="18" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -77354,6 +77413,38 @@
         <v>35.688000000000002</v>
       </c>
       <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.56786769753029698</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-77.510629762558494</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.98759259242481301</v>
+      </c>
+      <c r="E12" s="14">
+        <v>-1.0283499999999999E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.84762199992024401</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-1.4813566560060601E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.98039520145966</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="K12" s="15">
+        <v>17.329999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13220" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13223" uniqueCount="620">
   <si>
     <t>Compound</t>
   </si>
@@ -1884,6 +1884,15 @@
   <si>
     <t>Butanol shows the same trend as other alkanols for alpha (alpha decreases as MM of alkanol increases)</t>
   </si>
+  <si>
+    <t>Nitromethane</t>
+  </si>
+  <si>
+    <t>H-bond acceptor</t>
+  </si>
+  <si>
+    <t>H-bond donor</t>
+  </si>
 </sst>
 </file>
 
@@ -1926,7 +1935,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1981,6 +1990,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1991,7 +2006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2009,8 +2024,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2054,8 +2071,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2064,6 +2084,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2072,6 +2093,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2570,6 +2592,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3496235</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>341497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11385176" y="5199530"/>
+          <a:ext cx="3466353" cy="2253967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298824</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>622869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10294471" y="7649882"/>
+          <a:ext cx="642471" cy="548163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2838,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV514"/>
   <sheetViews>
-    <sheetView topLeftCell="CP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
     </sheetView>
   </sheetViews>
@@ -3226,11 +3336,11 @@
         <v>1</v>
       </c>
       <c r="CU2" t="str">
-        <f>IF(ISNUMBER(CC2),A2,"")</f>
+        <f>IF(ISNUMBER(CS2),A2,"")</f>
         <v/>
       </c>
       <c r="CV2" t="str">
-        <f>IF(ISNUMBER(CC2),CC2,"")</f>
+        <f>IF(ISNUMBER(CS2),CS2,"")</f>
         <v/>
       </c>
     </row>
@@ -3315,11 +3425,11 @@
         <v>1</v>
       </c>
       <c r="CU3" t="str">
-        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CC3),A3,"")</f>
+        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CS3),A3,"")</f>
         <v/>
       </c>
       <c r="CV3" t="str">
-        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CC3),CC3,"")</f>
+        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CS3),CS3,"")</f>
         <v/>
       </c>
     </row>
@@ -7759,11 +7869,11 @@
       </c>
       <c r="CU51" t="str">
         <f t="shared" si="0"/>
-        <v>12_ethanediol</v>
-      </c>
-      <c r="CV51">
+        <v/>
+      </c>
+      <c r="CV51" t="str">
         <f t="shared" si="1"/>
-        <v>-8.69</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:100" x14ac:dyDescent="0.2">
@@ -9215,11 +9325,11 @@
         <v>1</v>
       </c>
       <c r="CU67" t="str">
-        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CC67),A67,"")</f>
+        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CS67),A67,"")</f>
         <v/>
       </c>
       <c r="CV67" t="str">
-        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CC67),CC67,"")</f>
+        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CS67),CS67,"")</f>
         <v/>
       </c>
     </row>
@@ -9428,11 +9538,11 @@
       </c>
       <c r="CU68" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CV68" t="str">
+        <v>14_dioxane</v>
+      </c>
+      <c r="CV68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="69" spans="1:100" x14ac:dyDescent="0.2">
@@ -15247,11 +15357,11 @@
         <v>1</v>
       </c>
       <c r="CU131" t="str">
-        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CC131),A131,"")</f>
+        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CS131),A131,"")</f>
         <v/>
       </c>
       <c r="CV131" t="str">
-        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CC131),CC131,"")</f>
+        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CS131),CS131,"")</f>
         <v/>
       </c>
     </row>
@@ -21237,11 +21347,11 @@
         <v>1</v>
       </c>
       <c r="CU195" t="str">
-        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CC195),A195,"")</f>
+        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CS195),A195,"")</f>
         <v/>
       </c>
       <c r="CV195" t="str">
-        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CC195),CC195,"")</f>
+        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CS195),CS195,"")</f>
         <v/>
       </c>
     </row>
@@ -21927,11 +22037,11 @@
       </c>
       <c r="CU202" t="str">
         <f t="shared" si="10"/>
-        <v>4_nitroaniline</v>
-      </c>
-      <c r="CV202">
+        <v/>
+      </c>
+      <c r="CV202" t="str">
         <f t="shared" si="11"/>
-        <v>-12.44</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:100" x14ac:dyDescent="0.2">
@@ -22471,11 +22581,11 @@
       </c>
       <c r="CU207" t="str">
         <f t="shared" si="10"/>
-        <v>acetic_acid</v>
-      </c>
-      <c r="CV207">
+        <v/>
+      </c>
+      <c r="CV207" t="str">
         <f t="shared" si="11"/>
-        <v>-6.81</v>
+        <v/>
       </c>
     </row>
     <row r="208" spans="1:100" x14ac:dyDescent="0.2">
@@ -22599,11 +22709,11 @@
       </c>
       <c r="CU208" t="str">
         <f t="shared" si="10"/>
-        <v>acetonitrile</v>
-      </c>
-      <c r="CV208">
+        <v/>
+      </c>
+      <c r="CV208" t="str">
         <f t="shared" si="11"/>
-        <v>-3.54</v>
+        <v/>
       </c>
     </row>
     <row r="209" spans="1:100" x14ac:dyDescent="0.2">
@@ -23257,11 +23367,11 @@
       </c>
       <c r="CU213" t="str">
         <f t="shared" si="10"/>
-        <v>anthracene</v>
-      </c>
-      <c r="CV213">
+        <v/>
+      </c>
+      <c r="CV213" t="str">
         <f t="shared" si="11"/>
-        <v>-9.7899999999999991</v>
+        <v/>
       </c>
     </row>
     <row r="214" spans="1:100" x14ac:dyDescent="0.2">
@@ -23763,11 +23873,11 @@
       </c>
       <c r="CU217" t="str">
         <f t="shared" si="10"/>
-        <v>benzene</v>
-      </c>
-      <c r="CV217">
+        <v/>
+      </c>
+      <c r="CV217" t="str">
         <f t="shared" si="11"/>
-        <v>-3.39</v>
+        <v/>
       </c>
     </row>
     <row r="218" spans="1:100" x14ac:dyDescent="0.2">
@@ -24605,7 +24715,7 @@
       </c>
       <c r="CV225">
         <f t="shared" si="11"/>
-        <v>-60.75</v>
+        <v>-59.512</v>
       </c>
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.2">
@@ -25579,11 +25689,11 @@
       </c>
       <c r="CU234" t="str">
         <f t="shared" si="10"/>
-        <v>butan_1_ol</v>
-      </c>
-      <c r="CV234">
+        <v/>
+      </c>
+      <c r="CV234" t="str">
         <f t="shared" si="11"/>
-        <v>-6.03</v>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:100" x14ac:dyDescent="0.2">
@@ -25918,11 +26028,11 @@
       </c>
       <c r="CU237" t="str">
         <f t="shared" si="10"/>
-        <v>butanoic_acid</v>
-      </c>
-      <c r="CV237">
+        <v/>
+      </c>
+      <c r="CV237" t="str">
         <f t="shared" si="11"/>
-        <v>-7.66</v>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.2">
@@ -26164,7 +26274,7 @@
       </c>
       <c r="CV238">
         <f t="shared" si="11"/>
-        <v>-4.12</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.2">
@@ -27085,7 +27195,7 @@
       </c>
       <c r="CV247">
         <f t="shared" si="11"/>
-        <v>-65.73</v>
+        <v>-63.646999999999998</v>
       </c>
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.2">
@@ -27216,7 +27326,7 @@
       </c>
       <c r="CV248">
         <f t="shared" si="11"/>
-        <v>-68.67</v>
+        <v>-71.796999999999997</v>
       </c>
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.2">
@@ -27625,11 +27735,11 @@
       </c>
       <c r="CU252" t="str">
         <f t="shared" si="10"/>
-        <v>cyclohexane</v>
-      </c>
-      <c r="CV252">
+        <v/>
+      </c>
+      <c r="CV252" t="str">
         <f t="shared" si="11"/>
-        <v>-3.5</v>
+        <v/>
       </c>
     </row>
     <row r="253" spans="1:100" x14ac:dyDescent="0.2">
@@ -28268,11 +28378,11 @@
         <v>4</v>
       </c>
       <c r="CU259" t="str">
-        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CC259),A259,"")</f>
+        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CS259),A259,"")</f>
         <v/>
       </c>
       <c r="CV259" t="str">
-        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CC259),CC259,"")</f>
+        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CS259),CS259,"")</f>
         <v/>
       </c>
     </row>
@@ -29397,11 +29507,11 @@
       </c>
       <c r="CU271" t="str">
         <f t="shared" si="13"/>
-        <v>dichloromethane</v>
-      </c>
-      <c r="CV271">
+        <v/>
+      </c>
+      <c r="CV271" t="str">
         <f t="shared" si="14"/>
-        <v>-3.39</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:100" x14ac:dyDescent="0.2">
@@ -29700,11 +29810,11 @@
       </c>
       <c r="CU274" t="str">
         <f t="shared" si="13"/>
-        <v>diethyl_ether</v>
-      </c>
-      <c r="CV274">
+        <v/>
+      </c>
+      <c r="CV274" t="str">
         <f t="shared" si="14"/>
-        <v>-2.91</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:100" x14ac:dyDescent="0.2">
@@ -30110,11 +30220,11 @@
       </c>
       <c r="CU278" t="str">
         <f t="shared" si="13"/>
-        <v>diethylamine</v>
-      </c>
-      <c r="CV278">
+        <v/>
+      </c>
+      <c r="CV278" t="str">
         <f t="shared" si="14"/>
-        <v>-5.15</v>
+        <v/>
       </c>
     </row>
     <row r="279" spans="1:100" x14ac:dyDescent="0.2">
@@ -31811,11 +31921,11 @@
       </c>
       <c r="CU296" t="str">
         <f t="shared" si="13"/>
-        <v>ethane</v>
-      </c>
-      <c r="CV296">
+        <v/>
+      </c>
+      <c r="CV296" t="str">
         <f t="shared" si="14"/>
-        <v>-0.57999999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="297" spans="1:100" x14ac:dyDescent="0.2">
@@ -32158,7 +32268,7 @@
       </c>
       <c r="CV298">
         <f t="shared" si="14"/>
-        <v>-5.0199999999999996</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="299" spans="1:100" x14ac:dyDescent="0.2">
@@ -32422,11 +32532,11 @@
       </c>
       <c r="CU300" t="str">
         <f t="shared" si="13"/>
-        <v>ethyl_acetate</v>
-      </c>
-      <c r="CV300">
+        <v/>
+      </c>
+      <c r="CV300" t="str">
         <f t="shared" si="14"/>
-        <v>-3.83</v>
+        <v/>
       </c>
     </row>
     <row r="301" spans="1:100" x14ac:dyDescent="0.2">
@@ -33221,11 +33331,11 @@
       </c>
       <c r="CU308" t="str">
         <f t="shared" si="13"/>
-        <v>ethylamine</v>
-      </c>
-      <c r="CV308">
+        <v/>
+      </c>
+      <c r="CV308" t="str">
         <f t="shared" si="14"/>
-        <v>-4.5</v>
+        <v/>
       </c>
     </row>
     <row r="309" spans="1:100" x14ac:dyDescent="0.2">
@@ -33750,11 +33860,11 @@
       </c>
       <c r="CU313" t="str">
         <f t="shared" si="13"/>
-        <v>formaldehyde</v>
-      </c>
-      <c r="CV313">
+        <v/>
+      </c>
+      <c r="CV313" t="str">
         <f t="shared" si="14"/>
-        <v>-3.49</v>
+        <v/>
       </c>
     </row>
     <row r="314" spans="1:100" x14ac:dyDescent="0.2">
@@ -34765,11 +34875,11 @@
         <v>1</v>
       </c>
       <c r="CU323" t="str">
-        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CC323),A323,"")</f>
+        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CS323),A323,"")</f>
         <v/>
       </c>
       <c r="CV323" t="str">
-        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CC323),CC323,"")</f>
+        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CS323),CS323,"")</f>
         <v/>
       </c>
     </row>
@@ -35465,11 +35575,11 @@
       </c>
       <c r="CU329" t="str">
         <f t="shared" si="16"/>
-        <v>hexanoic_acid</v>
-      </c>
-      <c r="CV329">
+        <v/>
+      </c>
+      <c r="CV329" t="str">
         <f t="shared" si="17"/>
-        <v>-8.75</v>
+        <v/>
       </c>
     </row>
     <row r="330" spans="1:100" x14ac:dyDescent="0.2">
@@ -35799,7 +35909,7 @@
       </c>
       <c r="CV332">
         <f t="shared" si="17"/>
-        <v>-52.83</v>
+        <v>-53.561</v>
       </c>
     </row>
     <row r="333" spans="1:100" x14ac:dyDescent="0.2">
@@ -37536,7 +37646,7 @@
       </c>
       <c r="CV350">
         <f t="shared" si="17"/>
-        <v>-79.37</v>
+        <v>-80.448999999999998</v>
       </c>
     </row>
     <row r="351" spans="1:100" x14ac:dyDescent="0.2">
@@ -37660,11 +37770,11 @@
       </c>
       <c r="CU351" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="CV351" t="str">
+        <v>Li</v>
+      </c>
+      <c r="CV351">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-114.962</v>
       </c>
     </row>
     <row r="352" spans="1:100" x14ac:dyDescent="0.2">
@@ -38478,11 +38588,11 @@
       </c>
       <c r="CU358" t="str">
         <f t="shared" si="16"/>
-        <v>methanol</v>
-      </c>
-      <c r="CV358">
+        <v/>
+      </c>
+      <c r="CV358" t="str">
         <f t="shared" si="17"/>
-        <v>-4.7300000000000004</v>
+        <v/>
       </c>
     </row>
     <row r="359" spans="1:100" x14ac:dyDescent="0.2">
@@ -41178,11 +41288,11 @@
       </c>
       <c r="CU385" t="str">
         <f t="shared" si="16"/>
-        <v>methylamine</v>
-      </c>
-      <c r="CV385">
+        <v/>
+      </c>
+      <c r="CV385" t="str">
         <f t="shared" si="17"/>
-        <v>-2.89</v>
+        <v/>
       </c>
     </row>
     <row r="386" spans="1:100" x14ac:dyDescent="0.2">
@@ -41355,11 +41465,11 @@
         <v>1</v>
       </c>
       <c r="CU387" t="str">
-        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CC387),A387,"")</f>
+        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CS387),A387,"")</f>
         <v/>
       </c>
       <c r="CV387" t="str">
-        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CC387),CC387,"")</f>
+        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CS387),CS387,"")</f>
         <v/>
       </c>
     </row>
@@ -41656,11 +41766,11 @@
       </c>
       <c r="CU390" t="str">
         <f t="shared" si="19"/>
-        <v>n_butane</v>
-      </c>
-      <c r="CV390">
+        <v/>
+      </c>
+      <c r="CV390" t="str">
         <f t="shared" si="20"/>
-        <v>-1.96</v>
+        <v/>
       </c>
     </row>
     <row r="391" spans="1:100" x14ac:dyDescent="0.2">
@@ -42474,11 +42584,11 @@
       </c>
       <c r="CU397" t="str">
         <f t="shared" si="19"/>
-        <v>n_heptane</v>
-      </c>
-      <c r="CV397">
+        <v/>
+      </c>
+      <c r="CV397" t="str">
         <f t="shared" si="20"/>
-        <v>-3.87</v>
+        <v/>
       </c>
     </row>
     <row r="398" spans="1:100" x14ac:dyDescent="0.2">
@@ -42712,11 +42822,11 @@
       </c>
       <c r="CU399" t="str">
         <f t="shared" si="19"/>
-        <v>n_hexane</v>
-      </c>
-      <c r="CV399">
+        <v/>
+      </c>
+      <c r="CV399" t="str">
         <f t="shared" si="20"/>
-        <v>-3.31</v>
+        <v/>
       </c>
     </row>
     <row r="400" spans="1:100" x14ac:dyDescent="0.2">
@@ -43863,7 +43973,7 @@
       </c>
       <c r="CV410">
         <f t="shared" si="20"/>
-        <v>-4.45</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="411" spans="1:100" x14ac:dyDescent="0.2">
@@ -44094,11 +44204,11 @@
       </c>
       <c r="CU412" t="str">
         <f t="shared" si="19"/>
-        <v>n_pentane</v>
-      </c>
-      <c r="CV412">
+        <v/>
+      </c>
+      <c r="CV412" t="str">
         <f t="shared" si="20"/>
-        <v>-2.72</v>
+        <v/>
       </c>
     </row>
     <row r="413" spans="1:100" x14ac:dyDescent="0.2">
@@ -45202,11 +45312,11 @@
       </c>
       <c r="CU423" t="str">
         <f t="shared" si="19"/>
-        <v>n_propylamine</v>
-      </c>
-      <c r="CV423">
+        <v/>
+      </c>
+      <c r="CV423" t="str">
         <f t="shared" si="20"/>
-        <v>-5.04</v>
+        <v/>
       </c>
     </row>
     <row r="424" spans="1:100" x14ac:dyDescent="0.2">
@@ -45518,7 +45628,7 @@
       </c>
       <c r="CV426">
         <f t="shared" si="20"/>
-        <v>-96.57</v>
+        <v>-93.786000000000001</v>
       </c>
     </row>
     <row r="427" spans="1:100" x14ac:dyDescent="0.2">
@@ -46117,7 +46227,7 @@
       </c>
       <c r="CV430">
         <f t="shared" si="20"/>
-        <v>-3.93</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="431" spans="1:100" x14ac:dyDescent="0.2">
@@ -48200,11 +48310,11 @@
         <v>4</v>
       </c>
       <c r="CU451" t="str">
-        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CC451),A451,"")</f>
+        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CS451),A451,"")</f>
         <v/>
       </c>
       <c r="CV451" t="str">
-        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CC451),CC451,"")</f>
+        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CS451),CS451,"")</f>
         <v/>
       </c>
     </row>
@@ -49589,11 +49699,11 @@
       </c>
       <c r="CU464" t="str">
         <f t="shared" si="22"/>
-        <v>pentanoic_acid</v>
-      </c>
-      <c r="CV464">
+        <v/>
+      </c>
+      <c r="CV464" t="str">
         <f t="shared" si="23"/>
-        <v>-8.02</v>
+        <v/>
       </c>
     </row>
     <row r="465" spans="1:100" x14ac:dyDescent="0.2">
@@ -49723,11 +49833,11 @@
       </c>
       <c r="CU465" t="str">
         <f t="shared" si="22"/>
-        <v>phenanthrene</v>
-      </c>
-      <c r="CV465">
+        <v/>
+      </c>
+      <c r="CV465" t="str">
         <f t="shared" si="23"/>
-        <v>-9.6999999999999993</v>
+        <v/>
       </c>
     </row>
     <row r="466" spans="1:100" x14ac:dyDescent="0.2">
@@ -49926,11 +50036,11 @@
       </c>
       <c r="CU466" t="str">
         <f t="shared" si="22"/>
-        <v>phenol</v>
-      </c>
-      <c r="CV466">
+        <v/>
+      </c>
+      <c r="CV466" t="str">
         <f t="shared" si="23"/>
-        <v>-8.16</v>
+        <v/>
       </c>
     </row>
     <row r="467" spans="1:100" x14ac:dyDescent="0.2">
@@ -50666,11 +50776,11 @@
       </c>
       <c r="CU473" t="str">
         <f t="shared" si="22"/>
-        <v>propan_1_ol</v>
-      </c>
-      <c r="CV473">
+        <v/>
+      </c>
+      <c r="CV473" t="str">
         <f t="shared" si="23"/>
-        <v>-5.27</v>
+        <v/>
       </c>
     </row>
     <row r="474" spans="1:100" x14ac:dyDescent="0.2">
@@ -50865,11 +50975,11 @@
       </c>
       <c r="CU475" t="str">
         <f t="shared" si="22"/>
-        <v>propane</v>
-      </c>
-      <c r="CV475">
+        <v/>
+      </c>
+      <c r="CV475" t="str">
         <f t="shared" si="23"/>
-        <v>-1.38</v>
+        <v/>
       </c>
     </row>
     <row r="476" spans="1:100" x14ac:dyDescent="0.2">
@@ -51121,11 +51231,11 @@
       </c>
       <c r="CU477" t="str">
         <f t="shared" si="22"/>
-        <v>propanoic_acid</v>
-      </c>
-      <c r="CV477">
+        <v/>
+      </c>
+      <c r="CV477" t="str">
         <f t="shared" si="23"/>
-        <v>-7.17</v>
+        <v/>
       </c>
     </row>
     <row r="478" spans="1:100" x14ac:dyDescent="0.2">
@@ -51285,11 +51395,11 @@
       </c>
       <c r="CU478" t="str">
         <f t="shared" si="22"/>
-        <v>propanone</v>
-      </c>
-      <c r="CV478">
+        <v/>
+      </c>
+      <c r="CV478" t="str">
         <f t="shared" si="23"/>
-        <v>-3.5</v>
+        <v/>
       </c>
     </row>
     <row r="479" spans="1:100" x14ac:dyDescent="0.2">
@@ -51704,11 +51814,11 @@
       </c>
       <c r="CU482" t="str">
         <f t="shared" si="22"/>
-        <v>pyrene</v>
-      </c>
-      <c r="CV482">
+        <v/>
+      </c>
+      <c r="CV482" t="str">
         <f t="shared" si="23"/>
-        <v>-11.55</v>
+        <v/>
       </c>
     </row>
     <row r="483" spans="1:100" x14ac:dyDescent="0.2">
@@ -51856,11 +51966,11 @@
       </c>
       <c r="CU483" t="str">
         <f t="shared" si="22"/>
-        <v>pyridine</v>
-      </c>
-      <c r="CV483">
+        <v/>
+      </c>
+      <c r="CV483" t="str">
         <f t="shared" si="23"/>
-        <v>-5.51</v>
+        <v/>
       </c>
     </row>
     <row r="484" spans="1:100" x14ac:dyDescent="0.2">
@@ -52270,7 +52380,7 @@
       </c>
       <c r="CV487">
         <f t="shared" si="23"/>
-        <v>-73.19</v>
+        <v>-76.004000000000005</v>
       </c>
     </row>
     <row r="488" spans="1:100" x14ac:dyDescent="0.2">
@@ -53569,7 +53679,7 @@
       </c>
       <c r="CV499">
         <f t="shared" si="23"/>
-        <v>-4.5</v>
+        <v>-4.5199999999999996</v>
       </c>
     </row>
     <row r="500" spans="1:100" x14ac:dyDescent="0.2">
@@ -54284,11 +54394,11 @@
       </c>
       <c r="CU506" t="str">
         <f t="shared" si="22"/>
-        <v>triethylamine</v>
-      </c>
-      <c r="CV506">
+        <v/>
+      </c>
+      <c r="CV506" t="str">
         <f t="shared" si="23"/>
-        <v>-5.05</v>
+        <v/>
       </c>
     </row>
     <row r="507" spans="1:100" x14ac:dyDescent="0.2">
@@ -54700,11 +54810,11 @@
       </c>
       <c r="CU510" t="str">
         <f t="shared" si="22"/>
-        <v>trimethylamine</v>
-      </c>
-      <c r="CV510">
+        <v/>
+      </c>
+      <c r="CV510" t="str">
         <f t="shared" si="23"/>
-        <v>-0.33</v>
+        <v/>
       </c>
     </row>
     <row r="511" spans="1:100" x14ac:dyDescent="0.2">
@@ -55382,8 +55492,8 @@
   <dimension ref="A1:P514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M514" activeCellId="10" sqref="A1:XFD1 C514 D514 E514 G514 H514 I514 J514 K514 L514 M514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68395,7 +68505,7 @@
   <dimension ref="A1:Q432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76985,10 +77095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76997,11 +77107,11 @@
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="52.33203125" customWidth="1"/>
-    <col min="14" max="14" width="68" customWidth="1"/>
+    <col min="13" max="13" width="46.1640625" customWidth="1"/>
+    <col min="14" max="15" width="18.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>587</v>
       </c>
@@ -77039,8 +77149,14 @@
         <v>614</v>
       </c>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>598</v>
       </c>
@@ -77077,8 +77193,14 @@
       <c r="M2" s="13" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>600</v>
       </c>
@@ -77115,8 +77237,14 @@
       <c r="M3" s="4" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>602</v>
       </c>
@@ -77153,8 +77281,14 @@
       <c r="M4" s="16" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>604</v>
       </c>
@@ -77179,7 +77313,7 @@
       <c r="H5" s="4">
         <v>1.99987047558589</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="19">
         <v>1.29174768093409</v>
       </c>
       <c r="J5" s="3">
@@ -77191,8 +77325,14 @@
       <c r="M5" s="14" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>606</v>
       </c>
@@ -77217,7 +77357,7 @@
       <c r="H6" s="4">
         <v>1.99999999962084</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="19">
         <v>1.4599557779296699</v>
       </c>
       <c r="J6" s="3">
@@ -77229,8 +77369,14 @@
       <c r="M6" s="11" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>608</v>
       </c>
@@ -77267,8 +77413,14 @@
       <c r="M7" s="7" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>610</v>
       </c>
@@ -77293,7 +77445,7 @@
       <c r="H8" s="4">
         <v>1.99527737981794</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="19">
         <v>1.6660055607158599</v>
       </c>
       <c r="J8" s="3">
@@ -77305,8 +77457,14 @@
       <c r="M8" s="18" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>611</v>
       </c>
@@ -77341,8 +77499,14 @@
         <v>24.852</v>
       </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>612</v>
       </c>
@@ -77377,8 +77541,14 @@
         <v>32.613</v>
       </c>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>613</v>
       </c>
@@ -77403,7 +77573,7 @@
       <c r="H11" s="3">
         <v>1.7770335089211799</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="19">
         <v>1.3075475819267</v>
       </c>
       <c r="J11" s="3">
@@ -77413,8 +77583,14 @@
         <v>35.688000000000002</v>
       </c>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>615</v>
       </c>
@@ -77444,6 +77620,26 @@
       </c>
       <c r="K12" s="15">
         <v>17.329999999999998</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="K13" s="15">
+        <v>36.56</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1180" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="700" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId3"/>
     <sheet name="Solvents_ions_only" sheetId="4" r:id="rId4"/>
     <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Results" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13223" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13239" uniqueCount="626">
   <si>
     <t>Compound</t>
   </si>
@@ -1893,6 +1893,24 @@
   <si>
     <t>H-bond donor</t>
   </si>
+  <si>
+    <t>Nitrobenzene</t>
+  </si>
+  <si>
+    <t>test set</t>
+  </si>
+  <si>
+    <t>Li, Na, K, Cl, Br, I, butanone, ethanol, cyclohexane, benzene, n_octane, pyrene</t>
+  </si>
+  <si>
+    <t>Cs, Na, K, Cl, Br, I, butanone, ethanol, cyclohexane, benzene, n_octane, pyrene</t>
+  </si>
+  <si>
+    <t>Li, Na, K, Cl, Br, I, butanone, ethanol, toluene, 14_dioxane, n_octane, nitromethane</t>
+  </si>
+  <si>
+    <t>Dimethylacetamide</t>
+  </si>
 </sst>
 </file>
 
@@ -2006,8 +2024,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2075,7 +2095,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2085,6 +2105,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2094,6 +2115,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2639,13 +2661,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>298824</xdr:colOff>
+      <xdr:colOff>358588</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>941295</xdr:colOff>
+      <xdr:colOff>1001059</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>622869</xdr:rowOff>
     </xdr:to>
@@ -2670,8 +2692,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10294471" y="7649882"/>
+          <a:off x="10354235" y="7649882"/>
           <a:ext cx="642471" cy="548163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>343647</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1012041</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>911412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10339294" y="8250757"/>
+          <a:ext cx="668394" cy="878302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1210924</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>821764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10145057" y="9203764"/>
+          <a:ext cx="1061514" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2948,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="CK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
     </sheetView>
   </sheetViews>
@@ -3336,11 +3446,11 @@
         <v>1</v>
       </c>
       <c r="CU2" t="str">
-        <f>IF(ISNUMBER(CS2),A2,"")</f>
+        <f>IF(ISNUMBER(CR2),A2,"")</f>
         <v/>
       </c>
       <c r="CV2" t="str">
-        <f>IF(ISNUMBER(CS2),CS2,"")</f>
+        <f>IF(ISNUMBER(CR2),CR2,"")</f>
         <v/>
       </c>
     </row>
@@ -3425,11 +3535,11 @@
         <v>1</v>
       </c>
       <c r="CU3" t="str">
-        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CS3),A3,"")</f>
+        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CR3),A3,"")</f>
         <v/>
       </c>
       <c r="CV3" t="str">
-        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CS3),CS3,"")</f>
+        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CR3),CR3,"")</f>
         <v/>
       </c>
     </row>
@@ -9325,11 +9435,11 @@
         <v>1</v>
       </c>
       <c r="CU67" t="str">
-        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CS67),A67,"")</f>
+        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CR67),A67,"")</f>
         <v/>
       </c>
       <c r="CV67" t="str">
-        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CS67),CS67,"")</f>
+        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CR67),CR67,"")</f>
         <v/>
       </c>
     </row>
@@ -9538,11 +9648,11 @@
       </c>
       <c r="CU68" t="str">
         <f t="shared" si="4"/>
-        <v>14_dioxane</v>
-      </c>
-      <c r="CV68">
+        <v/>
+      </c>
+      <c r="CV68" t="str">
         <f t="shared" si="5"/>
-        <v>-5.46</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:100" x14ac:dyDescent="0.2">
@@ -15357,11 +15467,11 @@
         <v>1</v>
       </c>
       <c r="CU131" t="str">
-        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CS131),A131,"")</f>
+        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CR131),A131,"")</f>
         <v/>
       </c>
       <c r="CV131" t="str">
-        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CS131),CS131,"")</f>
+        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CR131),CR131,"")</f>
         <v/>
       </c>
     </row>
@@ -21347,11 +21457,11 @@
         <v>1</v>
       </c>
       <c r="CU195" t="str">
-        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CS195),A195,"")</f>
+        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CR195),A195,"")</f>
         <v/>
       </c>
       <c r="CV195" t="str">
-        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CS195),CS195,"")</f>
+        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CR195),CR195,"")</f>
         <v/>
       </c>
     </row>
@@ -22581,11 +22691,11 @@
       </c>
       <c r="CU207" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV207" t="str">
+        <v>acetic_acid</v>
+      </c>
+      <c r="CV207">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="208" spans="1:100" x14ac:dyDescent="0.2">
@@ -23102,11 +23212,11 @@
       </c>
       <c r="CU211" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV211" t="str">
+        <v>aniline</v>
+      </c>
+      <c r="CV211">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="212" spans="1:100" x14ac:dyDescent="0.2">
@@ -24715,7 +24825,7 @@
       </c>
       <c r="CV225">
         <f t="shared" si="11"/>
-        <v>-59.512</v>
+        <v>-62.140999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.2">
@@ -26028,11 +26138,11 @@
       </c>
       <c r="CU237" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV237" t="str">
+        <v>butanoic_acid</v>
+      </c>
+      <c r="CV237">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.2">
@@ -26270,11 +26380,11 @@
       </c>
       <c r="CU238" t="str">
         <f t="shared" si="10"/>
-        <v>butanone</v>
-      </c>
-      <c r="CV238">
+        <v/>
+      </c>
+      <c r="CV238" t="str">
         <f t="shared" si="11"/>
-        <v>-4.72</v>
+        <v/>
       </c>
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.2">
@@ -27195,7 +27305,7 @@
       </c>
       <c r="CV247">
         <f t="shared" si="11"/>
-        <v>-63.646999999999998</v>
+        <v>-65.727000000000004</v>
       </c>
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.2">
@@ -27326,7 +27436,7 @@
       </c>
       <c r="CV248">
         <f t="shared" si="11"/>
-        <v>-71.796999999999997</v>
+        <v>-69.551000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.2">
@@ -28378,11 +28488,11 @@
         <v>4</v>
       </c>
       <c r="CU259" t="str">
-        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CS259),A259,"")</f>
+        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CR259),A259,"")</f>
         <v/>
       </c>
       <c r="CV259" t="str">
-        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CS259),CS259,"")</f>
+        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CR259),CR259,"")</f>
         <v/>
       </c>
     </row>
@@ -32264,11 +32374,11 @@
       </c>
       <c r="CU298" t="str">
         <f t="shared" si="13"/>
-        <v>ethanol</v>
-      </c>
-      <c r="CV298">
+        <v/>
+      </c>
+      <c r="CV298" t="str">
         <f t="shared" si="14"/>
-        <v>-4.16</v>
+        <v/>
       </c>
     </row>
     <row r="299" spans="1:100" x14ac:dyDescent="0.2">
@@ -34875,11 +34985,11 @@
         <v>1</v>
       </c>
       <c r="CU323" t="str">
-        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CS323),A323,"")</f>
+        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CR323),A323,"")</f>
         <v/>
       </c>
       <c r="CV323" t="str">
-        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CS323),CS323,"")</f>
+        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CR323),CR323,"")</f>
         <v/>
       </c>
     </row>
@@ -35575,11 +35685,11 @@
       </c>
       <c r="CU329" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="CV329" t="str">
+        <v>hexanoic_acid</v>
+      </c>
+      <c r="CV329">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="330" spans="1:100" x14ac:dyDescent="0.2">
@@ -35909,7 +36019,7 @@
       </c>
       <c r="CV332">
         <f t="shared" si="17"/>
-        <v>-53.561</v>
+        <v>-63.576000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:100" x14ac:dyDescent="0.2">
@@ -37646,7 +37756,7 @@
       </c>
       <c r="CV350">
         <f t="shared" si="17"/>
-        <v>-80.448999999999998</v>
+        <v>-78.632999999999996</v>
       </c>
     </row>
     <row r="351" spans="1:100" x14ac:dyDescent="0.2">
@@ -37774,7 +37884,7 @@
       </c>
       <c r="CV351">
         <f t="shared" si="17"/>
-        <v>-114.962</v>
+        <v>-117.352</v>
       </c>
     </row>
     <row r="352" spans="1:100" x14ac:dyDescent="0.2">
@@ -38002,11 +38112,11 @@
       </c>
       <c r="CU353" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="CV353" t="str">
+        <v>m_cresol</v>
+      </c>
+      <c r="CV353">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-7.29</v>
       </c>
     </row>
     <row r="354" spans="1:100" x14ac:dyDescent="0.2">
@@ -38588,11 +38698,11 @@
       </c>
       <c r="CU358" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="CV358" t="str">
+        <v>methanol</v>
+      </c>
+      <c r="CV358">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="359" spans="1:100" x14ac:dyDescent="0.2">
@@ -41465,11 +41575,11 @@
         <v>1</v>
       </c>
       <c r="CU387" t="str">
-        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CS387),A387,"")</f>
+        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CR387),A387,"")</f>
         <v/>
       </c>
       <c r="CV387" t="str">
-        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CS387),CS387,"")</f>
+        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CR387),CR387,"")</f>
         <v/>
       </c>
     </row>
@@ -43969,11 +44079,11 @@
       </c>
       <c r="CU410" t="str">
         <f t="shared" si="19"/>
-        <v>n_octane</v>
-      </c>
-      <c r="CV410">
+        <v/>
+      </c>
+      <c r="CV410" t="str">
         <f t="shared" si="20"/>
-        <v>-3.15</v>
+        <v/>
       </c>
     </row>
     <row r="411" spans="1:100" x14ac:dyDescent="0.2">
@@ -45628,7 +45738,7 @@
       </c>
       <c r="CV426">
         <f t="shared" si="20"/>
-        <v>-93.786000000000001</v>
+        <v>-93.212000000000003</v>
       </c>
     </row>
     <row r="427" spans="1:100" x14ac:dyDescent="0.2">
@@ -45901,11 +46011,11 @@
       </c>
       <c r="CU428" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV428" t="str">
+        <v>nitrobenzene</v>
+      </c>
+      <c r="CV428">
         <f t="shared" si="20"/>
-        <v/>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="429" spans="1:100" x14ac:dyDescent="0.2">
@@ -46227,7 +46337,7 @@
       </c>
       <c r="CV430">
         <f t="shared" si="20"/>
-        <v>-5.38</v>
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="431" spans="1:100" x14ac:dyDescent="0.2">
@@ -47280,11 +47390,11 @@
       </c>
       <c r="CU441" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV441" t="str">
+        <v>o_cresol</v>
+      </c>
+      <c r="CV441">
         <f t="shared" si="20"/>
-        <v/>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="442" spans="1:100" x14ac:dyDescent="0.2">
@@ -48124,11 +48234,11 @@
       </c>
       <c r="CU449" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV449" t="str">
+        <v>p_cresol</v>
+      </c>
+      <c r="CV449">
         <f t="shared" si="20"/>
-        <v/>
+        <v>-8.1300000000000008</v>
       </c>
     </row>
     <row r="450" spans="1:100" x14ac:dyDescent="0.2">
@@ -48310,11 +48420,11 @@
         <v>4</v>
       </c>
       <c r="CU451" t="str">
-        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CS451),A451,"")</f>
+        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CR451),A451,"")</f>
         <v/>
       </c>
       <c r="CV451" t="str">
-        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CS451),CS451,"")</f>
+        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CR451),CR451,"")</f>
         <v/>
       </c>
     </row>
@@ -49699,11 +49809,11 @@
       </c>
       <c r="CU464" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV464" t="str">
+        <v>pentanoic_acid</v>
+      </c>
+      <c r="CV464">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="465" spans="1:100" x14ac:dyDescent="0.2">
@@ -50036,11 +50146,11 @@
       </c>
       <c r="CU466" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV466" t="str">
+        <v>phenol</v>
+      </c>
+      <c r="CV466">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="467" spans="1:100" x14ac:dyDescent="0.2">
@@ -51231,11 +51341,11 @@
       </c>
       <c r="CU477" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV477" t="str">
+        <v>propanoic_acid</v>
+      </c>
+      <c r="CV477">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="478" spans="1:100" x14ac:dyDescent="0.2">
@@ -52380,7 +52490,7 @@
       </c>
       <c r="CV487">
         <f t="shared" si="23"/>
-        <v>-76.004000000000005</v>
+        <v>-74.091999999999999</v>
       </c>
     </row>
     <row r="488" spans="1:100" x14ac:dyDescent="0.2">
@@ -53675,11 +53785,11 @@
       </c>
       <c r="CU499" t="str">
         <f t="shared" si="22"/>
-        <v>toluene</v>
-      </c>
-      <c r="CV499">
+        <v/>
+      </c>
+      <c r="CV499" t="str">
         <f t="shared" si="23"/>
-        <v>-4.5199999999999996</v>
+        <v/>
       </c>
     </row>
     <row r="500" spans="1:100" x14ac:dyDescent="0.2">
@@ -55492,7 +55602,7 @@
   <dimension ref="A1:P514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A505" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M514" activeCellId="10" sqref="A1:XFD1 C514 D514 E514 G514 H514 I514 J514 K514 L514 M514"/>
     </sheetView>
   </sheetViews>
@@ -68505,7 +68615,7 @@
   <dimension ref="A1:Q432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77095,10 +77205,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -77109,9 +77219,10 @@
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="13" max="13" width="46.1640625" customWidth="1"/>
     <col min="14" max="15" width="18.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>587</v>
       </c>
@@ -77155,8 +77266,11 @@
       <c r="O1" s="3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>598</v>
       </c>
@@ -77199,8 +77313,11 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>600</v>
       </c>
@@ -77243,8 +77360,11 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>602</v>
       </c>
@@ -77287,8 +77407,11 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>604</v>
       </c>
@@ -77331,8 +77454,11 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>606</v>
       </c>
@@ -77375,8 +77501,11 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>608</v>
       </c>
@@ -77419,8 +77548,11 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>610</v>
       </c>
@@ -77463,8 +77595,11 @@
       <c r="O8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>611</v>
       </c>
@@ -77505,8 +77640,11 @@
       <c r="O9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>612</v>
       </c>
@@ -77547,8 +77685,11 @@
       <c r="O10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>613</v>
       </c>
@@ -77589,8 +77730,11 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>615</v>
       </c>
@@ -77627,11 +77771,38 @@
       <c r="O12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>617</v>
       </c>
+      <c r="B13" s="13">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-20.8812</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-8.4199999999999997E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-0.43590000000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.72099999999999997</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.4584999999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0355000000000001</v>
+      </c>
       <c r="K13" s="15">
         <v>36.56</v>
       </c>
@@ -77640,6 +77811,31 @@
       </c>
       <c r="O13" s="3">
         <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="K14" s="15">
+        <v>34.81</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="700" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="700" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Solvents_neutral" sheetId="2" r:id="rId2"/>
-    <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId3"/>
-    <sheet name="Solvents_ions_only" sheetId="4" r:id="rId4"/>
-    <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId5"/>
-    <sheet name="Results" sheetId="6" r:id="rId6"/>
+    <sheet name="Alkanes" sheetId="8" r:id="rId2"/>
+    <sheet name="Alkanols" sheetId="9" r:id="rId3"/>
+    <sheet name="Solvents_neutral" sheetId="2" r:id="rId4"/>
+    <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId5"/>
+    <sheet name="Solvents_ions_only" sheetId="4" r:id="rId6"/>
+    <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId7"/>
+    <sheet name="Results" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13239" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13298" uniqueCount="626">
   <si>
     <t>Compound</t>
   </si>
@@ -1816,9 +1818,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>RMS</t>
   </si>
   <si>
@@ -1910,6 +1909,9 @@
   </si>
   <si>
     <t>Dimethylacetamide</t>
+  </si>
+  <si>
+    <t>B [-2,2]</t>
   </si>
 </sst>
 </file>
@@ -2024,8 +2026,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2095,7 +2099,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2106,6 +2110,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2116,6 +2121,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2749,13 +2755,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>149410</xdr:colOff>
+      <xdr:colOff>134469</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1210924</xdr:colOff>
+      <xdr:colOff>1195983</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>821764</xdr:rowOff>
     </xdr:to>
@@ -2780,7 +2786,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10145057" y="9203764"/>
+          <a:off x="10130116" y="9203764"/>
           <a:ext cx="1061514" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3056,11 +3062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV514"/>
+  <dimension ref="A1:CV515"/>
   <sheetViews>
-    <sheetView topLeftCell="CK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CU2" sqref="CU2:CV513"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A522" sqref="A522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3446,11 +3452,11 @@
         <v>1</v>
       </c>
       <c r="CU2" t="str">
-        <f>IF(ISNUMBER(CR2),A2,"")</f>
+        <f>IF(ISNUMBER(BS2),A2,"")</f>
         <v/>
       </c>
       <c r="CV2" t="str">
-        <f>IF(ISNUMBER(CR2),CR2,"")</f>
+        <f>IF(ISNUMBER(BS2),BS2,"")</f>
         <v/>
       </c>
     </row>
@@ -3535,11 +3541,11 @@
         <v>1</v>
       </c>
       <c r="CU3" t="str">
-        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(CR3),A3,"")</f>
+        <f t="shared" ref="CU3:CU66" si="0">IF(ISNUMBER(BS3),A3,"")</f>
         <v/>
       </c>
       <c r="CV3" t="str">
-        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(CR3),CR3,"")</f>
+        <f t="shared" ref="CV3:CV66" si="1">IF(ISNUMBER(BS3),BS3,"")</f>
         <v/>
       </c>
     </row>
@@ -9435,11 +9441,11 @@
         <v>1</v>
       </c>
       <c r="CU67" t="str">
-        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(CR67),A67,"")</f>
+        <f t="shared" ref="CU67:CU130" si="4">IF(ISNUMBER(BS67),A67,"")</f>
         <v/>
       </c>
       <c r="CV67" t="str">
-        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(CR67),CR67,"")</f>
+        <f t="shared" ref="CV67:CV130" si="5">IF(ISNUMBER(BS67),BS67,"")</f>
         <v/>
       </c>
     </row>
@@ -9648,11 +9654,11 @@
       </c>
       <c r="CU68" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="CV68" t="str">
+        <v>14_dioxane</v>
+      </c>
+      <c r="CV68">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="69" spans="1:100" x14ac:dyDescent="0.2">
@@ -15467,11 +15473,11 @@
         <v>1</v>
       </c>
       <c r="CU131" t="str">
-        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(CR131),A131,"")</f>
+        <f t="shared" ref="CU131:CU194" si="7">IF(ISNUMBER(BS131),A131,"")</f>
         <v/>
       </c>
       <c r="CV131" t="str">
-        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(CR131),CR131,"")</f>
+        <f t="shared" ref="CV131:CV194" si="8">IF(ISNUMBER(BS131),BS131,"")</f>
         <v/>
       </c>
     </row>
@@ -21457,11 +21463,11 @@
         <v>1</v>
       </c>
       <c r="CU195" t="str">
-        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(CR195),A195,"")</f>
+        <f t="shared" ref="CU195:CU258" si="10">IF(ISNUMBER(BS195),A195,"")</f>
         <v/>
       </c>
       <c r="CV195" t="str">
-        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(CR195),CR195,"")</f>
+        <f t="shared" ref="CV195:CV258" si="11">IF(ISNUMBER(BS195),BS195,"")</f>
         <v/>
       </c>
     </row>
@@ -22691,11 +22697,11 @@
       </c>
       <c r="CU207" t="str">
         <f t="shared" si="10"/>
-        <v>acetic_acid</v>
-      </c>
-      <c r="CV207">
+        <v/>
+      </c>
+      <c r="CV207" t="str">
         <f t="shared" si="11"/>
-        <v>-4.78</v>
+        <v/>
       </c>
     </row>
     <row r="208" spans="1:100" x14ac:dyDescent="0.2">
@@ -23212,11 +23218,11 @@
       </c>
       <c r="CU211" t="str">
         <f t="shared" si="10"/>
-        <v>aniline</v>
-      </c>
-      <c r="CV211">
+        <v/>
+      </c>
+      <c r="CV211" t="str">
         <f t="shared" si="11"/>
-        <v>-7.15</v>
+        <v/>
       </c>
     </row>
     <row r="212" spans="1:100" x14ac:dyDescent="0.2">
@@ -24825,7 +24831,7 @@
       </c>
       <c r="CV225">
         <f t="shared" si="11"/>
-        <v>-62.140999999999998</v>
+        <v>-55.927342260000003</v>
       </c>
     </row>
     <row r="226" spans="1:100" x14ac:dyDescent="0.2">
@@ -26138,11 +26144,11 @@
       </c>
       <c r="CU237" t="str">
         <f t="shared" si="10"/>
-        <v>butanoic_acid</v>
-      </c>
-      <c r="CV237">
+        <v/>
+      </c>
+      <c r="CV237" t="str">
         <f t="shared" si="11"/>
-        <v>-5.84</v>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:100" x14ac:dyDescent="0.2">
@@ -26380,11 +26386,11 @@
       </c>
       <c r="CU238" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="CV238" t="str">
+        <v>butanone</v>
+      </c>
+      <c r="CV238">
         <f t="shared" si="11"/>
-        <v/>
+        <v>-4.5199999999999996</v>
       </c>
     </row>
     <row r="239" spans="1:100" x14ac:dyDescent="0.2">
@@ -27305,7 +27311,7 @@
       </c>
       <c r="CV247">
         <f t="shared" si="11"/>
-        <v>-65.727000000000004</v>
+        <v>-59.536328869999998</v>
       </c>
     </row>
     <row r="248" spans="1:100" x14ac:dyDescent="0.2">
@@ -27436,7 +27442,7 @@
       </c>
       <c r="CV248">
         <f t="shared" si="11"/>
-        <v>-69.551000000000002</v>
+        <v>-74.808795410000002</v>
       </c>
     </row>
     <row r="249" spans="1:100" x14ac:dyDescent="0.2">
@@ -28488,11 +28494,11 @@
         <v>4</v>
       </c>
       <c r="CU259" t="str">
-        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(CR259),A259,"")</f>
+        <f t="shared" ref="CU259:CU322" si="13">IF(ISNUMBER(BS259),A259,"")</f>
         <v/>
       </c>
       <c r="CV259" t="str">
-        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(CR259),CR259,"")</f>
+        <f t="shared" ref="CV259:CV322" si="14">IF(ISNUMBER(BS259),BS259,"")</f>
         <v/>
       </c>
     </row>
@@ -32374,11 +32380,11 @@
       </c>
       <c r="CU298" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV298" t="str">
+        <v>ethanol</v>
+      </c>
+      <c r="CV298">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="299" spans="1:100" x14ac:dyDescent="0.2">
@@ -34985,11 +34991,11 @@
         <v>1</v>
       </c>
       <c r="CU323" t="str">
-        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(CR323),A323,"")</f>
+        <f t="shared" ref="CU323:CU386" si="16">IF(ISNUMBER(BS323),A323,"")</f>
         <v/>
       </c>
       <c r="CV323" t="str">
-        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(CR323),CR323,"")</f>
+        <f t="shared" ref="CV323:CV386" si="17">IF(ISNUMBER(BS323),BS323,"")</f>
         <v/>
       </c>
     </row>
@@ -35685,11 +35691,11 @@
       </c>
       <c r="CU329" t="str">
         <f t="shared" si="16"/>
-        <v>hexanoic_acid</v>
-      </c>
-      <c r="CV329">
+        <v/>
+      </c>
+      <c r="CV329" t="str">
         <f t="shared" si="17"/>
-        <v>-7.26</v>
+        <v/>
       </c>
     </row>
     <row r="330" spans="1:100" x14ac:dyDescent="0.2">
@@ -36019,7 +36025,7 @@
       </c>
       <c r="CV332">
         <f t="shared" si="17"/>
-        <v>-63.576000000000001</v>
+        <v>-53.059273419999997</v>
       </c>
     </row>
     <row r="333" spans="1:100" x14ac:dyDescent="0.2">
@@ -37756,7 +37762,7 @@
       </c>
       <c r="CV350">
         <f t="shared" si="17"/>
-        <v>-78.632999999999996</v>
+        <v>-86.926386230000006</v>
       </c>
     </row>
     <row r="351" spans="1:100" x14ac:dyDescent="0.2">
@@ -37884,7 +37890,7 @@
       </c>
       <c r="CV351">
         <f t="shared" si="17"/>
-        <v>-117.352</v>
+        <v>-131.69216059999999</v>
       </c>
     </row>
     <row r="352" spans="1:100" x14ac:dyDescent="0.2">
@@ -38112,11 +38118,11 @@
       </c>
       <c r="CU353" t="str">
         <f t="shared" si="16"/>
-        <v>m_cresol</v>
-      </c>
-      <c r="CV353">
+        <v/>
+      </c>
+      <c r="CV353" t="str">
         <f t="shared" si="17"/>
-        <v>-7.29</v>
+        <v/>
       </c>
     </row>
     <row r="354" spans="1:100" x14ac:dyDescent="0.2">
@@ -38698,11 +38704,11 @@
       </c>
       <c r="CU358" t="str">
         <f t="shared" si="16"/>
-        <v>methanol</v>
-      </c>
-      <c r="CV358">
+        <v/>
+      </c>
+      <c r="CV358" t="str">
         <f t="shared" si="17"/>
-        <v>-2.93</v>
+        <v/>
       </c>
     </row>
     <row r="359" spans="1:100" x14ac:dyDescent="0.2">
@@ -41575,11 +41581,11 @@
         <v>1</v>
       </c>
       <c r="CU387" t="str">
-        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(CR387),A387,"")</f>
+        <f t="shared" ref="CU387:CU450" si="19">IF(ISNUMBER(BS387),A387,"")</f>
         <v/>
       </c>
       <c r="CV387" t="str">
-        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(CR387),CR387,"")</f>
+        <f t="shared" ref="CV387:CV450" si="20">IF(ISNUMBER(BS387),BS387,"")</f>
         <v/>
       </c>
     </row>
@@ -44079,11 +44085,11 @@
       </c>
       <c r="CU410" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV410" t="str">
+        <v>n_octane</v>
+      </c>
+      <c r="CV410">
         <f t="shared" si="20"/>
-        <v/>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="411" spans="1:100" x14ac:dyDescent="0.2">
@@ -45738,7 +45744,7 @@
       </c>
       <c r="CV426">
         <f t="shared" si="20"/>
-        <v>-93.212000000000003</v>
+        <v>-104.2304015</v>
       </c>
     </row>
     <row r="427" spans="1:100" x14ac:dyDescent="0.2">
@@ -46011,11 +46017,11 @@
       </c>
       <c r="CU428" t="str">
         <f t="shared" si="19"/>
-        <v>nitrobenzene</v>
-      </c>
-      <c r="CV428">
+        <v/>
+      </c>
+      <c r="CV428" t="str">
         <f t="shared" si="20"/>
-        <v>-7.94</v>
+        <v/>
       </c>
     </row>
     <row r="429" spans="1:100" x14ac:dyDescent="0.2">
@@ -46337,7 +46343,7 @@
       </c>
       <c r="CV430">
         <f t="shared" si="20"/>
-        <v>-4.9000000000000004</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="431" spans="1:100" x14ac:dyDescent="0.2">
@@ -47390,11 +47396,11 @@
       </c>
       <c r="CU441" t="str">
         <f t="shared" si="19"/>
-        <v>o_cresol</v>
-      </c>
-      <c r="CV441">
+        <v/>
+      </c>
+      <c r="CV441" t="str">
         <f t="shared" si="20"/>
-        <v>-8.16</v>
+        <v/>
       </c>
     </row>
     <row r="442" spans="1:100" x14ac:dyDescent="0.2">
@@ -48234,11 +48240,11 @@
       </c>
       <c r="CU449" t="str">
         <f t="shared" si="19"/>
-        <v>p_cresol</v>
-      </c>
-      <c r="CV449">
+        <v/>
+      </c>
+      <c r="CV449" t="str">
         <f t="shared" si="20"/>
-        <v>-8.1300000000000008</v>
+        <v/>
       </c>
     </row>
     <row r="450" spans="1:100" x14ac:dyDescent="0.2">
@@ -48420,11 +48426,11 @@
         <v>4</v>
       </c>
       <c r="CU451" t="str">
-        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(CR451),A451,"")</f>
+        <f t="shared" ref="CU451:CU513" si="22">IF(ISNUMBER(BS451),A451,"")</f>
         <v/>
       </c>
       <c r="CV451" t="str">
-        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(CR451),CR451,"")</f>
+        <f t="shared" ref="CV451:CV513" si="23">IF(ISNUMBER(BS451),BS451,"")</f>
         <v/>
       </c>
     </row>
@@ -49809,11 +49815,11 @@
       </c>
       <c r="CU464" t="str">
         <f t="shared" si="22"/>
-        <v>pentanoic_acid</v>
-      </c>
-      <c r="CV464">
+        <v/>
+      </c>
+      <c r="CV464" t="str">
         <f t="shared" si="23"/>
-        <v>-6.47</v>
+        <v/>
       </c>
     </row>
     <row r="465" spans="1:100" x14ac:dyDescent="0.2">
@@ -50146,11 +50152,11 @@
       </c>
       <c r="CU466" t="str">
         <f t="shared" si="22"/>
-        <v>phenol</v>
-      </c>
-      <c r="CV466">
+        <v/>
+      </c>
+      <c r="CV466" t="str">
         <f t="shared" si="23"/>
-        <v>-7.86</v>
+        <v/>
       </c>
     </row>
     <row r="467" spans="1:100" x14ac:dyDescent="0.2">
@@ -51341,11 +51347,11 @@
       </c>
       <c r="CU477" t="str">
         <f t="shared" si="22"/>
-        <v>propanoic_acid</v>
-      </c>
-      <c r="CV477">
+        <v/>
+      </c>
+      <c r="CV477" t="str">
         <f t="shared" si="23"/>
-        <v>-5.38</v>
+        <v/>
       </c>
     </row>
     <row r="478" spans="1:100" x14ac:dyDescent="0.2">
@@ -52490,7 +52496,7 @@
       </c>
       <c r="CV487">
         <f t="shared" si="23"/>
-        <v>-74.091999999999999</v>
+        <v>-80.544933080000007</v>
       </c>
     </row>
     <row r="488" spans="1:100" x14ac:dyDescent="0.2">
@@ -53785,11 +53791,11 @@
       </c>
       <c r="CU499" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="CV499" t="str">
+        <v>toluene</v>
+      </c>
+      <c r="CV499">
         <f t="shared" si="23"/>
-        <v/>
+        <v>-4.9400000000000004</v>
       </c>
     </row>
     <row r="500" spans="1:100" x14ac:dyDescent="0.2">
@@ -55578,6 +55584,380 @@
       <c r="CS514">
         <f>COUNT(CS2:CS513)</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="515" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="B515" t="str">
+        <f>IF(B$514&gt;18,B$1,"")</f>
+        <v>xylene</v>
+      </c>
+      <c r="C515" t="str">
+        <f>IF(C$514&gt;18,C$1,"")</f>
+        <v/>
+      </c>
+      <c r="D515" t="str">
+        <f t="shared" ref="D515:O515" si="27">IF(D$514&gt;18,D$1,"")</f>
+        <v/>
+      </c>
+      <c r="E515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="F515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="G515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O515" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P515" t="str">
+        <f>IF(P$514&gt;18,P$1,"")</f>
+        <v/>
+      </c>
+      <c r="Q515" t="str">
+        <f>IF(Q$514&gt;18,Q$1,"")</f>
+        <v/>
+      </c>
+      <c r="R515" t="str">
+        <f t="shared" ref="R515:T515" si="28">IF(R$514&gt;18,R$1,"")</f>
+        <v>pentanol</v>
+      </c>
+      <c r="S515" t="str">
+        <f t="shared" si="28"/>
+        <v>pentane</v>
+      </c>
+      <c r="T515" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="U515" t="str">
+        <f>IF(U$514&gt;18,U$1,"")</f>
+        <v/>
+      </c>
+      <c r="V515" t="str">
+        <f>IF(V$514&gt;18,V$1,"")</f>
+        <v/>
+      </c>
+      <c r="W515" t="str">
+        <f t="shared" ref="W515:AB515" si="29">IF(W$514&gt;18,W$1,"")</f>
+        <v>octane</v>
+      </c>
+      <c r="X515" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Y515" t="str">
+        <f t="shared" si="29"/>
+        <v>nonane</v>
+      </c>
+      <c r="Z515" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AA515" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AB515" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AC515" t="str">
+        <f>IF(AC$514&gt;18,AC$1,"")</f>
+        <v/>
+      </c>
+      <c r="AD515" t="str">
+        <f>IF(AD$514&gt;18,AD$1,"")</f>
+        <v/>
+      </c>
+      <c r="AE515" t="str">
+        <f t="shared" ref="AE515:AH515" si="30">IF(AE$514&gt;18,AE$1,"")</f>
+        <v/>
+      </c>
+      <c r="AF515" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="AG515" t="str">
+        <f t="shared" si="30"/>
+        <v>isooctane</v>
+      </c>
+      <c r="AH515" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="AI515" t="str">
+        <f>IF(AI$514&gt;18,AI$1,"")</f>
+        <v>iodobenzene</v>
+      </c>
+      <c r="AJ515" t="str">
+        <f>IF(AJ$514&gt;18,AJ$1,"")</f>
+        <v/>
+      </c>
+      <c r="AK515" t="str">
+        <f t="shared" ref="AK515:AP515" si="31">IF(AK$514&gt;18,AK$1,"")</f>
+        <v/>
+      </c>
+      <c r="AL515" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AM515" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AN515" t="str">
+        <f t="shared" si="31"/>
+        <v>heptane</v>
+      </c>
+      <c r="AO515" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AP515" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AQ515" t="str">
+        <f>IF(AQ$514&gt;18,AQ$1,"")</f>
+        <v>ethylbenzene</v>
+      </c>
+      <c r="AR515" t="str">
+        <f>IF(AR$514&gt;18,AR$1,"")</f>
+        <v/>
+      </c>
+      <c r="AS515" t="str">
+        <f t="shared" ref="AS515" si="32">IF(AS$514&gt;18,AS$1,"")</f>
+        <v/>
+      </c>
+      <c r="AT515" t="str">
+        <f>IF(AT$514&gt;18,AT$1,"")</f>
+        <v/>
+      </c>
+      <c r="AU515" t="str">
+        <f>IF(AU$514&gt;18,AU$1,"")</f>
+        <v/>
+      </c>
+      <c r="AV515" t="str">
+        <f t="shared" ref="AV515:BB515" si="33">IF(AV$514&gt;18,AV$1,"")</f>
+        <v>diisopropylether</v>
+      </c>
+      <c r="AW515" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AX515" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AY515" t="str">
+        <f t="shared" si="33"/>
+        <v>decane</v>
+      </c>
+      <c r="AZ515" t="str">
+        <f t="shared" si="33"/>
+        <v>decalin</v>
+      </c>
+      <c r="BA515" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BB515" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="BC515" t="str">
+        <f>IF(BC$514&gt;18,BC$1,"")</f>
+        <v>chlorobenzene</v>
+      </c>
+      <c r="BD515" t="str">
+        <f>IF(BD$514&gt;18,BD$1,"")</f>
+        <v/>
+      </c>
+      <c r="BE515" t="str">
+        <f t="shared" ref="BE515:BK515" si="34">IF(BE$514&gt;18,BE$1,"")</f>
+        <v/>
+      </c>
+      <c r="BF515" t="str">
+        <f t="shared" si="34"/>
+        <v>butylacetate</v>
+      </c>
+      <c r="BG515" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="BH515" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="BI515" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="BJ515" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="BK515" t="str">
+        <f t="shared" si="34"/>
+        <v>bromobenzene</v>
+      </c>
+      <c r="BL515" t="str">
+        <f>IF(BL$514&gt;18,BL$1,"")</f>
+        <v/>
+      </c>
+      <c r="BM515" t="str">
+        <f>IF(BM$514&gt;18,BM$1,"")</f>
+        <v/>
+      </c>
+      <c r="BN515" t="str">
+        <f t="shared" ref="BN515:BR515" si="35">IF(BN$514&gt;18,BN$1,"")</f>
+        <v/>
+      </c>
+      <c r="BO515" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="BP515" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="BQ515" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="BR515" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="BS515" t="str">
+        <f>IF(BS$514&gt;18,BS$1,"")</f>
+        <v/>
+      </c>
+      <c r="BT515" t="str">
+        <f>IF(BT$514&gt;18,BT$1,"")</f>
+        <v/>
+      </c>
+      <c r="BU515" t="str">
+        <f t="shared" ref="BU515:BZ515" si="36">IF(BU$514&gt;18,BU$1,"")</f>
+        <v>toluene</v>
+      </c>
+      <c r="BV515" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="BW515" t="str">
+        <f t="shared" si="36"/>
+        <v>hexane</v>
+      </c>
+      <c r="BX515" t="str">
+        <f t="shared" si="36"/>
+        <v>hexadecane</v>
+      </c>
+      <c r="BY515" t="str">
+        <f t="shared" si="36"/>
+        <v>carbontet</v>
+      </c>
+      <c r="BZ515" t="str">
+        <f t="shared" si="36"/>
+        <v>methanol</v>
+      </c>
+      <c r="CA515" t="str">
+        <f>IF(CA$514&gt;18,CA$1,"")</f>
+        <v>ethanol</v>
+      </c>
+      <c r="CB515" t="str">
+        <f>IF(CB$514&gt;18,CB$1,"")</f>
+        <v>propanol</v>
+      </c>
+      <c r="CC515" t="str">
+        <f t="shared" ref="CC515:CE515" si="37">IF(CC$514&gt;18,CC$1,"")</f>
+        <v>butanol</v>
+      </c>
+      <c r="CD515" t="str">
+        <f t="shared" si="37"/>
+        <v>dimethylofrmamide</v>
+      </c>
+      <c r="CE515" t="str">
+        <f t="shared" si="37"/>
+        <v>acetonitrile</v>
+      </c>
+      <c r="CF515" t="str">
+        <f>IF(CF$514&gt;18,CF$1,"")</f>
+        <v>dimethylsulfoxide</v>
+      </c>
+      <c r="CG515" t="str">
+        <f>IF(CG$514&gt;18,CG$1,"")</f>
+        <v>propanone</v>
+      </c>
+      <c r="CH515" t="str">
+        <f t="shared" ref="CH515:CL515" si="38">IF(CH$514&gt;18,CH$1,"")</f>
+        <v>cyclohexane</v>
+      </c>
+      <c r="CI515" t="str">
+        <f t="shared" si="38"/>
+        <v>diethylether</v>
+      </c>
+      <c r="CJ515" t="str">
+        <f t="shared" si="38"/>
+        <v>dibuthylether</v>
+      </c>
+      <c r="CK515" t="str">
+        <f t="shared" si="38"/>
+        <v>octanol</v>
+      </c>
+      <c r="CL515" t="str">
+        <f t="shared" si="38"/>
+        <v>benzene</v>
+      </c>
+      <c r="CM515" t="str">
+        <f>IF(CM$514&gt;18,CM$1,"")</f>
+        <v>chlorofom</v>
+      </c>
+      <c r="CN515" t="str">
+        <f>IF(CN$514&gt;18,CN$1,"")</f>
+        <v>12dichloroethane</v>
+      </c>
+      <c r="CO515" t="str">
+        <f>IF(CO$514&gt;18,CO$1,"")</f>
+        <v/>
+      </c>
+      <c r="CP515" t="str">
+        <f>IF(CP$514&gt;18,CP$1,"")</f>
+        <v>butylacetate</v>
       </c>
     </row>
   </sheetData>
@@ -55586,6 +55966,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>-4.43</v>
+      </c>
+      <c r="C2">
+        <v>-4.21</v>
+      </c>
+      <c r="D2">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="E2">
+        <v>-4.3</v>
+      </c>
+      <c r="F2">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="G2">
+        <v>-4.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>-3.77</v>
+      </c>
+      <c r="C3">
+        <v>-3.69</v>
+      </c>
+      <c r="D3">
+        <v>-3.77</v>
+      </c>
+      <c r="E3">
+        <v>-3.66</v>
+      </c>
+      <c r="F3">
+        <v>-3.77</v>
+      </c>
+      <c r="G3">
+        <v>-3.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>-2.15</v>
+      </c>
+      <c r="C4">
+        <v>-2.15</v>
+      </c>
+      <c r="D4">
+        <v>-2.15</v>
+      </c>
+      <c r="E4">
+        <v>-2.15</v>
+      </c>
+      <c r="F4">
+        <v>-2.44</v>
+      </c>
+      <c r="G4">
+        <v>-2.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>-3.69</v>
+      </c>
+      <c r="C5">
+        <v>-3.48</v>
+      </c>
+      <c r="D5">
+        <v>-3.45</v>
+      </c>
+      <c r="E5">
+        <v>-3.5</v>
+      </c>
+      <c r="F5">
+        <v>-3.43</v>
+      </c>
+      <c r="G5">
+        <v>-3.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="C6">
+        <v>-2.04</v>
+      </c>
+      <c r="D6">
+        <v>-1.98</v>
+      </c>
+      <c r="E6">
+        <v>-2.09</v>
+      </c>
+      <c r="F6">
+        <v>-1.92</v>
+      </c>
+      <c r="G6">
+        <v>-2.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>-5.62</v>
+      </c>
+      <c r="C7">
+        <v>-5.56</v>
+      </c>
+      <c r="D7">
+        <v>-5.62</v>
+      </c>
+      <c r="E7">
+        <v>-5.6</v>
+      </c>
+      <c r="F7">
+        <v>-5.62</v>
+      </c>
+      <c r="G7">
+        <v>-5.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>-5.4</v>
+      </c>
+      <c r="C8">
+        <v>-5.25</v>
+      </c>
+      <c r="D8">
+        <v>-5.24</v>
+      </c>
+      <c r="E8">
+        <v>-5.22</v>
+      </c>
+      <c r="F8">
+        <v>-5.18</v>
+      </c>
+      <c r="G8">
+        <v>-5.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>-4.97</v>
+      </c>
+      <c r="C9">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="D9">
+        <v>-4.97</v>
+      </c>
+      <c r="E9">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="F9">
+        <v>-4.97</v>
+      </c>
+      <c r="G9">
+        <v>-5.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10">
+        <v>-4.79</v>
+      </c>
+      <c r="C10">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>-4.59</v>
+      </c>
+      <c r="E10">
+        <v>-4.55</v>
+      </c>
+      <c r="F10">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="G10">
+        <v>-4.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>-1.29</v>
+      </c>
+      <c r="C11">
+        <v>-1.29</v>
+      </c>
+      <c r="D11">
+        <v>-1.29</v>
+      </c>
+      <c r="E11">
+        <v>-1.29</v>
+      </c>
+      <c r="F11">
+        <v>-1.29</v>
+      </c>
+      <c r="G11">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12">
+        <v>-5.67</v>
+      </c>
+      <c r="C12">
+        <v>-5.53</v>
+      </c>
+      <c r="D12">
+        <v>-5.51</v>
+      </c>
+      <c r="E12">
+        <v>-5.63</v>
+      </c>
+      <c r="F12">
+        <v>-5.48</v>
+      </c>
+      <c r="G12">
+        <v>-5.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <v>-4.96</v>
+      </c>
+      <c r="C13">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="D13">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="E13">
+        <v>-4.92</v>
+      </c>
+      <c r="F13">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="G13">
+        <v>-4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <v>-3.69</v>
+      </c>
+      <c r="C14">
+        <v>-3.57</v>
+      </c>
+      <c r="D14">
+        <v>-3.5</v>
+      </c>
+      <c r="E14">
+        <v>-3.63</v>
+      </c>
+      <c r="F14">
+        <v>-3.49</v>
+      </c>
+      <c r="G14">
+        <v>-3.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15">
+        <v>-4.88</v>
+      </c>
+      <c r="C15">
+        <v>-4.8</v>
+      </c>
+      <c r="D15">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="E15">
+        <v>-4.83</v>
+      </c>
+      <c r="F15">
+        <v>-4.66</v>
+      </c>
+      <c r="G15">
+        <v>-4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16">
+        <v>-4.21</v>
+      </c>
+      <c r="C16">
+        <v>-4.09</v>
+      </c>
+      <c r="D16">
+        <v>-4.07</v>
+      </c>
+      <c r="E16">
+        <v>-4.09</v>
+      </c>
+      <c r="F16">
+        <v>-4.0199999999999996</v>
+      </c>
+      <c r="G16">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>-3.13</v>
+      </c>
+      <c r="C17">
+        <v>-3</v>
+      </c>
+      <c r="D17">
+        <v>-2.96</v>
+      </c>
+      <c r="E17">
+        <v>-3.03</v>
+      </c>
+      <c r="F17">
+        <v>-2.96</v>
+      </c>
+      <c r="G17">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>-3.92</v>
+      </c>
+      <c r="C18">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="D18">
+        <v>-3.92</v>
+      </c>
+      <c r="E18">
+        <v>-4.09</v>
+      </c>
+      <c r="F18">
+        <v>-3.92</v>
+      </c>
+      <c r="G18">
+        <v>-4.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19">
+        <v>-2.76</v>
+      </c>
+      <c r="C19">
+        <v>-2.76</v>
+      </c>
+      <c r="D19">
+        <v>-2.76</v>
+      </c>
+      <c r="E19">
+        <v>-3.01</v>
+      </c>
+      <c r="F19">
+        <v>-2.76</v>
+      </c>
+      <c r="G19">
+        <v>-2.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2">
+        <v>-13.21</v>
+      </c>
+      <c r="C2">
+        <v>-12.93</v>
+      </c>
+      <c r="D2">
+        <v>-12.63</v>
+      </c>
+      <c r="E2">
+        <v>-12.44</v>
+      </c>
+      <c r="F2">
+        <v>-11.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3">
+        <v>-10.48</v>
+      </c>
+      <c r="C3">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="D3">
+        <v>-9.85</v>
+      </c>
+      <c r="E3">
+        <v>-9.7899999999999991</v>
+      </c>
+      <c r="F3">
+        <v>-10.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>-3.76</v>
+      </c>
+      <c r="C4">
+        <v>-3.79</v>
+      </c>
+      <c r="D4">
+        <v>-3.79</v>
+      </c>
+      <c r="E4">
+        <v>-3.39</v>
+      </c>
+      <c r="F4">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5">
+        <v>-63.814999999999998</v>
+      </c>
+      <c r="C5">
+        <v>-62.094000000000001</v>
+      </c>
+      <c r="D5">
+        <v>-61.17</v>
+      </c>
+      <c r="E5">
+        <v>-60.75</v>
+      </c>
+      <c r="F5">
+        <v>-62.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>-6.35</v>
+      </c>
+      <c r="C6">
+        <v>-6.35</v>
+      </c>
+      <c r="D6">
+        <v>-6.1</v>
+      </c>
+      <c r="E6">
+        <v>-6.03</v>
+      </c>
+      <c r="F6">
+        <v>-5.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>-4.55</v>
+      </c>
+      <c r="C7">
+        <v>-4.32</v>
+      </c>
+      <c r="D7">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="E7">
+        <v>-4.12</v>
+      </c>
+      <c r="F7">
+        <v>-3.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8">
+        <v>-69.551000000000002</v>
+      </c>
+      <c r="C8">
+        <v>-67.83</v>
+      </c>
+      <c r="D8">
+        <v>-66.61</v>
+      </c>
+      <c r="E8">
+        <v>-65.73</v>
+      </c>
+      <c r="F8">
+        <v>-68.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9">
+        <v>-70.984999999999999</v>
+      </c>
+      <c r="C9">
+        <v>-69.551000000000002</v>
+      </c>
+      <c r="D9">
+        <v>-68.930000000000007</v>
+      </c>
+      <c r="E9">
+        <v>-68.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>-3.47</v>
+      </c>
+      <c r="C10">
+        <v>-3.47</v>
+      </c>
+      <c r="D10">
+        <v>-3.47</v>
+      </c>
+      <c r="E10">
+        <v>-3.5</v>
+      </c>
+      <c r="F10">
+        <v>-3.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>-0.59</v>
+      </c>
+      <c r="C11">
+        <v>-0.59</v>
+      </c>
+      <c r="D11">
+        <v>-0.61</v>
+      </c>
+      <c r="E11">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="F11">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="C12">
+        <v>-5.04</v>
+      </c>
+      <c r="D12">
+        <v>-5.01</v>
+      </c>
+      <c r="E12">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="F12">
+        <v>-4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13">
+        <v>-81.739999999999995</v>
+      </c>
+      <c r="C13">
+        <v>-80.209999999999994</v>
+      </c>
+      <c r="D13">
+        <v>-79.86</v>
+      </c>
+      <c r="E13">
+        <v>-79.37</v>
+      </c>
+      <c r="F13">
+        <v>-80.930000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B14">
+        <v>-125.47799999999999</v>
+      </c>
+      <c r="C14">
+        <v>-123.80500000000001</v>
+      </c>
+      <c r="D14">
+        <v>-123.7</v>
+      </c>
+      <c r="F14">
+        <v>-123.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="C15">
+        <v>-4.6399999999999997</v>
+      </c>
+      <c r="D15">
+        <v>-4.3</v>
+      </c>
+      <c r="E15">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="F15">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16">
+        <v>-1.74</v>
+      </c>
+      <c r="C16">
+        <v>-1.91</v>
+      </c>
+      <c r="D16">
+        <v>-1.98</v>
+      </c>
+      <c r="E16">
+        <v>-1.96</v>
+      </c>
+      <c r="F16">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17">
+        <v>-3.35</v>
+      </c>
+      <c r="C17">
+        <v>-3.69</v>
+      </c>
+      <c r="D17">
+        <v>-3.73</v>
+      </c>
+      <c r="E17">
+        <v>-3.87</v>
+      </c>
+      <c r="F17">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18">
+        <v>-2.8</v>
+      </c>
+      <c r="C18">
+        <v>-3.05</v>
+      </c>
+      <c r="D18">
+        <v>-3.1</v>
+      </c>
+      <c r="E18">
+        <v>-3.31</v>
+      </c>
+      <c r="F18">
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19">
+        <v>-4.3</v>
+      </c>
+      <c r="C19">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="D19">
+        <v>-4.3899999999999997</v>
+      </c>
+      <c r="E19">
+        <v>-4.45</v>
+      </c>
+      <c r="F19">
+        <v>-4.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20">
+        <v>-2.27</v>
+      </c>
+      <c r="C20">
+        <v>-2.42</v>
+      </c>
+      <c r="D20">
+        <v>-2.46</v>
+      </c>
+      <c r="E20">
+        <v>-2.72</v>
+      </c>
+      <c r="F20">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>511</v>
+      </c>
+      <c r="B21">
+        <v>-99.426000000000002</v>
+      </c>
+      <c r="C21">
+        <v>-97.992000000000004</v>
+      </c>
+      <c r="D21">
+        <v>-97.28</v>
+      </c>
+      <c r="E21">
+        <v>-96.57</v>
+      </c>
+      <c r="F21">
+        <v>-98.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="C22">
+        <v>-4.34</v>
+      </c>
+      <c r="D22">
+        <v>-4.04</v>
+      </c>
+      <c r="E22">
+        <v>-3.93</v>
+      </c>
+      <c r="F22">
+        <v>-3.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>542</v>
+      </c>
+      <c r="B23">
+        <v>-9.68</v>
+      </c>
+      <c r="C23">
+        <v>-10.09</v>
+      </c>
+      <c r="D23">
+        <v>-10.01</v>
+      </c>
+      <c r="E23">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="F23">
+        <v>-10.039999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24">
+        <v>-5.99</v>
+      </c>
+      <c r="C24">
+        <v>-5.72</v>
+      </c>
+      <c r="D24">
+        <v>-5.29</v>
+      </c>
+      <c r="E24">
+        <v>-5.27</v>
+      </c>
+      <c r="F24">
+        <v>-5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25">
+        <v>-11.18</v>
+      </c>
+      <c r="C25">
+        <v>-11.29</v>
+      </c>
+      <c r="D25">
+        <v>-11.19</v>
+      </c>
+      <c r="E25">
+        <v>-11.55</v>
+      </c>
+      <c r="F25">
+        <v>-11.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26">
+        <v>-5.15</v>
+      </c>
+      <c r="C26">
+        <v>-5.7</v>
+      </c>
+      <c r="D26">
+        <v>-5.44</v>
+      </c>
+      <c r="E26">
+        <v>-5.51</v>
+      </c>
+      <c r="F26">
+        <v>-5.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>558</v>
+      </c>
+      <c r="B27">
+        <v>-76.242999999999995</v>
+      </c>
+      <c r="C27">
+        <v>-74.808999999999997</v>
+      </c>
+      <c r="D27">
+        <v>-73.98</v>
+      </c>
+      <c r="E27">
+        <v>-73.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>-4.34</v>
+      </c>
+      <c r="C28">
+        <v>-4.57</v>
+      </c>
+      <c r="D28">
+        <v>-4.47</v>
+      </c>
+      <c r="E28">
+        <v>-4.5</v>
+      </c>
+      <c r="F28">
+        <v>-4.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>-5.42</v>
+      </c>
+      <c r="C29">
+        <v>-4.87</v>
+      </c>
+      <c r="D29">
+        <v>-4.96</v>
+      </c>
+      <c r="E29">
+        <v>-5.05</v>
+      </c>
+      <c r="F29">
+        <v>-5.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>COUNT(B2:B29)</f>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f>COUNT(C2:C29)</f>
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <f>COUNT(D2:D29)</f>
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f>COUNT(E2:E29)</f>
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>COUNT(F2:F29)</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -55597,13 +57040,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M514" activeCellId="10" sqref="A1:XFD1 C514 D514 E514 G514 H514 I514 J514 K514 L514 M514"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63887,7 +65330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E514"/>
   <sheetViews>
@@ -68610,7 +70053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q432"/>
   <sheetViews>
@@ -77203,19 +78646,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="13" max="13" width="46.1640625" customWidth="1"/>
     <col min="14" max="15" width="18.83203125" style="3" customWidth="1"/>
@@ -77245,34 +78688,34 @@
         <v>593</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B2" s="13">
         <v>0.69493611320516002</v>
@@ -77305,7 +78748,7 @@
         <v>78.36</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -77314,12 +78757,12 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" s="3">
         <v>0.366741566047593</v>
@@ -77352,7 +78795,7 @@
         <v>10.3</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -77361,12 +78804,12 @@
         <v>1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B4" s="3">
         <v>0.27649257911035102</v>
@@ -77399,7 +78842,7 @@
         <v>10.125</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -77408,12 +78851,12 @@
         <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B5" s="3">
         <v>0.16725590663298201</v>
@@ -77446,7 +78889,7 @@
         <v>20.83</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -77455,12 +78898,12 @@
         <v>0</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B6" s="3">
         <v>0.232812336577575</v>
@@ -77493,7 +78936,7 @@
         <v>48.826000000000001</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N6" s="3">
         <v>2</v>
@@ -77502,12 +78945,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7" s="13">
         <v>0.64866218444365498</v>
@@ -77540,7 +78983,7 @@
         <v>20.523</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -77549,12 +78992,12 @@
         <v>1</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B8" s="3">
         <v>0.31691789413965799</v>
@@ -77587,7 +79030,7 @@
         <v>37.219000000000001</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -77596,12 +79039,12 @@
         <v>1</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B9" s="13">
         <v>0.74628172065768705</v>
@@ -77641,12 +79084,12 @@
         <v>1</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B10" s="13">
         <v>0.76114121818119895</v>
@@ -77686,12 +79129,12 @@
         <v>1</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B11" s="3">
         <v>0.41806895920632098</v>
@@ -77731,12 +79174,12 @@
         <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" s="13">
         <v>0.56786769753029698</v>
@@ -77772,12 +79215,12 @@
         <v>1</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B13" s="13">
         <v>0.68840000000000001</v>
@@ -77813,12 +79256,36 @@
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.15717902800928299</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-78.908541509106598</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-2.8548765784997401</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.57304010344669598</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.02644780335436</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1.05794366942253E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.9985947097285299</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.6404000000000001</v>
       </c>
       <c r="K14" s="15">
         <v>34.81</v>
@@ -77832,10 +79299,43 @@
     </row>
     <row r="15" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.217341064537203</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-13.0935373797802</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-0.93221239591569305</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-0.60098609760674904</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-1.3330529718265201</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-1.23968054229262E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.4093124007612601</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.1341000000000001</v>
+      </c>
+      <c r="K15" s="15">
+        <v>37.78</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Solvents_ions_only" sheetId="4" r:id="rId6"/>
     <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId7"/>
     <sheet name="Results" sheetId="6" r:id="rId8"/>
+    <sheet name=" new results" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13298" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13492" uniqueCount="639">
   <si>
     <t>Compound</t>
   </si>
@@ -1908,10 +1909,49 @@
     <t>Li, Na, K, Cl, Br, I, butanone, ethanol, toluene, 14_dioxane, n_octane, nitromethane</t>
   </si>
   <si>
+    <t>DMA</t>
+  </si>
+  <si>
     <t>Dimethylacetamide</t>
   </si>
   <si>
     <t>B [-2,2]</t>
+  </si>
+  <si>
+    <t>B [-4,4]</t>
+  </si>
+  <si>
+    <t>testset1</t>
+  </si>
+  <si>
+    <t>testset2</t>
+  </si>
+  <si>
+    <t>testset3</t>
+  </si>
+  <si>
+    <t>testset4</t>
+  </si>
+  <si>
+    <t>testset5</t>
+  </si>
+  <si>
+    <t>testset6</t>
+  </si>
+  <si>
+    <t>testset7</t>
+  </si>
+  <si>
+    <t>testset8</t>
+  </si>
+  <si>
+    <t>testset9</t>
+  </si>
+  <si>
+    <t>testset10</t>
+  </si>
+  <si>
+    <t>Li (Rb for but)</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2096,6 +2136,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2799,6 +2842,451 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1086757</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007600" y="254000"/>
+          <a:ext cx="807357" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>758120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="2736477"/>
+          <a:ext cx="635000" cy="701343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10121900" y="1998254"/>
+          <a:ext cx="625475" cy="643346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1082375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>830730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10033000" y="4120030"/>
+          <a:ext cx="777575" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>450051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9804400" y="6133353"/>
+          <a:ext cx="1244600" cy="323798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1300046</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>499783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9842500" y="5528983"/>
+          <a:ext cx="1185746" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>466911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="4994962"/>
+          <a:ext cx="1308100" cy="361449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>442258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9766300" y="3590447"/>
+          <a:ext cx="1333500" cy="331611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>713442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969500" y="1273993"/>
+          <a:ext cx="927100" cy="671349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1338416</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>439271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9817100" y="794871"/>
+          <a:ext cx="1249516" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -56419,18 +56907,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="8" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -56449,8 +56938,38 @@
       <c r="F1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M1" t="s">
+        <v>633</v>
+      </c>
+      <c r="N1" t="s">
+        <v>634</v>
+      </c>
+      <c r="O1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -56469,8 +56988,38 @@
       <c r="F2">
         <v>-11.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" t="s">
+        <v>346</v>
+      </c>
+      <c r="O2" t="s">
+        <v>346</v>
+      </c>
+      <c r="P2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -56489,8 +57038,38 @@
       <c r="F3">
         <v>-10.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P3" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -56509,8 +57088,38 @@
       <c r="F4">
         <v>-3.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N4" t="s">
+        <v>362</v>
+      </c>
+      <c r="O4" t="s">
+        <v>362</v>
+      </c>
+      <c r="P4" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>346</v>
       </c>
@@ -56529,8 +57138,38 @@
       <c r="F5">
         <v>-62.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" t="s">
+        <v>446</v>
+      </c>
+      <c r="K5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" t="s">
+        <v>446</v>
+      </c>
+      <c r="M5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N5" t="s">
+        <v>446</v>
+      </c>
+      <c r="O5" t="s">
+        <v>446</v>
+      </c>
+      <c r="P5" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -56549,8 +57188,38 @@
       <c r="F6">
         <v>-5.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>638</v>
+      </c>
+      <c r="I6" t="s">
+        <v>638</v>
+      </c>
+      <c r="J6" t="s">
+        <v>638</v>
+      </c>
+      <c r="K6" t="s">
+        <v>638</v>
+      </c>
+      <c r="L6" t="s">
+        <v>638</v>
+      </c>
+      <c r="M6" t="s">
+        <v>638</v>
+      </c>
+      <c r="N6" t="s">
+        <v>638</v>
+      </c>
+      <c r="O6" t="s">
+        <v>638</v>
+      </c>
+      <c r="P6" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -56569,8 +57238,38 @@
       <c r="F7">
         <v>-3.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I7" t="s">
+        <v>511</v>
+      </c>
+      <c r="J7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L7" t="s">
+        <v>511</v>
+      </c>
+      <c r="M7" t="s">
+        <v>511</v>
+      </c>
+      <c r="N7" t="s">
+        <v>511</v>
+      </c>
+      <c r="O7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>361</v>
       </c>
@@ -56589,8 +57288,38 @@
       <c r="F8">
         <v>-68.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8" t="s">
+        <v>329</v>
+      </c>
+      <c r="N8" t="s">
+        <v>329</v>
+      </c>
+      <c r="O8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -56606,8 +57335,38 @@
       <c r="E9">
         <v>-68.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>336</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -56626,8 +57385,38 @@
       <c r="F10">
         <v>-3.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>405</v>
       </c>
@@ -56646,8 +57435,38 @@
       <c r="F11">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>485</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>542</v>
+      </c>
+      <c r="P11" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -56666,8 +57485,38 @@
       <c r="F12">
         <v>-4.3600000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>487</v>
+      </c>
+      <c r="I12" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>446</v>
       </c>
@@ -56686,8 +57535,38 @@
       <c r="F13">
         <v>-80.930000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>542</v>
+      </c>
+      <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s">
+        <v>542</v>
+      </c>
+      <c r="K13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>542</v>
+      </c>
+      <c r="O13" t="s">
+        <v>554</v>
+      </c>
+      <c r="P13" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -56703,8 +57582,38 @@
       <c r="F14">
         <v>-123.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" t="s">
+        <v>554</v>
+      </c>
+      <c r="K14" t="s">
+        <v>554</v>
+      </c>
+      <c r="L14" t="s">
+        <v>542</v>
+      </c>
+      <c r="M14" t="s">
+        <v>554</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -56723,8 +57632,38 @@
       <c r="F15">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>479</v>
       </c>
@@ -78651,7 +79590,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+      <selection sqref="A1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -78688,7 +79627,7 @@
         <v>593</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>594</v>
@@ -79299,7 +80238,7 @@
     </row>
     <row r="15" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B15" s="3">
         <v>0.217341064537203</v>
@@ -79336,6 +80275,571 @@
       </c>
       <c r="P15" s="2" t="s">
         <v>623</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="46.1640625" customWidth="1"/>
+    <col min="16" max="16" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.65979935317407901</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-30.716953215161301</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.112703436122278</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-8.3097117217093203E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-0.16227801116082499</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4.7804767517177597E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.06129266287354</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="K2" s="20">
+        <v>78.36</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.40048430415499398</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-27.4264166862617</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-0.17675337014966699</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-0.108374675747628</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.90372296636461902</v>
+      </c>
+      <c r="G3" s="5">
+        <v>-1.7196666049524599E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.8887636175368998</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="K3" s="20">
+        <v>10.3</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.35929425867980302</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-93.318068312098106</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-1.0403956724438299</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.31073343163058598</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-3.7962305963829301</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-2.01504596964002E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.99936300691017</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2.9872999999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="K4" s="20">
+        <v>10.125</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.53937947692043797</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-9.33708945496317</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-0.10800786005287</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.38125620743183503</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.72863758962456504</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-2.2285590183705802E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.9658457167217001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1317999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.88</v>
+      </c>
+      <c r="K5" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.490307640063885</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-11.523762468931</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.31993531324417301</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.380190336689467</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.25214739323076801</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-1.9170629778025399E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.9261329599710999</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.3627</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="K6" s="20">
+        <v>48.826000000000001</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.68804933936335499</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-31.6267637992412</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.38783429295079502</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.5608840643882601E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.56248007345113704</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-1.7456291948014301E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.3343400515600701</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="K7" s="20">
+        <v>20.523</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.39131803526671399</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-87.874670486271597</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.58838936640790096</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.190490664469608</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.16521714216728001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-1.5783033855283998E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.4019352564193799</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="K8" s="20">
+        <v>37.219000000000001</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.66452512999722002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-11.8739116174467</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.262442338600681</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-7.71821479897596E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.0149565289015099</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-2.0002783540631001E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.9964429781321398</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.4233</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="K9" s="20">
+        <v>24.852</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.66568497101240198</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-12.480776559776199</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.23611407097728199</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-5.7096305800275499E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.2378004861702698</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-1.9460038514259499E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.9827876712230199</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="K10" s="20">
+        <v>32.613</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.66267288113971201</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-9.7690460751389203</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9.0010393395208804E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.33956536444269703</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.08305064676924</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-1.74229547845644E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.7674361087696302</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.266</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.92</v>
+      </c>
+      <c r="K11" s="20">
+        <v>35.688000000000002</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13">
+        <v>0.217341064537203</v>
+      </c>
+      <c r="C13">
+        <v>-13.0935373797802</v>
+      </c>
+      <c r="D13">
+        <v>-0.93221239591569305</v>
+      </c>
+      <c r="E13">
+        <v>-0.60098609760674904</v>
+      </c>
+      <c r="F13">
+        <v>-1.3330529718265201</v>
+      </c>
+      <c r="G13">
+        <v>-1.23968054229262E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.4093124007612601</v>
       </c>
     </row>
   </sheetData>

--- a/mobley/mnsol/Fulldata.xlsx
+++ b/mobley/mnsol/Fulldata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="700" windowWidth="24960" windowHeight="13900" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="220" yWindow="700" windowWidth="24960" windowHeight="13900" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="Alkanols_testset1" sheetId="11" r:id="rId4"/>
     <sheet name="Alkanols_testset2" sheetId="12" r:id="rId5"/>
     <sheet name="Alkanols_testset3" sheetId="13" r:id="rId6"/>
-    <sheet name="Solvents_neutral" sheetId="2" r:id="rId7"/>
-    <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId8"/>
-    <sheet name="Solvents_ions_only" sheetId="4" r:id="rId9"/>
-    <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId10"/>
-    <sheet name="Results" sheetId="6" r:id="rId11"/>
-    <sheet name=" new results" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet7" sheetId="14" r:id="rId7"/>
+    <sheet name="Solvents_neutral" sheetId="2" r:id="rId8"/>
+    <sheet name="Solvents_neutral&amp;ions" sheetId="3" r:id="rId9"/>
+    <sheet name="Solvents_ions_only" sheetId="4" r:id="rId10"/>
+    <sheet name="consistent_set_neutral+ions" sheetId="5" r:id="rId11"/>
+    <sheet name="Results" sheetId="6" r:id="rId12"/>
+    <sheet name=" new results" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -2087,8 +2088,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2169,7 +2172,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2184,6 +2187,7 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2198,6 +2202,7 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -56502,6 +56507,4729 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E514"/>
+  <sheetViews>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A515" sqref="A515"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="5" width="23" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>216</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>228</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>271</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>273</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>281</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>287</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>288</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>289</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>293</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>294</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>296</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>298</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>299</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>99</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>302</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>304</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>305</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>306</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>307</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>308</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>309</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>310</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>311</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>312</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>314</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>315</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>316</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>317</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>318</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>319</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>320</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>321</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>322</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>323</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>324</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>325</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>326</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>327</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>328</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>329</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>330</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>331</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>332</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>81</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>334</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>64</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>335</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>336</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>337</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>338</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>339</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>88</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>341</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>342</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>343</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>344</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>345</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>346</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-58.08</v>
+      </c>
+      <c r="C225" s="2">
+        <v>-59.27342256</v>
+      </c>
+      <c r="D225" s="2">
+        <v>-55.449330779999997</v>
+      </c>
+      <c r="E225" s="2">
+        <v>-57.08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>347</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>348</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>349</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>350</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>351</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>106</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>352</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>353</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>108</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>354</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>53</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>355</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>356</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>357</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>358</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>359</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>360</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>361</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-61.42</v>
+      </c>
+      <c r="C247" s="2">
+        <v>-63.145315490000002</v>
+      </c>
+      <c r="D247" s="2">
+        <v>-58.795411090000002</v>
+      </c>
+      <c r="E247" s="2">
+        <v>-61.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>362</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-75.53</v>
+      </c>
+      <c r="C248" s="2">
+        <v>-74.808795410000002</v>
+      </c>
+      <c r="D248" s="2">
+        <v>-74.808795410000002</v>
+      </c>
+      <c r="E248" s="2">
+        <v>-69.290000000000006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>363</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>364</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>365</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>84</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>366</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>51</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>367</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>368</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>369</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>370</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>371</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>372</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>373</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>374</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>375</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>376</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>377</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>378</v>
+      </c>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>379</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>380</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>381</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>382</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>383</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>384</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>385</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>386</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>387</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>388</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>111</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>389</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>390</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>391</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>392</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>393</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>394</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>395</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>396</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>397</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>398</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>113</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>399</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>400</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>401</v>
+      </c>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>402</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>403</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>404</v>
+      </c>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>405</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>406</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>77</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>407</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>116</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>408</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>409</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>410</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>411</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>412</v>
+      </c>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>413</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>414</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>118</v>
+      </c>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>42</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>415</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>41</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>416</v>
+      </c>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>417</v>
+      </c>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>418</v>
+      </c>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>419</v>
+      </c>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>420</v>
+      </c>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>120</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>122</v>
+      </c>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>421</v>
+      </c>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>422</v>
+      </c>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>423</v>
+      </c>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>424</v>
+      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>425</v>
+      </c>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>426</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>124</v>
+      </c>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>126</v>
+      </c>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>427</v>
+      </c>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>428</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>128</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>429</v>
+      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>430</v>
+      </c>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>431</v>
+      </c>
+      <c r="B332" s="2">
+        <v>-53.06</v>
+      </c>
+      <c r="C332" s="2">
+        <v>-54.804015300000003</v>
+      </c>
+      <c r="D332" s="2">
+        <v>-50.9082218</v>
+      </c>
+      <c r="E332" s="2">
+        <v>-51.66</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>432</v>
+      </c>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>433</v>
+      </c>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>34</v>
+      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>434</v>
+      </c>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>434</v>
+      </c>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>435</v>
+      </c>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>436</v>
+      </c>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>437</v>
+      </c>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>438</v>
+      </c>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>439</v>
+      </c>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>440</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>441</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>442</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>443</v>
+      </c>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>444</v>
+      </c>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>445</v>
+      </c>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>446</v>
+      </c>
+      <c r="B350" s="2">
+        <v>-85.09</v>
+      </c>
+      <c r="C350" s="2">
+        <v>-82.86328872</v>
+      </c>
+      <c r="D350" s="2">
+        <v>-87.954110900000003</v>
+      </c>
+      <c r="E350" s="2">
+        <v>-79.09</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>447</v>
+      </c>
+      <c r="B351" s="2">
+        <v>-125</v>
+      </c>
+      <c r="C351" s="2">
+        <v>-120.7456979</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2">
+        <v>-118.53</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>448</v>
+      </c>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>130</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>449</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>450</v>
+      </c>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>451</v>
+      </c>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>452</v>
+      </c>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>76</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>453</v>
+      </c>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>133</v>
+      </c>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>454</v>
+      </c>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>455</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>456</v>
+      </c>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>457</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>458</v>
+      </c>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>459</v>
+      </c>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>460</v>
+      </c>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>461</v>
+      </c>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>462</v>
+      </c>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>463</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>464</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>135</v>
+      </c>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>465</v>
+      </c>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>466</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>467</v>
+      </c>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>468</v>
+      </c>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>469</v>
+      </c>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>137</v>
+      </c>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>139</v>
+      </c>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>470</v>
+      </c>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>471</v>
+      </c>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2"/>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>472</v>
+      </c>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>473</v>
+      </c>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>474</v>
+      </c>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>141</v>
+      </c>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>475</v>
+      </c>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>476</v>
+      </c>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>477</v>
+      </c>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>478</v>
+      </c>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>479</v>
+      </c>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>480</v>
+      </c>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>143</v>
+      </c>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>481</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>482</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>483</v>
+      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>484</v>
+      </c>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="2"/>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>485</v>
+      </c>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="2"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>486</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>487</v>
+      </c>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>488</v>
+      </c>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>489</v>
+      </c>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>490</v>
+      </c>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="2"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>491</v>
+      </c>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>492</v>
+      </c>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>493</v>
+      </c>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>494</v>
+      </c>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>495</v>
+      </c>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>496</v>
+      </c>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>497</v>
+      </c>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>145</v>
+      </c>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>498</v>
+      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>499</v>
+      </c>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>500</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>501</v>
+      </c>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>502</v>
+      </c>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>503</v>
+      </c>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>504</v>
+      </c>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>505</v>
+      </c>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>147</v>
+      </c>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>506</v>
+      </c>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>507</v>
+      </c>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>508</v>
+      </c>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>149</v>
+      </c>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>509</v>
+      </c>
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>510</v>
+      </c>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>511</v>
+      </c>
+      <c r="B426" s="2">
+        <v>-102.06</v>
+      </c>
+      <c r="C426" s="2">
+        <v>-97.848948370000002</v>
+      </c>
+      <c r="D426" s="2">
+        <v>-105.4015296</v>
+      </c>
+      <c r="E426" s="2">
+        <v>-95.81</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>512</v>
+      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>93</v>
+      </c>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>25</v>
+      </c>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>94</v>
+      </c>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>513</v>
+      </c>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>514</v>
+      </c>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>515</v>
+      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>516</v>
+      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>517</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>518</v>
+      </c>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>519</v>
+      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>520</v>
+      </c>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>521</v>
+      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>522</v>
+      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>152</v>
+      </c>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>523</v>
+      </c>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="2"/>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>524</v>
+      </c>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>525</v>
+      </c>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>526</v>
+      </c>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>527</v>
+      </c>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>528</v>
+      </c>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>529</v>
+      </c>
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>154</v>
+      </c>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>530</v>
+      </c>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>531</v>
+      </c>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>532</v>
+      </c>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>533</v>
+      </c>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>534</v>
+      </c>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>535</v>
+      </c>
+      <c r="B455" s="2"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>536</v>
+      </c>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>156</v>
+      </c>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>537</v>
+      </c>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>158</v>
+      </c>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>538</v>
+      </c>
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>539</v>
+      </c>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>540</v>
+      </c>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>541</v>
+      </c>
+      <c r="B463" s="2"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>160</v>
+      </c>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>542</v>
+      </c>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>162</v>
+      </c>
+      <c r="B466" s="2"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>543</v>
+      </c>
+      <c r="B467" s="2"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>544</v>
+      </c>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>545</v>
+      </c>
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>546</v>
+      </c>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>164</v>
+      </c>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>547</v>
+      </c>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>166</v>
+      </c>
+      <c r="B473" s="2"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="2"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>548</v>
+      </c>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>549</v>
+      </c>
+      <c r="B475" s="2"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>550</v>
+      </c>
+      <c r="B476" s="2"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>168</v>
+      </c>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>83</v>
+      </c>
+      <c r="B478" s="2"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="2"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>551</v>
+      </c>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>552</v>
+      </c>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="2"/>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>553</v>
+      </c>
+      <c r="B481" s="2"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="2"/>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>554</v>
+      </c>
+      <c r="B482" s="2"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="2"/>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>171</v>
+      </c>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="2"/>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>555</v>
+      </c>
+      <c r="B484" s="2"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+      <c r="E484" s="2"/>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>556</v>
+      </c>
+      <c r="B485" s="2"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+      <c r="E485" s="2"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>557</v>
+      </c>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+      <c r="E486" s="2"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>558</v>
+      </c>
+      <c r="B487" s="2">
+        <v>-80.78</v>
+      </c>
+      <c r="C487" s="2">
+        <v>-78.871892930000001</v>
+      </c>
+      <c r="D487" s="2">
+        <v>-81.022944550000005</v>
+      </c>
+      <c r="E487" s="2">
+        <v>-74.31</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>559</v>
+      </c>
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="2"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>560</v>
+      </c>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="2"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>561</v>
+      </c>
+      <c r="B490" s="2"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="2"/>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>562</v>
+      </c>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="2"/>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>563</v>
+      </c>
+      <c r="B493" s="2"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>564</v>
+      </c>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>9</v>
+      </c>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>565</v>
+      </c>
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>566</v>
+      </c>
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>567</v>
+      </c>
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>71</v>
+      </c>
+      <c r="B499" s="2"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>568</v>
+      </c>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>569</v>
+      </c>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="2"/>
+      <c r="E501" s="2"/>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>570</v>
+      </c>
+      <c r="B502" s="2"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="2"/>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>571</v>
+      </c>
+      <c r="B503" s="2"/>
+      <c r="C503" s="2"/>
+      <c r="D503" s="2"/>
+      <c r="E503" s="2"/>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>572</v>
+      </c>
+      <c r="B504" s="2"/>
+      <c r="C504" s="2"/>
+      <c r="D504" s="2"/>
+      <c r="E504" s="2"/>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>573</v>
+      </c>
+      <c r="B505" s="2"/>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>574</v>
+      </c>
+      <c r="B507" s="2"/>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>575</v>
+      </c>
+      <c r="B508" s="2"/>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="2"/>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>576</v>
+      </c>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>174</v>
+      </c>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>577</v>
+      </c>
+      <c r="B511" s="2"/>
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>578</v>
+      </c>
+      <c r="B512" s="2"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>579</v>
+      </c>
+      <c r="B513" s="2"/>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>582</v>
+      </c>
+      <c r="B514" s="2">
+        <v>8</v>
+      </c>
+      <c r="C514" s="2">
+        <v>8</v>
+      </c>
+      <c r="D514" s="2">
+        <v>7</v>
+      </c>
+      <c r="E514" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -65093,11 +69821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" workbookViewId="0">
       <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
@@ -65791,7 +70519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -66813,7 +71541,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K19"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68575,8 +73303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68818,6 +73546,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="18" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -68829,7 +73574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P514"/>
   <sheetViews>
@@ -77117,4727 +81862,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E514"/>
-  <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A515" sqref="A515"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="5" width="23" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>205</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>209</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>213</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>216</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>217</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>219</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>221</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>222</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>223</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>225</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>230</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>231</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>233</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>235</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>236</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>238</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>239</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>240</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>241</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>242</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>247</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>248</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>249</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>251</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>252</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>253</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>255</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>257</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>258</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>263</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>266</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>268</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>269</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>270</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>271</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>273</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>274</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>275</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>277</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>278</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>279</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>280</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>281</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>282</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>283</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>284</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>285</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>286</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>287</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>288</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>289</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>290</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>291</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>292</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>293</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>294</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>295</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>296</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>297</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>298</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>299</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>99</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>300</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>301</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>302</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>303</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>304</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>305</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>306</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>101</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>307</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>308</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>309</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>310</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>311</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>312</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>313</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>314</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>315</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>316</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>317</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>318</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>319</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>320</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>321</v>
-      </c>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>322</v>
-      </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>323</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>324</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>325</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>326</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>327</v>
-      </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>328</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>329</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>330</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>331</v>
-      </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>332</v>
-      </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>333</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>103</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>81</v>
-      </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>65</v>
-      </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>334</v>
-      </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>64</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>335</v>
-      </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>336</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>337</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>338</v>
-      </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>339</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>88</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>63</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>340</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>341</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>342</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>343</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>344</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>345</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>346</v>
-      </c>
-      <c r="B225" s="2">
-        <v>-58.08</v>
-      </c>
-      <c r="C225" s="2">
-        <v>-59.27342256</v>
-      </c>
-      <c r="D225" s="2">
-        <v>-55.449330779999997</v>
-      </c>
-      <c r="E225" s="2">
-        <v>-57.08</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>61</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>347</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>348</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>349</v>
-      </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>350</v>
-      </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>351</v>
-      </c>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>106</v>
-      </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>352</v>
-      </c>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>353</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>108</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>57</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>354</v>
-      </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>53</v>
-      </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>355</v>
-      </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>356</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>357</v>
-      </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>358</v>
-      </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>359</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>360</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>361</v>
-      </c>
-      <c r="B247" s="2">
-        <v>-61.42</v>
-      </c>
-      <c r="C247" s="2">
-        <v>-63.145315490000002</v>
-      </c>
-      <c r="D247" s="2">
-        <v>-58.795411090000002</v>
-      </c>
-      <c r="E247" s="2">
-        <v>-61.48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>362</v>
-      </c>
-      <c r="B248" s="2">
-        <v>-75.53</v>
-      </c>
-      <c r="C248" s="2">
-        <v>-74.808795410000002</v>
-      </c>
-      <c r="D248" s="2">
-        <v>-74.808795410000002</v>
-      </c>
-      <c r="E248" s="2">
-        <v>-69.290000000000006</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>363</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>364</v>
-      </c>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>365</v>
-      </c>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>84</v>
-      </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>366</v>
-      </c>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>51</v>
-      </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>367</v>
-      </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>368</v>
-      </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>369</v>
-      </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>370</v>
-      </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>371</v>
-      </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>372</v>
-      </c>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>373</v>
-      </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>374</v>
-      </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>375</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>376</v>
-      </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>377</v>
-      </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>378</v>
-      </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>379</v>
-      </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>380</v>
-      </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>381</v>
-      </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>382</v>
-      </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>70</v>
-      </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>383</v>
-      </c>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>384</v>
-      </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>385</v>
-      </c>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>386</v>
-      </c>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>387</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>388</v>
-      </c>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>111</v>
-      </c>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>389</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>390</v>
-      </c>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>391</v>
-      </c>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>392</v>
-      </c>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>393</v>
-      </c>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>394</v>
-      </c>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>395</v>
-      </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>396</v>
-      </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>397</v>
-      </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>398</v>
-      </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>113</v>
-      </c>
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>399</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>400</v>
-      </c>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>401</v>
-      </c>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>402</v>
-      </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>403</v>
-      </c>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>404</v>
-      </c>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>405</v>
-      </c>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>406</v>
-      </c>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>77</v>
-      </c>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>407</v>
-      </c>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>116</v>
-      </c>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>408</v>
-      </c>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>409</v>
-      </c>
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>410</v>
-      </c>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>411</v>
-      </c>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>412</v>
-      </c>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>413</v>
-      </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>414</v>
-      </c>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>118</v>
-      </c>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>42</v>
-      </c>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>415</v>
-      </c>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>41</v>
-      </c>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>416</v>
-      </c>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>417</v>
-      </c>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>418</v>
-      </c>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>419</v>
-      </c>
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>420</v>
-      </c>
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>120</v>
-      </c>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>122</v>
-      </c>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>421</v>
-      </c>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>422</v>
-      </c>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>423</v>
-      </c>
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>424</v>
-      </c>
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>425</v>
-      </c>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>426</v>
-      </c>
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>124</v>
-      </c>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>126</v>
-      </c>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>427</v>
-      </c>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>428</v>
-      </c>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>128</v>
-      </c>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>429</v>
-      </c>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>430</v>
-      </c>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>431</v>
-      </c>
-      <c r="B332" s="2">
-        <v>-53.06</v>
-      </c>
-      <c r="C332" s="2">
-        <v>-54.804015300000003</v>
-      </c>
-      <c r="D332" s="2">
-        <v>-50.9082218</v>
-      </c>
-      <c r="E332" s="2">
-        <v>-51.66</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>432</v>
-      </c>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>433</v>
-      </c>
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>34</v>
-      </c>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>434</v>
-      </c>
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>434</v>
-      </c>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>435</v>
-      </c>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>436</v>
-      </c>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>437</v>
-      </c>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>438</v>
-      </c>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>439</v>
-      </c>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>440</v>
-      </c>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>441</v>
-      </c>
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>442</v>
-      </c>
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>443</v>
-      </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>444</v>
-      </c>
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>445</v>
-      </c>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>31</v>
-      </c>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>446</v>
-      </c>
-      <c r="B350" s="2">
-        <v>-85.09</v>
-      </c>
-      <c r="C350" s="2">
-        <v>-82.86328872</v>
-      </c>
-      <c r="D350" s="2">
-        <v>-87.954110900000003</v>
-      </c>
-      <c r="E350" s="2">
-        <v>-79.09</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>447</v>
-      </c>
-      <c r="B351" s="2">
-        <v>-125</v>
-      </c>
-      <c r="C351" s="2">
-        <v>-120.7456979</v>
-      </c>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2">
-        <v>-118.53</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>448</v>
-      </c>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>130</v>
-      </c>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>449</v>
-      </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>450</v>
-      </c>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>451</v>
-      </c>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>452</v>
-      </c>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>76</v>
-      </c>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>453</v>
-      </c>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>133</v>
-      </c>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>454</v>
-      </c>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>455</v>
-      </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>456</v>
-      </c>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>457</v>
-      </c>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>458</v>
-      </c>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>459</v>
-      </c>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>460</v>
-      </c>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>461</v>
-      </c>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>462</v>
-      </c>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
-        <v>463</v>
-      </c>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>464</v>
-      </c>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>135</v>
-      </c>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>465</v>
-      </c>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>466</v>
-      </c>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>467</v>
-      </c>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
-        <v>468</v>
-      </c>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>469</v>
-      </c>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>137</v>
-      </c>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>139</v>
-      </c>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>470</v>
-      </c>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>471</v>
-      </c>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>472</v>
-      </c>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>473</v>
-      </c>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>474</v>
-      </c>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>141</v>
-      </c>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>475</v>
-      </c>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>476</v>
-      </c>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
-        <v>477</v>
-      </c>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
-        <v>478</v>
-      </c>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>479</v>
-      </c>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>480</v>
-      </c>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>143</v>
-      </c>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>481</v>
-      </c>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>482</v>
-      </c>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>483</v>
-      </c>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>484</v>
-      </c>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>485</v>
-      </c>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>486</v>
-      </c>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>487</v>
-      </c>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>488</v>
-      </c>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>489</v>
-      </c>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-      <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>490</v>
-      </c>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>491</v>
-      </c>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>492</v>
-      </c>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>493</v>
-      </c>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>494</v>
-      </c>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>495</v>
-      </c>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>496</v>
-      </c>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>497</v>
-      </c>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>145</v>
-      </c>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
-        <v>498</v>
-      </c>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
-        <v>499</v>
-      </c>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
-        <v>500</v>
-      </c>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>501</v>
-      </c>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>502</v>
-      </c>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>503</v>
-      </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>504</v>
-      </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>505</v>
-      </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>147</v>
-      </c>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>506</v>
-      </c>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>507</v>
-      </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>508</v>
-      </c>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>149</v>
-      </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>509</v>
-      </c>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>510</v>
-      </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>511</v>
-      </c>
-      <c r="B426" s="2">
-        <v>-102.06</v>
-      </c>
-      <c r="C426" s="2">
-        <v>-97.848948370000002</v>
-      </c>
-      <c r="D426" s="2">
-        <v>-105.4015296</v>
-      </c>
-      <c r="E426" s="2">
-        <v>-95.81</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>512</v>
-      </c>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>93</v>
-      </c>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>25</v>
-      </c>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>94</v>
-      </c>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>513</v>
-      </c>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>514</v>
-      </c>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>515</v>
-      </c>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>516</v>
-      </c>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>517</v>
-      </c>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>518</v>
-      </c>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>519</v>
-      </c>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>520</v>
-      </c>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>521</v>
-      </c>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>522</v>
-      </c>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>152</v>
-      </c>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2"/>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>523</v>
-      </c>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>524</v>
-      </c>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>525</v>
-      </c>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>526</v>
-      </c>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>527</v>
-      </c>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>528</v>
-      </c>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>529</v>
-      </c>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>154</v>
-      </c>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>530</v>
-      </c>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>531</v>
-      </c>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>532</v>
-      </c>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>533</v>
-      </c>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>534</v>
-      </c>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>535</v>
-      </c>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>536</v>
-      </c>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>156</v>
-      </c>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>537</v>
-      </c>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>158</v>
-      </c>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>538</v>
-      </c>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>539</v>
-      </c>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>540</v>
-      </c>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>541</v>
-      </c>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>160</v>
-      </c>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>542</v>
-      </c>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="2"/>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>162</v>
-      </c>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>543</v>
-      </c>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>544</v>
-      </c>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>545</v>
-      </c>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-      <c r="E469" s="2"/>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>546</v>
-      </c>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>164</v>
-      </c>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-      <c r="E471" s="2"/>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>547</v>
-      </c>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>166</v>
-      </c>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-      <c r="E473" s="2"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>548</v>
-      </c>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-      <c r="E474" s="2"/>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
-        <v>549</v>
-      </c>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
-        <v>550</v>
-      </c>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-      <c r="E476" s="2"/>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
-        <v>168</v>
-      </c>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-      <c r="E477" s="2"/>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
-        <v>83</v>
-      </c>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-      <c r="E478" s="2"/>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
-        <v>551</v>
-      </c>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-      <c r="E479" s="2"/>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
-        <v>552</v>
-      </c>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-      <c r="E480" s="2"/>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
-        <v>553</v>
-      </c>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-      <c r="E481" s="2"/>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>554</v>
-      </c>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-      <c r="E482" s="2"/>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>171</v>
-      </c>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-      <c r="E483" s="2"/>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
-        <v>555</v>
-      </c>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
-        <v>556</v>
-      </c>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-      <c r="E485" s="2"/>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>557</v>
-      </c>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-      <c r="E486" s="2"/>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
-        <v>558</v>
-      </c>
-      <c r="B487" s="2">
-        <v>-80.78</v>
-      </c>
-      <c r="C487" s="2">
-        <v>-78.871892930000001</v>
-      </c>
-      <c r="D487" s="2">
-        <v>-81.022944550000005</v>
-      </c>
-      <c r="E487" s="2">
-        <v>-74.31</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
-        <v>559</v>
-      </c>
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-      <c r="E488" s="2"/>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
-        <v>560</v>
-      </c>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>561</v>
-      </c>
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-      <c r="E490" s="2"/>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>562</v>
-      </c>
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-      <c r="E491" s="2"/>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>10</v>
-      </c>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-      <c r="E492" s="2"/>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>563</v>
-      </c>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
-        <v>564</v>
-      </c>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-      <c r="E494" s="2"/>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>9</v>
-      </c>
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
-        <v>565</v>
-      </c>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
-        <v>566</v>
-      </c>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-      <c r="E497" s="2"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
-        <v>567</v>
-      </c>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-      <c r="E498" s="2"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>71</v>
-      </c>
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-      <c r="E499" s="2"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>568</v>
-      </c>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-      <c r="E500" s="2"/>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>569</v>
-      </c>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="2"/>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
-        <v>570</v>
-      </c>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="2"/>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>571</v>
-      </c>
-      <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-      <c r="E503" s="2"/>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>572</v>
-      </c>
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-      <c r="E504" s="2"/>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>573</v>
-      </c>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-      <c r="E505" s="2"/>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>4</v>
-      </c>
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-      <c r="E506" s="2"/>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>574</v>
-      </c>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-      <c r="E507" s="2"/>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>575</v>
-      </c>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-      <c r="E508" s="2"/>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
-        <v>576</v>
-      </c>
-      <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-      <c r="E509" s="2"/>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
-        <v>174</v>
-      </c>
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
-        <v>577</v>
-      </c>
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
-        <v>578</v>
-      </c>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>579</v>
-      </c>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>582</v>
-      </c>
-      <c r="B514" s="2">
-        <v>8</v>
-      </c>
-      <c r="C514" s="2">
-        <v>8</v>
-      </c>
-      <c r="D514" s="2">
-        <v>7</v>
-      </c>
-      <c r="E514" s="2">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>